--- a/ims/metadata/static/Epigenetics_Initiative_Sample_Submission_Form_v3.1.xlsx
+++ b/ims/metadata/static/Epigenetics_Initiative_Sample_Submission_Form_v3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankita/Documents/eclipse-workspace/imsDB/ims_docker/ims/metadata/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6661638-5BB4-F84D-99C1-B64E7E01BF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AB05AB-1C00-BE4B-912C-6F2487FE4D9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="460" windowWidth="28800" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="460" windowWidth="28800" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_information" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <definedName name="Z_FC198A9D_71F8_7F46_9D24_A33DA15C8EB9_.wvu.Cols" localSheetId="1" hidden="1">'EPI_ONLY!'!$AB:$AI,'EPI_ONLY!'!$AO:$AR</definedName>
     <definedName name="Z_FC198A9D_71F8_7F46_9D24_A33DA15C8EB9_.wvu.Cols" localSheetId="0" hidden="1">Sample_information!$Q:$R</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateCount="1"/>
   <customWorkbookViews>
     <customWorkbookView name="EPI_ONLY" guid="{8053CCBA-1385-3043-9E52-6E2C63A058DB}" xWindow="89" yWindow="94" windowWidth="1694" windowHeight="761" activeSheetId="2"/>
     <customWorkbookView name="RRBS-MeDIP-hMeSeal" guid="{17B9C19A-4C6B-F040-9F7E-61B1DF867E8C}" xWindow="7" yWindow="23" windowWidth="1694" windowHeight="761" activeSheetId="10"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>Please fill in all fields that are yellow</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Mark(s) of interest</t>
-  </si>
-  <si>
-    <t>Experimental Conditions and Sequencing Instructions:</t>
   </si>
   <si>
     <t>ATAC-seq</t>
@@ -436,6 +433,24 @@
   </si>
   <si>
     <t>mathieu.lupien@uhnresearch.ca</t>
+  </si>
+  <si>
+    <t>Please indicate choice in each Sequencing Category</t>
+  </si>
+  <si>
+    <t>bp length ( 36bp / 50bp / 75bp / 100bp )</t>
+  </si>
+  <si>
+    <t>Low diversity sample(Yes / No)</t>
+  </si>
+  <si>
+    <t>Sequencing Type (Single Read / Paired-end)</t>
+  </si>
+  <si>
+    <t>Multiplexing Sequencing? (Yes / No)</t>
+  </si>
+  <si>
+    <t>Experimental Conditions and special Sequencing Instructions:</t>
   </si>
 </sst>
 </file>
@@ -774,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -897,6 +912,24 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1402,9 +1435,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1452,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="27" t="s">
@@ -1474,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="28"/>
@@ -1499,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="2"/>
@@ -1521,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="2"/>
@@ -1580,10 +1613,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="88"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1772,31 +1805,47 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:33" s="23" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C21" s="13"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="Q21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="1:33" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="16"/>
+    <row r="21" spans="1:33" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="23"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+    </row>
+    <row r="22" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="86"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="J22" s="23"/>
@@ -1824,10 +1873,12 @@
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="23"/>
+    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="23"/>
       <c r="E23" s="13"/>
       <c r="F23" s="23"/>
@@ -1847,20 +1898,13 @@
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="23"/>
+    </row>
+    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="23"/>
       <c r="E24" s="13"/>
       <c r="F24" s="23"/>
@@ -1880,20 +1924,13 @@
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-    </row>
-    <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="23"/>
+    </row>
+    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="23"/>
       <c r="E25" s="13"/>
       <c r="F25" s="23"/>
@@ -1913,20 +1950,13 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-    </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="23"/>
+    </row>
+    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="23"/>
@@ -1946,22 +1976,14 @@
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-    </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="23"/>
+    </row>
+    <row r="27" spans="1:33" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="16"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="J27" s="23"/>
@@ -1979,9 +2001,18 @@
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
     </row>
     <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="13"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -2003,13 +2034,21 @@
       <c r="V28" s="23"/>
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
     </row>
     <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="23"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="J29" s="23"/>
@@ -2030,10 +2069,9 @@
     </row>
     <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="23"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="J30" s="23"/>
@@ -2052,29 +2090,6 @@
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-    </row>
     <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
@@ -2089,8 +2104,12 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
+      <c r="Q32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
@@ -2112,8 +2131,12 @@
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
+      <c r="Q33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
@@ -2135,14 +2158,45 @@
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
+      <c r="Q34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23"/>
@@ -2159,11 +2213,9 @@
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
@@ -2186,11 +2238,9 @@
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="R37" s="23"/>
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
       <c r="U37" s="23"/>
@@ -2213,11 +2263,9 @@
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
@@ -2226,115 +2274,13 @@
       <c r="X38" s="23"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
       <c r="Q39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q43" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q36:Q43">
-    <sortCondition ref="Q36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q32:Q39">
+    <sortCondition ref="Q32"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{8053CCBA-1385-3043-9E52-6E2C63A058DB}" scale="75" fitToPage="1" hiddenColumns="1" topLeftCell="A4">
@@ -2446,10 +2392,10 @@
       <formula1>25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose from dropdown" sqref="C18" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>$Q$36:$Q$43</formula1>
+      <formula1>$Q$32:$Q$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>$R$36:$R$39</formula1>
+      <formula1>$R$32:$R$35</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only fill this column out, if you are submitting completed libraries for sequencing." sqref="G17:I17" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For alternative name you would like your sample to be labeled as (for easier data analysis/pipelines processing), please indicate below. Otherwise, just copy over your sample tube label (please omit spaces, using only alphanumeric, _ or -)" sqref="B17" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
@@ -2630,7 +2576,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="59">
         <v>43907</v>
@@ -2692,10 +2638,10 @@
     </row>
     <row r="4" spans="1:44" s="13" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="21"/>
       <c r="E4" s="23"/>
@@ -2704,7 +2650,7 @@
     </row>
     <row r="5" spans="1:44" s="49" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2714,58 +2660,58 @@
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="50"/>
-      <c r="AB5" s="83" t="s">
+      <c r="AB5" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="83" t="s">
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="85"/>
+      <c r="AK5" s="90"/>
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP5" s="90"/>
+      <c r="AQ5" s="91"/>
       <c r="AR5" s="77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="48" customFormat="1" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="C6" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="D6" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="H6" s="44" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>21</v>
@@ -2774,55 +2720,55 @@
         <v>28</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="O6" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="P6" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="Q6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="R6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="S6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="T6" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="U6" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="V6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="W6" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="44" t="s">
+      <c r="X6" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="Y6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="Y6" s="44" t="s">
+      <c r="Z6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="Z6" s="44" t="s">
+      <c r="AA6" s="44" t="s">
         <v>70</v>
-      </c>
-      <c r="AA6" s="44" t="s">
-        <v>71</v>
       </c>
       <c r="AB6" s="45" t="str">
         <f>TEXT("KAT6/SLC",0)</f>
@@ -2857,31 +2803,31 @@
         <v>GAPDH/QML7</v>
       </c>
       <c r="AJ6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AK6" s="45" t="s">
+      <c r="AL6" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="AL6" s="45" t="s">
+      <c r="AM6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="AM6" s="45" t="s">
+      <c r="AN6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AN6" s="46" t="s">
-        <v>76</v>
-      </c>
       <c r="AO6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AP6" s="45" t="s">
-        <v>73</v>
-      </c>
       <c r="AQ6" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR6" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="14" x14ac:dyDescent="0.15">
@@ -3689,7 +3635,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23" t="str">
-        <f>IF(Sample_information!M22&lt;&gt;0,Sample_information!M22,"")</f>
+        <f>IF(Sample_information!M27&lt;&gt;0,Sample_information!M27,"")</f>
         <v/>
       </c>
       <c r="L17" s="23"/>
@@ -3700,11 +3646,11 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41" t="str">
-        <f>IF(Sample_information!H22&lt;&gt;0,Sample_information!H22,"")</f>
+        <f>IF(Sample_information!H27&lt;&gt;0,Sample_information!H27,"")</f>
         <v/>
       </c>
       <c r="Q17" s="41" t="str">
-        <f>IF(Sample_information!I22&lt;&gt;0,Sample_information!I22,"")</f>
+        <f>IF(Sample_information!I27&lt;&gt;0,Sample_information!I27,"")</f>
         <v/>
       </c>
     </row>
@@ -3728,22 +3674,22 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23" t="str">
-        <f>IF(Sample_information!M23&lt;&gt;0,Sample_information!M23,"")</f>
+        <f>IF(Sample_information!M28&lt;&gt;0,Sample_information!M28,"")</f>
         <v/>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="41" t="str">
-        <f>IF(Sample_information!A22&lt;&gt;0,IFERROR(IF(M17&lt;&gt;0,("C"&amp;TEXT(RIGHT(M17,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A27&lt;&gt;0,IFERROR(IF(M17&lt;&gt;0,("C"&amp;TEXT(RIGHT(M17,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41" t="str">
-        <f>IF(Sample_information!H23&lt;&gt;0,Sample_information!H23,"")</f>
+        <f>IF(Sample_information!H28&lt;&gt;0,Sample_information!H28,"")</f>
         <v/>
       </c>
       <c r="Q18" s="41" t="str">
-        <f>IF(Sample_information!I23&lt;&gt;0,Sample_information!I23,"")</f>
+        <f>IF(Sample_information!I28&lt;&gt;0,Sample_information!I28,"")</f>
         <v/>
       </c>
     </row>
@@ -3767,22 +3713,22 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23" t="str">
-        <f>IF(Sample_information!M24&lt;&gt;0,Sample_information!M24,"")</f>
+        <f>IF(Sample_information!M21&lt;&gt;0,Sample_information!M21,"")</f>
         <v/>
       </c>
       <c r="L19" s="23"/>
       <c r="M19" s="41" t="str">
-        <f>IF(Sample_information!A23&lt;&gt;0,IFERROR(IF(M18&lt;&gt;0,("C"&amp;TEXT(RIGHT(M18,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A28&lt;&gt;0,IFERROR(IF(M18&lt;&gt;0,("C"&amp;TEXT(RIGHT(M18,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
       <c r="P19" s="41" t="str">
-        <f>IF(Sample_information!H24&lt;&gt;0,Sample_information!H24,"")</f>
+        <f>IF(Sample_information!H21&lt;&gt;0,Sample_information!H21,"")</f>
         <v/>
       </c>
       <c r="Q19" s="41" t="str">
-        <f>IF(Sample_information!I24&lt;&gt;0,Sample_information!I24,"")</f>
+        <f>IF(Sample_information!I21&lt;&gt;0,Sample_information!I21,"")</f>
         <v/>
       </c>
     </row>
@@ -3805,24 +3751,24 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="23" t="str">
-        <f>IF(Sample_information!M25&lt;&gt;0,Sample_information!M25,"")</f>
-        <v/>
+      <c r="J20" s="23" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="41" t="str">
-        <f>IF(Sample_information!A24&lt;&gt;0,IFERROR(IF(M19&lt;&gt;0,("C"&amp;TEXT(RIGHT(M19,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A21&lt;&gt;0,IFERROR(IF(M19&lt;&gt;0,("C"&amp;TEXT(RIGHT(M19,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
-      <c r="P20" s="41" t="str">
-        <f>IF(Sample_information!H25&lt;&gt;0,Sample_information!H25,"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="41" t="str">
-        <f>IF(Sample_information!I25&lt;&gt;0,Sample_information!I25,"")</f>
-        <v/>
+      <c r="P20" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3845,22 +3791,22 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23" t="str">
-        <f>IF(Sample_information!M26&lt;&gt;0,Sample_information!M26,"")</f>
+        <f>IF(Sample_information!M22&lt;&gt;0,Sample_information!M22,"")</f>
         <v/>
       </c>
       <c r="L21" s="23"/>
-      <c r="M21" s="41" t="str">
-        <f>IF(Sample_information!A25&lt;&gt;0,IFERROR(IF(M20&lt;&gt;0,("C"&amp;TEXT(RIGHT(M20,4)+1,"0000")),""),""),"")</f>
-        <v/>
+      <c r="M21" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,IFERROR(IF(M20&lt;&gt;0,("C"&amp;TEXT(RIGHT(M20,4)+1,"0000")),""),""),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
       <c r="P21" s="41" t="str">
-        <f>IF(Sample_information!H26&lt;&gt;0,Sample_information!H26,"")</f>
+        <f>IF(Sample_information!H22&lt;&gt;0,Sample_information!H22,"")</f>
         <v/>
       </c>
       <c r="Q21" s="41" t="str">
-        <f>IF(Sample_information!I26&lt;&gt;0,Sample_information!I26,"")</f>
+        <f>IF(Sample_information!I22&lt;&gt;0,Sample_information!I22,"")</f>
         <v/>
       </c>
     </row>
@@ -3884,22 +3830,22 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23" t="str">
-        <f>IF(Sample_information!M27&lt;&gt;0,Sample_information!M27,"")</f>
+        <f>IF(Sample_information!M23&lt;&gt;0,Sample_information!M23,"")</f>
         <v/>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="41" t="str">
-        <f>IF(Sample_information!A26&lt;&gt;0,IFERROR(IF(M21&lt;&gt;0,("C"&amp;TEXT(RIGHT(M21,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A22&lt;&gt;0,IFERROR(IF(M21&lt;&gt;0,("C"&amp;TEXT(RIGHT(M21,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
       <c r="P22" s="41" t="str">
-        <f>IF(Sample_information!H27&lt;&gt;0,Sample_information!H27,"")</f>
+        <f>IF(Sample_information!H23&lt;&gt;0,Sample_information!H23,"")</f>
         <v/>
       </c>
       <c r="Q22" s="41" t="str">
-        <f>IF(Sample_information!I27&lt;&gt;0,Sample_information!I27,"")</f>
+        <f>IF(Sample_information!I23&lt;&gt;0,Sample_information!I23,"")</f>
         <v/>
       </c>
     </row>
@@ -3923,22 +3869,22 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="str">
-        <f>IF(Sample_information!M28&lt;&gt;0,Sample_information!M28,"")</f>
+        <f>IF(Sample_information!M24&lt;&gt;0,Sample_information!M24,"")</f>
         <v/>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="41" t="str">
-        <f>IF(Sample_information!A27&lt;&gt;0,IFERROR(IF(M22&lt;&gt;0,("C"&amp;TEXT(RIGHT(M22,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A23&lt;&gt;0,IFERROR(IF(M22&lt;&gt;0,("C"&amp;TEXT(RIGHT(M22,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N23" s="41"/>
       <c r="O23" s="41"/>
       <c r="P23" s="41" t="str">
-        <f>IF(Sample_information!H28&lt;&gt;0,Sample_information!H28,"")</f>
+        <f>IF(Sample_information!H24&lt;&gt;0,Sample_information!H24,"")</f>
         <v/>
       </c>
       <c r="Q23" s="41" t="str">
-        <f>IF(Sample_information!I28&lt;&gt;0,Sample_information!I28,"")</f>
+        <f>IF(Sample_information!I24&lt;&gt;0,Sample_information!I24,"")</f>
         <v/>
       </c>
     </row>
@@ -3962,22 +3908,22 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="str">
-        <f>IF(Sample_information!M29&lt;&gt;0,Sample_information!M29,"")</f>
+        <f>IF(Sample_information!M25&lt;&gt;0,Sample_information!M25,"")</f>
         <v/>
       </c>
       <c r="L24" s="23"/>
       <c r="M24" s="41" t="str">
-        <f>IF(Sample_information!A28&lt;&gt;0,IFERROR(IF(M23&lt;&gt;0,("C"&amp;TEXT(RIGHT(M23,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A24&lt;&gt;0,IFERROR(IF(M23&lt;&gt;0,("C"&amp;TEXT(RIGHT(M23,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
       <c r="P24" s="41" t="str">
-        <f>IF(Sample_information!H29&lt;&gt;0,Sample_information!H29,"")</f>
+        <f>IF(Sample_information!H25&lt;&gt;0,Sample_information!H25,"")</f>
         <v/>
       </c>
       <c r="Q24" s="41" t="str">
-        <f>IF(Sample_information!I29&lt;&gt;0,Sample_information!I29,"")</f>
+        <f>IF(Sample_information!I25&lt;&gt;0,Sample_information!I25,"")</f>
         <v/>
       </c>
     </row>
@@ -4001,22 +3947,22 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23" t="str">
-        <f>IF(Sample_information!M30&lt;&gt;0,Sample_information!M30,"")</f>
+        <f>IF(Sample_information!M26&lt;&gt;0,Sample_information!M26,"")</f>
         <v/>
       </c>
       <c r="L25" s="23"/>
       <c r="M25" s="41" t="str">
-        <f>IF(Sample_information!A29&lt;&gt;0,IFERROR(IF(M24&lt;&gt;0,("C"&amp;TEXT(RIGHT(M24,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A25&lt;&gt;0,IFERROR(IF(M24&lt;&gt;0,("C"&amp;TEXT(RIGHT(M24,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N25" s="41"/>
       <c r="O25" s="41"/>
       <c r="P25" s="41" t="str">
-        <f>IF(Sample_information!H30&lt;&gt;0,Sample_information!H30,"")</f>
+        <f>IF(Sample_information!H26&lt;&gt;0,Sample_information!H26,"")</f>
         <v/>
       </c>
       <c r="Q25" s="41" t="str">
-        <f>IF(Sample_information!I30&lt;&gt;0,Sample_information!I30,"")</f>
+        <f>IF(Sample_information!I26&lt;&gt;0,Sample_information!I26,"")</f>
         <v/>
       </c>
     </row>
@@ -4039,24 +3985,24 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="23" t="str">
-        <f>IF(Sample_information!M31&lt;&gt;0,Sample_information!M31,"")</f>
-        <v/>
+      <c r="J26" s="23" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="41" t="str">
-        <f>IF(Sample_information!A30&lt;&gt;0,IFERROR(IF(M25&lt;&gt;0,("C"&amp;TEXT(RIGHT(M25,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A26&lt;&gt;0,IFERROR(IF(M25&lt;&gt;0,("C"&amp;TEXT(RIGHT(M25,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N26" s="41"/>
       <c r="O26" s="41"/>
-      <c r="P26" s="41" t="str">
-        <f>IF(Sample_information!H31&lt;&gt;0,Sample_information!H31,"")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="41" t="str">
-        <f>IF(Sample_information!I31&lt;&gt;0,Sample_information!I31,"")</f>
-        <v/>
+      <c r="P26" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -4078,24 +4024,24 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="23" t="str">
-        <f>IF(Sample_information!M32&lt;&gt;0,Sample_information!M32,"")</f>
-        <v/>
+      <c r="J27" s="23" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
       <c r="L27" s="23"/>
-      <c r="M27" s="41" t="str">
-        <f>IF(Sample_information!A31&lt;&gt;0,IFERROR(IF(M26&lt;&gt;0,("C"&amp;TEXT(RIGHT(M26,4)+1,"0000")),""),""),"")</f>
-        <v/>
+      <c r="M27" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,IFERROR(IF(M26&lt;&gt;0,("C"&amp;TEXT(RIGHT(M26,4)+1,"0000")),""),""),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
-      <c r="P27" s="41" t="str">
-        <f>IF(Sample_information!H32&lt;&gt;0,Sample_information!H32,"")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="41" t="str">
-        <f>IF(Sample_information!I32&lt;&gt;0,Sample_information!I32,"")</f>
-        <v/>
+      <c r="P27" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,Sample_information!#REF!,"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -4118,22 +4064,22 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="str">
-        <f>IF(Sample_information!M33&lt;&gt;0,Sample_information!M33,"")</f>
+        <f>IF(Sample_information!M29&lt;&gt;0,Sample_information!M29,"")</f>
         <v/>
       </c>
       <c r="L28" s="23"/>
-      <c r="M28" s="41" t="str">
-        <f>IF(Sample_information!A32&lt;&gt;0,IFERROR(IF(M27&lt;&gt;0,("C"&amp;TEXT(RIGHT(M27,4)+1,"0000")),""),""),"")</f>
-        <v/>
+      <c r="M28" s="41" t="e">
+        <f>IF(Sample_information!#REF!&lt;&gt;0,IFERROR(IF(M27&lt;&gt;0,("C"&amp;TEXT(RIGHT(M27,4)+1,"0000")),""),""),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
       <c r="P28" s="41" t="str">
-        <f>IF(Sample_information!H33&lt;&gt;0,Sample_information!H33,"")</f>
+        <f>IF(Sample_information!H29&lt;&gt;0,Sample_information!H29,"")</f>
         <v/>
       </c>
       <c r="Q28" s="41" t="str">
-        <f>IF(Sample_information!I33&lt;&gt;0,Sample_information!I33,"")</f>
+        <f>IF(Sample_information!I29&lt;&gt;0,Sample_information!I29,"")</f>
         <v/>
       </c>
     </row>
@@ -4157,22 +4103,22 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23" t="str">
-        <f>IF(Sample_information!M34&lt;&gt;0,Sample_information!M34,"")</f>
+        <f>IF(Sample_information!M30&lt;&gt;0,Sample_information!M30,"")</f>
         <v/>
       </c>
       <c r="L29" s="23"/>
       <c r="M29" s="41" t="str">
-        <f>IF(Sample_information!A33&lt;&gt;0,IFERROR(IF(M28&lt;&gt;0,("C"&amp;TEXT(RIGHT(M28,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A29&lt;&gt;0,IFERROR(IF(M28&lt;&gt;0,("C"&amp;TEXT(RIGHT(M28,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
       <c r="P29" s="41" t="str">
-        <f>IF(Sample_information!H34&lt;&gt;0,Sample_information!H34,"")</f>
+        <f>IF(Sample_information!H30&lt;&gt;0,Sample_information!H30,"")</f>
         <v/>
       </c>
       <c r="Q29" s="41" t="str">
-        <f>IF(Sample_information!I34&lt;&gt;0,Sample_information!I34,"")</f>
+        <f>IF(Sample_information!I30&lt;&gt;0,Sample_information!I30,"")</f>
         <v/>
       </c>
     </row>
@@ -4196,22 +4142,22 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="str">
-        <f>IF(Sample_information!M35&lt;&gt;0,Sample_information!M35,"")</f>
+        <f>IF(Sample_information!M31&lt;&gt;0,Sample_information!M31,"")</f>
         <v/>
       </c>
       <c r="L30" s="23"/>
       <c r="M30" s="41" t="str">
-        <f>IF(Sample_information!A34&lt;&gt;0,IFERROR(IF(M29&lt;&gt;0,("C"&amp;TEXT(RIGHT(M29,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A30&lt;&gt;0,IFERROR(IF(M29&lt;&gt;0,("C"&amp;TEXT(RIGHT(M29,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N30" s="41"/>
       <c r="O30" s="41"/>
       <c r="P30" s="41" t="str">
-        <f>IF(Sample_information!H35&lt;&gt;0,Sample_information!H35,"")</f>
+        <f>IF(Sample_information!H31&lt;&gt;0,Sample_information!H31,"")</f>
         <v/>
       </c>
       <c r="Q30" s="41" t="str">
-        <f>IF(Sample_information!I35&lt;&gt;0,Sample_information!I35,"")</f>
+        <f>IF(Sample_information!I31&lt;&gt;0,Sample_information!I31,"")</f>
         <v/>
       </c>
     </row>
@@ -4235,22 +4181,22 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23" t="str">
-        <f>IF(Sample_information!M36&lt;&gt;0,Sample_information!M36,"")</f>
+        <f>IF(Sample_information!M32&lt;&gt;0,Sample_information!M32,"")</f>
         <v/>
       </c>
       <c r="L31" s="23"/>
       <c r="M31" s="41" t="str">
-        <f>IF(Sample_information!A35&lt;&gt;0,IFERROR(IF(M30&lt;&gt;0,("C"&amp;TEXT(RIGHT(M30,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A31&lt;&gt;0,IFERROR(IF(M30&lt;&gt;0,("C"&amp;TEXT(RIGHT(M30,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N31" s="41"/>
       <c r="O31" s="41"/>
       <c r="P31" s="41" t="str">
-        <f>IF(Sample_information!H36&lt;&gt;0,Sample_information!H36,"")</f>
+        <f>IF(Sample_information!H32&lt;&gt;0,Sample_information!H32,"")</f>
         <v/>
       </c>
       <c r="Q31" s="41" t="str">
-        <f>IF(Sample_information!I36&lt;&gt;0,Sample_information!I36,"")</f>
+        <f>IF(Sample_information!I32&lt;&gt;0,Sample_information!I32,"")</f>
         <v/>
       </c>
     </row>
@@ -4274,22 +4220,22 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23" t="str">
-        <f>IF(Sample_information!M37&lt;&gt;0,Sample_information!M37,"")</f>
+        <f>IF(Sample_information!M33&lt;&gt;0,Sample_information!M33,"")</f>
         <v/>
       </c>
       <c r="L32" s="23"/>
       <c r="M32" s="41" t="str">
-        <f>IF(Sample_information!A36&lt;&gt;0,IFERROR(IF(M31&lt;&gt;0,("C"&amp;TEXT(RIGHT(M31,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A32&lt;&gt;0,IFERROR(IF(M31&lt;&gt;0,("C"&amp;TEXT(RIGHT(M31,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="41"/>
       <c r="P32" s="41" t="str">
-        <f>IF(Sample_information!H37&lt;&gt;0,Sample_information!H37,"")</f>
+        <f>IF(Sample_information!H33&lt;&gt;0,Sample_information!H33,"")</f>
         <v/>
       </c>
       <c r="Q32" s="41" t="str">
-        <f>IF(Sample_information!I37&lt;&gt;0,Sample_information!I37,"")</f>
+        <f>IF(Sample_information!I33&lt;&gt;0,Sample_information!I33,"")</f>
         <v/>
       </c>
     </row>
@@ -4313,22 +4259,22 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23" t="str">
-        <f>IF(Sample_information!M38&lt;&gt;0,Sample_information!M38,"")</f>
+        <f>IF(Sample_information!M34&lt;&gt;0,Sample_information!M34,"")</f>
         <v/>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="41" t="str">
-        <f>IF(Sample_information!A37&lt;&gt;0,IFERROR(IF(M32&lt;&gt;0,("C"&amp;TEXT(RIGHT(M32,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A33&lt;&gt;0,IFERROR(IF(M32&lt;&gt;0,("C"&amp;TEXT(RIGHT(M32,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41" t="str">
-        <f>IF(Sample_information!H38&lt;&gt;0,Sample_information!H38,"")</f>
+        <f>IF(Sample_information!H34&lt;&gt;0,Sample_information!H34,"")</f>
         <v/>
       </c>
       <c r="Q33" s="41" t="str">
-        <f>IF(Sample_information!I38&lt;&gt;0,Sample_information!I38,"")</f>
+        <f>IF(Sample_information!I34&lt;&gt;0,Sample_information!I34,"")</f>
         <v/>
       </c>
     </row>
@@ -4352,22 +4298,22 @@
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="str">
-        <f>IF(Sample_information!M39&lt;&gt;0,Sample_information!M39,"")</f>
+        <f>IF(Sample_information!M35&lt;&gt;0,Sample_information!M35,"")</f>
         <v/>
       </c>
       <c r="L34" s="23"/>
       <c r="M34" s="41" t="str">
-        <f>IF(Sample_information!A38&lt;&gt;0,IFERROR(IF(M33&lt;&gt;0,("C"&amp;TEXT(RIGHT(M33,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A34&lt;&gt;0,IFERROR(IF(M33&lt;&gt;0,("C"&amp;TEXT(RIGHT(M33,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41" t="str">
-        <f>IF(Sample_information!H39&lt;&gt;0,Sample_information!H39,"")</f>
+        <f>IF(Sample_information!H35&lt;&gt;0,Sample_information!H35,"")</f>
         <v/>
       </c>
       <c r="Q34" s="41" t="str">
-        <f>IF(Sample_information!I39&lt;&gt;0,Sample_information!I39,"")</f>
+        <f>IF(Sample_information!I35&lt;&gt;0,Sample_information!I35,"")</f>
         <v/>
       </c>
     </row>
@@ -4391,22 +4337,22 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23" t="str">
-        <f>IF(Sample_information!M40&lt;&gt;0,Sample_information!M40,"")</f>
+        <f>IF(Sample_information!M36&lt;&gt;0,Sample_information!M36,"")</f>
         <v/>
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="41" t="str">
-        <f>IF(Sample_information!A39&lt;&gt;0,IFERROR(IF(M34&lt;&gt;0,("C"&amp;TEXT(RIGHT(M34,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A35&lt;&gt;0,IFERROR(IF(M34&lt;&gt;0,("C"&amp;TEXT(RIGHT(M34,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41" t="str">
-        <f>IF(Sample_information!H40&lt;&gt;0,Sample_information!H40,"")</f>
+        <f>IF(Sample_information!H36&lt;&gt;0,Sample_information!H36,"")</f>
         <v/>
       </c>
       <c r="Q35" s="41" t="str">
-        <f>IF(Sample_information!I40&lt;&gt;0,Sample_information!I40,"")</f>
+        <f>IF(Sample_information!I36&lt;&gt;0,Sample_information!I36,"")</f>
         <v/>
       </c>
     </row>
@@ -4430,22 +4376,22 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23" t="str">
-        <f>IF(Sample_information!M41&lt;&gt;0,Sample_information!M41,"")</f>
+        <f>IF(Sample_information!M37&lt;&gt;0,Sample_information!M37,"")</f>
         <v/>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="41" t="str">
-        <f>IF(Sample_information!A40&lt;&gt;0,IFERROR(IF(M35&lt;&gt;0,("C"&amp;TEXT(RIGHT(M35,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A36&lt;&gt;0,IFERROR(IF(M35&lt;&gt;0,("C"&amp;TEXT(RIGHT(M35,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
       <c r="P36" s="41" t="str">
-        <f>IF(Sample_information!H41&lt;&gt;0,Sample_information!H41,"")</f>
+        <f>IF(Sample_information!H37&lt;&gt;0,Sample_information!H37,"")</f>
         <v/>
       </c>
       <c r="Q36" s="41" t="str">
-        <f>IF(Sample_information!I41&lt;&gt;0,Sample_information!I41,"")</f>
+        <f>IF(Sample_information!I37&lt;&gt;0,Sample_information!I37,"")</f>
         <v/>
       </c>
     </row>
@@ -4469,22 +4415,22 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23" t="str">
-        <f>IF(Sample_information!M42&lt;&gt;0,Sample_information!M42,"")</f>
+        <f>IF(Sample_information!M38&lt;&gt;0,Sample_information!M38,"")</f>
         <v/>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="41" t="str">
-        <f>IF(Sample_information!A41&lt;&gt;0,IFERROR(IF(M36&lt;&gt;0,("C"&amp;TEXT(RIGHT(M36,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A37&lt;&gt;0,IFERROR(IF(M36&lt;&gt;0,("C"&amp;TEXT(RIGHT(M36,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
       <c r="P37" s="41" t="str">
-        <f>IF(Sample_information!H42&lt;&gt;0,Sample_information!H42,"")</f>
+        <f>IF(Sample_information!H38&lt;&gt;0,Sample_information!H38,"")</f>
         <v/>
       </c>
       <c r="Q37" s="41" t="str">
-        <f>IF(Sample_information!I42&lt;&gt;0,Sample_information!I42,"")</f>
+        <f>IF(Sample_information!I38&lt;&gt;0,Sample_information!I38,"")</f>
         <v/>
       </c>
     </row>
@@ -4508,22 +4454,22 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23" t="str">
-        <f>IF(Sample_information!M43&lt;&gt;0,Sample_information!M43,"")</f>
+        <f>IF(Sample_information!M39&lt;&gt;0,Sample_information!M39,"")</f>
         <v/>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="41" t="str">
-        <f>IF(Sample_information!A42&lt;&gt;0,IFERROR(IF(M37&lt;&gt;0,("C"&amp;TEXT(RIGHT(M37,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A38&lt;&gt;0,IFERROR(IF(M37&lt;&gt;0,("C"&amp;TEXT(RIGHT(M37,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
       <c r="P38" s="41" t="str">
-        <f>IF(Sample_information!H43&lt;&gt;0,Sample_information!H43,"")</f>
+        <f>IF(Sample_information!H39&lt;&gt;0,Sample_information!H39,"")</f>
         <v/>
       </c>
       <c r="Q38" s="41" t="str">
-        <f>IF(Sample_information!I43&lt;&gt;0,Sample_information!I43,"")</f>
+        <f>IF(Sample_information!I39&lt;&gt;0,Sample_information!I39,"")</f>
         <v/>
       </c>
     </row>
@@ -4547,22 +4493,22 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23" t="str">
-        <f>IF(Sample_information!M44&lt;&gt;0,Sample_information!M44,"")</f>
+        <f>IF(Sample_information!M40&lt;&gt;0,Sample_information!M40,"")</f>
         <v/>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="41" t="str">
-        <f>IF(Sample_information!A43&lt;&gt;0,IFERROR(IF(M38&lt;&gt;0,("C"&amp;TEXT(RIGHT(M38,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A39&lt;&gt;0,IFERROR(IF(M38&lt;&gt;0,("C"&amp;TEXT(RIGHT(M38,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
       <c r="P39" s="41" t="str">
-        <f>IF(Sample_information!H44&lt;&gt;0,Sample_information!H44,"")</f>
+        <f>IF(Sample_information!H40&lt;&gt;0,Sample_information!H40,"")</f>
         <v/>
       </c>
       <c r="Q39" s="41" t="str">
-        <f>IF(Sample_information!I44&lt;&gt;0,Sample_information!I44,"")</f>
+        <f>IF(Sample_information!I40&lt;&gt;0,Sample_information!I40,"")</f>
         <v/>
       </c>
     </row>
@@ -4586,22 +4532,22 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23" t="str">
-        <f>IF(Sample_information!M45&lt;&gt;0,Sample_information!M45,"")</f>
+        <f>IF(Sample_information!M41&lt;&gt;0,Sample_information!M41,"")</f>
         <v/>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="41" t="str">
-        <f>IF(Sample_information!A44&lt;&gt;0,IFERROR(IF(M39&lt;&gt;0,("C"&amp;TEXT(RIGHT(M39,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A40&lt;&gt;0,IFERROR(IF(M39&lt;&gt;0,("C"&amp;TEXT(RIGHT(M39,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N40" s="41"/>
       <c r="O40" s="41"/>
       <c r="P40" s="41" t="str">
-        <f>IF(Sample_information!H45&lt;&gt;0,Sample_information!H45,"")</f>
+        <f>IF(Sample_information!H41&lt;&gt;0,Sample_information!H41,"")</f>
         <v/>
       </c>
       <c r="Q40" s="41" t="str">
-        <f>IF(Sample_information!I45&lt;&gt;0,Sample_information!I45,"")</f>
+        <f>IF(Sample_information!I41&lt;&gt;0,Sample_information!I41,"")</f>
         <v/>
       </c>
     </row>
@@ -4625,22 +4571,22 @@
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="str">
-        <f>IF(Sample_information!M46&lt;&gt;0,Sample_information!M46,"")</f>
+        <f>IF(Sample_information!M42&lt;&gt;0,Sample_information!M42,"")</f>
         <v/>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="41" t="str">
-        <f>IF(Sample_information!A45&lt;&gt;0,IFERROR(IF(M40&lt;&gt;0,("C"&amp;TEXT(RIGHT(M40,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A41&lt;&gt;0,IFERROR(IF(M40&lt;&gt;0,("C"&amp;TEXT(RIGHT(M40,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N41" s="41"/>
       <c r="O41" s="41"/>
       <c r="P41" s="41" t="str">
-        <f>IF(Sample_information!H46&lt;&gt;0,Sample_information!H46,"")</f>
+        <f>IF(Sample_information!H42&lt;&gt;0,Sample_information!H42,"")</f>
         <v/>
       </c>
       <c r="Q41" s="41" t="str">
-        <f>IF(Sample_information!I46&lt;&gt;0,Sample_information!I46,"")</f>
+        <f>IF(Sample_information!I42&lt;&gt;0,Sample_information!I42,"")</f>
         <v/>
       </c>
     </row>
@@ -4664,22 +4610,22 @@
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="str">
-        <f>IF(Sample_information!M47&lt;&gt;0,Sample_information!M47,"")</f>
+        <f>IF(Sample_information!M43&lt;&gt;0,Sample_information!M43,"")</f>
         <v/>
       </c>
       <c r="L42" s="23"/>
       <c r="M42" s="41" t="str">
-        <f>IF(Sample_information!A46&lt;&gt;0,IFERROR(IF(M41&lt;&gt;0,("C"&amp;TEXT(RIGHT(M41,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A42&lt;&gt;0,IFERROR(IF(M41&lt;&gt;0,("C"&amp;TEXT(RIGHT(M41,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N42" s="41"/>
       <c r="O42" s="41"/>
       <c r="P42" s="41" t="str">
-        <f>IF(Sample_information!H47&lt;&gt;0,Sample_information!H47,"")</f>
+        <f>IF(Sample_information!H43&lt;&gt;0,Sample_information!H43,"")</f>
         <v/>
       </c>
       <c r="Q42" s="41" t="str">
-        <f>IF(Sample_information!I47&lt;&gt;0,Sample_information!I47,"")</f>
+        <f>IF(Sample_information!I43&lt;&gt;0,Sample_information!I43,"")</f>
         <v/>
       </c>
     </row>
@@ -4703,22 +4649,22 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="str">
-        <f>IF(Sample_information!M48&lt;&gt;0,Sample_information!M48,"")</f>
+        <f>IF(Sample_information!M44&lt;&gt;0,Sample_information!M44,"")</f>
         <v/>
       </c>
       <c r="L43" s="23"/>
       <c r="M43" s="41" t="str">
-        <f>IF(Sample_information!A47&lt;&gt;0,IFERROR(IF(M42&lt;&gt;0,("C"&amp;TEXT(RIGHT(M42,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A43&lt;&gt;0,IFERROR(IF(M42&lt;&gt;0,("C"&amp;TEXT(RIGHT(M42,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
       <c r="P43" s="41" t="str">
-        <f>IF(Sample_information!H48&lt;&gt;0,Sample_information!H48,"")</f>
+        <f>IF(Sample_information!H44&lt;&gt;0,Sample_information!H44,"")</f>
         <v/>
       </c>
       <c r="Q43" s="41" t="str">
-        <f>IF(Sample_information!I48&lt;&gt;0,Sample_information!I48,"")</f>
+        <f>IF(Sample_information!I44&lt;&gt;0,Sample_information!I44,"")</f>
         <v/>
       </c>
     </row>
@@ -4742,22 +4688,22 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23" t="str">
-        <f>IF(Sample_information!M49&lt;&gt;0,Sample_information!M49,"")</f>
+        <f>IF(Sample_information!M45&lt;&gt;0,Sample_information!M45,"")</f>
         <v/>
       </c>
       <c r="L44" s="23"/>
       <c r="M44" s="41" t="str">
-        <f>IF(Sample_information!A48&lt;&gt;0,IFERROR(IF(M43&lt;&gt;0,("C"&amp;TEXT(RIGHT(M43,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A44&lt;&gt;0,IFERROR(IF(M43&lt;&gt;0,("C"&amp;TEXT(RIGHT(M43,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
       <c r="P44" s="41" t="str">
-        <f>IF(Sample_information!H49&lt;&gt;0,Sample_information!H49,"")</f>
+        <f>IF(Sample_information!H45&lt;&gt;0,Sample_information!H45,"")</f>
         <v/>
       </c>
       <c r="Q44" s="41" t="str">
-        <f>IF(Sample_information!I49&lt;&gt;0,Sample_information!I49,"")</f>
+        <f>IF(Sample_information!I45&lt;&gt;0,Sample_information!I45,"")</f>
         <v/>
       </c>
     </row>
@@ -4781,22 +4727,22 @@
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23" t="str">
-        <f>IF(Sample_information!M50&lt;&gt;0,Sample_information!M50,"")</f>
+        <f>IF(Sample_information!M46&lt;&gt;0,Sample_information!M46,"")</f>
         <v/>
       </c>
       <c r="L45" s="23"/>
       <c r="M45" s="41" t="str">
-        <f>IF(Sample_information!A49&lt;&gt;0,IFERROR(IF(M44&lt;&gt;0,("C"&amp;TEXT(RIGHT(M44,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A45&lt;&gt;0,IFERROR(IF(M44&lt;&gt;0,("C"&amp;TEXT(RIGHT(M44,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41" t="str">
-        <f>IF(Sample_information!H50&lt;&gt;0,Sample_information!H50,"")</f>
+        <f>IF(Sample_information!H46&lt;&gt;0,Sample_information!H46,"")</f>
         <v/>
       </c>
       <c r="Q45" s="41" t="str">
-        <f>IF(Sample_information!I50&lt;&gt;0,Sample_information!I50,"")</f>
+        <f>IF(Sample_information!I46&lt;&gt;0,Sample_information!I46,"")</f>
         <v/>
       </c>
     </row>
@@ -4820,22 +4766,22 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="str">
-        <f>IF(Sample_information!M51&lt;&gt;0,Sample_information!M51,"")</f>
+        <f>IF(Sample_information!M47&lt;&gt;0,Sample_information!M47,"")</f>
         <v/>
       </c>
       <c r="L46" s="23"/>
       <c r="M46" s="41" t="str">
-        <f>IF(Sample_information!A50&lt;&gt;0,IFERROR(IF(M45&lt;&gt;0,("C"&amp;TEXT(RIGHT(M45,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A46&lt;&gt;0,IFERROR(IF(M45&lt;&gt;0,("C"&amp;TEXT(RIGHT(M45,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N46" s="41"/>
       <c r="O46" s="41"/>
       <c r="P46" s="41" t="str">
-        <f>IF(Sample_information!H51&lt;&gt;0,Sample_information!H51,"")</f>
+        <f>IF(Sample_information!H47&lt;&gt;0,Sample_information!H47,"")</f>
         <v/>
       </c>
       <c r="Q46" s="41" t="str">
-        <f>IF(Sample_information!I51&lt;&gt;0,Sample_information!I51,"")</f>
+        <f>IF(Sample_information!I47&lt;&gt;0,Sample_information!I47,"")</f>
         <v/>
       </c>
     </row>
@@ -4859,22 +4805,22 @@
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23" t="str">
-        <f>IF(Sample_information!M52&lt;&gt;0,Sample_information!M52,"")</f>
+        <f>IF(Sample_information!M48&lt;&gt;0,Sample_information!M48,"")</f>
         <v/>
       </c>
       <c r="L47" s="23"/>
       <c r="M47" s="41" t="str">
-        <f>IF(Sample_information!A51&lt;&gt;0,IFERROR(IF(M46&lt;&gt;0,("C"&amp;TEXT(RIGHT(M46,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A47&lt;&gt;0,IFERROR(IF(M46&lt;&gt;0,("C"&amp;TEXT(RIGHT(M46,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N47" s="41"/>
       <c r="O47" s="41"/>
       <c r="P47" s="41" t="str">
-        <f>IF(Sample_information!H52&lt;&gt;0,Sample_information!H52,"")</f>
+        <f>IF(Sample_information!H48&lt;&gt;0,Sample_information!H48,"")</f>
         <v/>
       </c>
       <c r="Q47" s="41" t="str">
-        <f>IF(Sample_information!I52&lt;&gt;0,Sample_information!I52,"")</f>
+        <f>IF(Sample_information!I48&lt;&gt;0,Sample_information!I48,"")</f>
         <v/>
       </c>
     </row>
@@ -4898,22 +4844,22 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="str">
-        <f>IF(Sample_information!M53&lt;&gt;0,Sample_information!M53,"")</f>
+        <f>IF(Sample_information!M49&lt;&gt;0,Sample_information!M49,"")</f>
         <v/>
       </c>
       <c r="L48" s="23"/>
       <c r="M48" s="41" t="str">
-        <f>IF(Sample_information!A52&lt;&gt;0,IFERROR(IF(M47&lt;&gt;0,("C"&amp;TEXT(RIGHT(M47,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A48&lt;&gt;0,IFERROR(IF(M47&lt;&gt;0,("C"&amp;TEXT(RIGHT(M47,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N48" s="41"/>
       <c r="O48" s="41"/>
       <c r="P48" s="41" t="str">
-        <f>IF(Sample_information!H53&lt;&gt;0,Sample_information!H53,"")</f>
+        <f>IF(Sample_information!H49&lt;&gt;0,Sample_information!H49,"")</f>
         <v/>
       </c>
       <c r="Q48" s="41" t="str">
-        <f>IF(Sample_information!I53&lt;&gt;0,Sample_information!I53,"")</f>
+        <f>IF(Sample_information!I49&lt;&gt;0,Sample_information!I49,"")</f>
         <v/>
       </c>
     </row>
@@ -4937,22 +4883,22 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23" t="str">
-        <f>IF(Sample_information!M54&lt;&gt;0,Sample_information!M54,"")</f>
+        <f>IF(Sample_information!M50&lt;&gt;0,Sample_information!M50,"")</f>
         <v/>
       </c>
       <c r="L49" s="23"/>
       <c r="M49" s="41" t="str">
-        <f>IF(Sample_information!A53&lt;&gt;0,IFERROR(IF(M48&lt;&gt;0,("C"&amp;TEXT(RIGHT(M48,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A49&lt;&gt;0,IFERROR(IF(M48&lt;&gt;0,("C"&amp;TEXT(RIGHT(M48,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
       <c r="P49" s="41" t="str">
-        <f>IF(Sample_information!H54&lt;&gt;0,Sample_information!H54,"")</f>
+        <f>IF(Sample_information!H50&lt;&gt;0,Sample_information!H50,"")</f>
         <v/>
       </c>
       <c r="Q49" s="41" t="str">
-        <f>IF(Sample_information!I54&lt;&gt;0,Sample_information!I54,"")</f>
+        <f>IF(Sample_information!I50&lt;&gt;0,Sample_information!I50,"")</f>
         <v/>
       </c>
     </row>
@@ -4976,22 +4922,22 @@
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="str">
-        <f>IF(Sample_information!M55&lt;&gt;0,Sample_information!M55,"")</f>
+        <f>IF(Sample_information!M51&lt;&gt;0,Sample_information!M51,"")</f>
         <v/>
       </c>
       <c r="L50" s="23"/>
       <c r="M50" s="41" t="str">
-        <f>IF(Sample_information!A54&lt;&gt;0,IFERROR(IF(M49&lt;&gt;0,("C"&amp;TEXT(RIGHT(M49,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A50&lt;&gt;0,IFERROR(IF(M49&lt;&gt;0,("C"&amp;TEXT(RIGHT(M49,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N50" s="41"/>
       <c r="O50" s="41"/>
       <c r="P50" s="41" t="str">
-        <f>IF(Sample_information!H55&lt;&gt;0,Sample_information!H55,"")</f>
+        <f>IF(Sample_information!H51&lt;&gt;0,Sample_information!H51,"")</f>
         <v/>
       </c>
       <c r="Q50" s="41" t="str">
-        <f>IF(Sample_information!I55&lt;&gt;0,Sample_information!I55,"")</f>
+        <f>IF(Sample_information!I51&lt;&gt;0,Sample_information!I51,"")</f>
         <v/>
       </c>
     </row>
@@ -5015,22 +4961,22 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23" t="str">
-        <f>IF(Sample_information!M56&lt;&gt;0,Sample_information!M56,"")</f>
+        <f>IF(Sample_information!M52&lt;&gt;0,Sample_information!M52,"")</f>
         <v/>
       </c>
       <c r="L51" s="23"/>
       <c r="M51" s="41" t="str">
-        <f>IF(Sample_information!A55&lt;&gt;0,IFERROR(IF(M50&lt;&gt;0,("C"&amp;TEXT(RIGHT(M50,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A51&lt;&gt;0,IFERROR(IF(M50&lt;&gt;0,("C"&amp;TEXT(RIGHT(M50,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N51" s="41"/>
       <c r="O51" s="41"/>
       <c r="P51" s="41" t="str">
-        <f>IF(Sample_information!H56&lt;&gt;0,Sample_information!H56,"")</f>
+        <f>IF(Sample_information!H52&lt;&gt;0,Sample_information!H52,"")</f>
         <v/>
       </c>
       <c r="Q51" s="41" t="str">
-        <f>IF(Sample_information!I56&lt;&gt;0,Sample_information!I56,"")</f>
+        <f>IF(Sample_information!I52&lt;&gt;0,Sample_information!I52,"")</f>
         <v/>
       </c>
     </row>
@@ -5054,22 +5000,22 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23" t="str">
-        <f>IF(Sample_information!M57&lt;&gt;0,Sample_information!M57,"")</f>
+        <f>IF(Sample_information!M53&lt;&gt;0,Sample_information!M53,"")</f>
         <v/>
       </c>
       <c r="L52" s="23"/>
       <c r="M52" s="41" t="str">
-        <f>IF(Sample_information!A56&lt;&gt;0,IFERROR(IF(M51&lt;&gt;0,("C"&amp;TEXT(RIGHT(M51,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A52&lt;&gt;0,IFERROR(IF(M51&lt;&gt;0,("C"&amp;TEXT(RIGHT(M51,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N52" s="41"/>
       <c r="O52" s="41"/>
       <c r="P52" s="41" t="str">
-        <f>IF(Sample_information!H57&lt;&gt;0,Sample_information!H57,"")</f>
+        <f>IF(Sample_information!H53&lt;&gt;0,Sample_information!H53,"")</f>
         <v/>
       </c>
       <c r="Q52" s="41" t="str">
-        <f>IF(Sample_information!I57&lt;&gt;0,Sample_information!I57,"")</f>
+        <f>IF(Sample_information!I53&lt;&gt;0,Sample_information!I53,"")</f>
         <v/>
       </c>
     </row>
@@ -5093,22 +5039,22 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23" t="str">
-        <f>IF(Sample_information!M58&lt;&gt;0,Sample_information!M58,"")</f>
+        <f>IF(Sample_information!M54&lt;&gt;0,Sample_information!M54,"")</f>
         <v/>
       </c>
       <c r="L53" s="23"/>
       <c r="M53" s="41" t="str">
-        <f>IF(Sample_information!A57&lt;&gt;0,IFERROR(IF(M52&lt;&gt;0,("C"&amp;TEXT(RIGHT(M52,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A53&lt;&gt;0,IFERROR(IF(M52&lt;&gt;0,("C"&amp;TEXT(RIGHT(M52,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N53" s="41"/>
       <c r="O53" s="41"/>
       <c r="P53" s="41" t="str">
-        <f>IF(Sample_information!H58&lt;&gt;0,Sample_information!H58,"")</f>
+        <f>IF(Sample_information!H54&lt;&gt;0,Sample_information!H54,"")</f>
         <v/>
       </c>
       <c r="Q53" s="41" t="str">
-        <f>IF(Sample_information!I58&lt;&gt;0,Sample_information!I58,"")</f>
+        <f>IF(Sample_information!I54&lt;&gt;0,Sample_information!I54,"")</f>
         <v/>
       </c>
     </row>
@@ -5132,22 +5078,22 @@
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23" t="str">
-        <f>IF(Sample_information!M59&lt;&gt;0,Sample_information!M59,"")</f>
+        <f>IF(Sample_information!M55&lt;&gt;0,Sample_information!M55,"")</f>
         <v/>
       </c>
       <c r="L54" s="23"/>
       <c r="M54" s="41" t="str">
-        <f>IF(Sample_information!A58&lt;&gt;0,IFERROR(IF(M53&lt;&gt;0,("C"&amp;TEXT(RIGHT(M53,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A54&lt;&gt;0,IFERROR(IF(M53&lt;&gt;0,("C"&amp;TEXT(RIGHT(M53,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N54" s="41"/>
       <c r="O54" s="41"/>
       <c r="P54" s="41" t="str">
-        <f>IF(Sample_information!H59&lt;&gt;0,Sample_information!H59,"")</f>
+        <f>IF(Sample_information!H55&lt;&gt;0,Sample_information!H55,"")</f>
         <v/>
       </c>
       <c r="Q54" s="41" t="str">
-        <f>IF(Sample_information!I59&lt;&gt;0,Sample_information!I59,"")</f>
+        <f>IF(Sample_information!I55&lt;&gt;0,Sample_information!I55,"")</f>
         <v/>
       </c>
     </row>
@@ -5171,22 +5117,22 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23" t="str">
-        <f>IF(Sample_information!M60&lt;&gt;0,Sample_information!M60,"")</f>
+        <f>IF(Sample_information!M56&lt;&gt;0,Sample_information!M56,"")</f>
         <v/>
       </c>
       <c r="L55" s="23"/>
       <c r="M55" s="41" t="str">
-        <f>IF(Sample_information!A59&lt;&gt;0,IFERROR(IF(M54&lt;&gt;0,("C"&amp;TEXT(RIGHT(M54,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A55&lt;&gt;0,IFERROR(IF(M54&lt;&gt;0,("C"&amp;TEXT(RIGHT(M54,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N55" s="41"/>
       <c r="O55" s="41"/>
       <c r="P55" s="41" t="str">
-        <f>IF(Sample_information!H60&lt;&gt;0,Sample_information!H60,"")</f>
+        <f>IF(Sample_information!H56&lt;&gt;0,Sample_information!H56,"")</f>
         <v/>
       </c>
       <c r="Q55" s="41" t="str">
-        <f>IF(Sample_information!I60&lt;&gt;0,Sample_information!I60,"")</f>
+        <f>IF(Sample_information!I56&lt;&gt;0,Sample_information!I56,"")</f>
         <v/>
       </c>
     </row>
@@ -5210,22 +5156,22 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23" t="str">
-        <f>IF(Sample_information!M61&lt;&gt;0,Sample_information!M61,"")</f>
+        <f>IF(Sample_information!M57&lt;&gt;0,Sample_information!M57,"")</f>
         <v/>
       </c>
       <c r="L56" s="23"/>
       <c r="M56" s="41" t="str">
-        <f>IF(Sample_information!A60&lt;&gt;0,IFERROR(IF(M55&lt;&gt;0,("C"&amp;TEXT(RIGHT(M55,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A56&lt;&gt;0,IFERROR(IF(M55&lt;&gt;0,("C"&amp;TEXT(RIGHT(M55,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="41"/>
       <c r="P56" s="41" t="str">
-        <f>IF(Sample_information!H61&lt;&gt;0,Sample_information!H61,"")</f>
+        <f>IF(Sample_information!H57&lt;&gt;0,Sample_information!H57,"")</f>
         <v/>
       </c>
       <c r="Q56" s="41" t="str">
-        <f>IF(Sample_information!I61&lt;&gt;0,Sample_information!I61,"")</f>
+        <f>IF(Sample_information!I57&lt;&gt;0,Sample_information!I57,"")</f>
         <v/>
       </c>
     </row>
@@ -5249,22 +5195,22 @@
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23" t="str">
-        <f>IF(Sample_information!M62&lt;&gt;0,Sample_information!M62,"")</f>
+        <f>IF(Sample_information!M58&lt;&gt;0,Sample_information!M58,"")</f>
         <v/>
       </c>
       <c r="L57" s="23"/>
       <c r="M57" s="41" t="str">
-        <f>IF(Sample_information!A61&lt;&gt;0,IFERROR(IF(M56&lt;&gt;0,("C"&amp;TEXT(RIGHT(M56,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A57&lt;&gt;0,IFERROR(IF(M56&lt;&gt;0,("C"&amp;TEXT(RIGHT(M56,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N57" s="41"/>
       <c r="O57" s="41"/>
       <c r="P57" s="41" t="str">
-        <f>IF(Sample_information!H62&lt;&gt;0,Sample_information!H62,"")</f>
+        <f>IF(Sample_information!H58&lt;&gt;0,Sample_information!H58,"")</f>
         <v/>
       </c>
       <c r="Q57" s="41" t="str">
-        <f>IF(Sample_information!I62&lt;&gt;0,Sample_information!I62,"")</f>
+        <f>IF(Sample_information!I58&lt;&gt;0,Sample_information!I58,"")</f>
         <v/>
       </c>
     </row>
@@ -5288,22 +5234,22 @@
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23" t="str">
-        <f>IF(Sample_information!M63&lt;&gt;0,Sample_information!M63,"")</f>
+        <f>IF(Sample_information!M59&lt;&gt;0,Sample_information!M59,"")</f>
         <v/>
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="41" t="str">
-        <f>IF(Sample_information!A62&lt;&gt;0,IFERROR(IF(M57&lt;&gt;0,("C"&amp;TEXT(RIGHT(M57,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A58&lt;&gt;0,IFERROR(IF(M57&lt;&gt;0,("C"&amp;TEXT(RIGHT(M57,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N58" s="41"/>
       <c r="O58" s="41"/>
       <c r="P58" s="41" t="str">
-        <f>IF(Sample_information!H63&lt;&gt;0,Sample_information!H63,"")</f>
+        <f>IF(Sample_information!H59&lt;&gt;0,Sample_information!H59,"")</f>
         <v/>
       </c>
       <c r="Q58" s="41" t="str">
-        <f>IF(Sample_information!I63&lt;&gt;0,Sample_information!I63,"")</f>
+        <f>IF(Sample_information!I59&lt;&gt;0,Sample_information!I59,"")</f>
         <v/>
       </c>
     </row>
@@ -5327,22 +5273,22 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23" t="str">
-        <f>IF(Sample_information!M64&lt;&gt;0,Sample_information!M64,"")</f>
+        <f>IF(Sample_information!M60&lt;&gt;0,Sample_information!M60,"")</f>
         <v/>
       </c>
       <c r="L59" s="23"/>
       <c r="M59" s="41" t="str">
-        <f>IF(Sample_information!A63&lt;&gt;0,IFERROR(IF(M58&lt;&gt;0,("C"&amp;TEXT(RIGHT(M58,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A59&lt;&gt;0,IFERROR(IF(M58&lt;&gt;0,("C"&amp;TEXT(RIGHT(M58,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N59" s="41"/>
       <c r="O59" s="41"/>
       <c r="P59" s="41" t="str">
-        <f>IF(Sample_information!H64&lt;&gt;0,Sample_information!H64,"")</f>
+        <f>IF(Sample_information!H60&lt;&gt;0,Sample_information!H60,"")</f>
         <v/>
       </c>
       <c r="Q59" s="41" t="str">
-        <f>IF(Sample_information!I64&lt;&gt;0,Sample_information!I64,"")</f>
+        <f>IF(Sample_information!I60&lt;&gt;0,Sample_information!I60,"")</f>
         <v/>
       </c>
     </row>
@@ -5366,22 +5312,22 @@
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23" t="str">
-        <f>IF(Sample_information!M65&lt;&gt;0,Sample_information!M65,"")</f>
+        <f>IF(Sample_information!M61&lt;&gt;0,Sample_information!M61,"")</f>
         <v/>
       </c>
       <c r="L60" s="23"/>
       <c r="M60" s="41" t="str">
-        <f>IF(Sample_information!A64&lt;&gt;0,IFERROR(IF(M59&lt;&gt;0,("C"&amp;TEXT(RIGHT(M59,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A60&lt;&gt;0,IFERROR(IF(M59&lt;&gt;0,("C"&amp;TEXT(RIGHT(M59,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N60" s="41"/>
       <c r="O60" s="41"/>
       <c r="P60" s="41" t="str">
-        <f>IF(Sample_information!H65&lt;&gt;0,Sample_information!H65,"")</f>
+        <f>IF(Sample_information!H61&lt;&gt;0,Sample_information!H61,"")</f>
         <v/>
       </c>
       <c r="Q60" s="41" t="str">
-        <f>IF(Sample_information!I65&lt;&gt;0,Sample_information!I65,"")</f>
+        <f>IF(Sample_information!I61&lt;&gt;0,Sample_information!I61,"")</f>
         <v/>
       </c>
     </row>
@@ -5405,22 +5351,22 @@
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23" t="str">
-        <f>IF(Sample_information!M66&lt;&gt;0,Sample_information!M66,"")</f>
+        <f>IF(Sample_information!M62&lt;&gt;0,Sample_information!M62,"")</f>
         <v/>
       </c>
       <c r="L61" s="23"/>
       <c r="M61" s="41" t="str">
-        <f>IF(Sample_information!A65&lt;&gt;0,IFERROR(IF(M60&lt;&gt;0,("C"&amp;TEXT(RIGHT(M60,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A61&lt;&gt;0,IFERROR(IF(M60&lt;&gt;0,("C"&amp;TEXT(RIGHT(M60,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N61" s="41"/>
       <c r="O61" s="41"/>
       <c r="P61" s="41" t="str">
-        <f>IF(Sample_information!H66&lt;&gt;0,Sample_information!H66,"")</f>
+        <f>IF(Sample_information!H62&lt;&gt;0,Sample_information!H62,"")</f>
         <v/>
       </c>
       <c r="Q61" s="41" t="str">
-        <f>IF(Sample_information!I66&lt;&gt;0,Sample_information!I66,"")</f>
+        <f>IF(Sample_information!I62&lt;&gt;0,Sample_information!I62,"")</f>
         <v/>
       </c>
     </row>
@@ -5444,22 +5390,22 @@
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23" t="str">
-        <f>IF(Sample_information!M67&lt;&gt;0,Sample_information!M67,"")</f>
+        <f>IF(Sample_information!M63&lt;&gt;0,Sample_information!M63,"")</f>
         <v/>
       </c>
       <c r="L62" s="23"/>
       <c r="M62" s="41" t="str">
-        <f>IF(Sample_information!A66&lt;&gt;0,IFERROR(IF(M61&lt;&gt;0,("C"&amp;TEXT(RIGHT(M61,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A62&lt;&gt;0,IFERROR(IF(M61&lt;&gt;0,("C"&amp;TEXT(RIGHT(M61,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N62" s="41"/>
       <c r="O62" s="41"/>
       <c r="P62" s="41" t="str">
-        <f>IF(Sample_information!H67&lt;&gt;0,Sample_information!H67,"")</f>
+        <f>IF(Sample_information!H63&lt;&gt;0,Sample_information!H63,"")</f>
         <v/>
       </c>
       <c r="Q62" s="41" t="str">
-        <f>IF(Sample_information!I67&lt;&gt;0,Sample_information!I67,"")</f>
+        <f>IF(Sample_information!I63&lt;&gt;0,Sample_information!I63,"")</f>
         <v/>
       </c>
     </row>
@@ -5483,22 +5429,22 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23" t="str">
-        <f>IF(Sample_information!M68&lt;&gt;0,Sample_information!M68,"")</f>
+        <f>IF(Sample_information!M64&lt;&gt;0,Sample_information!M64,"")</f>
         <v/>
       </c>
       <c r="L63" s="23"/>
       <c r="M63" s="41" t="str">
-        <f>IF(Sample_information!A67&lt;&gt;0,IFERROR(IF(M62&lt;&gt;0,("C"&amp;TEXT(RIGHT(M62,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A63&lt;&gt;0,IFERROR(IF(M62&lt;&gt;0,("C"&amp;TEXT(RIGHT(M62,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N63" s="41"/>
       <c r="O63" s="41"/>
       <c r="P63" s="41" t="str">
-        <f>IF(Sample_information!H68&lt;&gt;0,Sample_information!H68,"")</f>
+        <f>IF(Sample_information!H64&lt;&gt;0,Sample_information!H64,"")</f>
         <v/>
       </c>
       <c r="Q63" s="41" t="str">
-        <f>IF(Sample_information!I68&lt;&gt;0,Sample_information!I68,"")</f>
+        <f>IF(Sample_information!I64&lt;&gt;0,Sample_information!I64,"")</f>
         <v/>
       </c>
     </row>
@@ -5522,22 +5468,22 @@
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23" t="str">
-        <f>IF(Sample_information!M69&lt;&gt;0,Sample_information!M69,"")</f>
+        <f>IF(Sample_information!M65&lt;&gt;0,Sample_information!M65,"")</f>
         <v/>
       </c>
       <c r="L64" s="23"/>
       <c r="M64" s="41" t="str">
-        <f>IF(Sample_information!A68&lt;&gt;0,IFERROR(IF(M63&lt;&gt;0,("C"&amp;TEXT(RIGHT(M63,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A64&lt;&gt;0,IFERROR(IF(M63&lt;&gt;0,("C"&amp;TEXT(RIGHT(M63,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N64" s="41"/>
       <c r="O64" s="41"/>
       <c r="P64" s="41" t="str">
-        <f>IF(Sample_information!H69&lt;&gt;0,Sample_information!H69,"")</f>
+        <f>IF(Sample_information!H65&lt;&gt;0,Sample_information!H65,"")</f>
         <v/>
       </c>
       <c r="Q64" s="41" t="str">
-        <f>IF(Sample_information!I69&lt;&gt;0,Sample_information!I69,"")</f>
+        <f>IF(Sample_information!I65&lt;&gt;0,Sample_information!I65,"")</f>
         <v/>
       </c>
     </row>
@@ -5561,22 +5507,22 @@
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23" t="str">
-        <f>IF(Sample_information!M70&lt;&gt;0,Sample_information!M70,"")</f>
+        <f>IF(Sample_information!M66&lt;&gt;0,Sample_information!M66,"")</f>
         <v/>
       </c>
       <c r="L65" s="23"/>
       <c r="M65" s="41" t="str">
-        <f>IF(Sample_information!A69&lt;&gt;0,IFERROR(IF(M64&lt;&gt;0,("C"&amp;TEXT(RIGHT(M64,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A65&lt;&gt;0,IFERROR(IF(M64&lt;&gt;0,("C"&amp;TEXT(RIGHT(M64,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
       <c r="P65" s="41" t="str">
-        <f>IF(Sample_information!H70&lt;&gt;0,Sample_information!H70,"")</f>
+        <f>IF(Sample_information!H66&lt;&gt;0,Sample_information!H66,"")</f>
         <v/>
       </c>
       <c r="Q65" s="41" t="str">
-        <f>IF(Sample_information!I70&lt;&gt;0,Sample_information!I70,"")</f>
+        <f>IF(Sample_information!I66&lt;&gt;0,Sample_information!I66,"")</f>
         <v/>
       </c>
     </row>
@@ -5600,22 +5546,22 @@
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23" t="str">
-        <f>IF(Sample_information!M71&lt;&gt;0,Sample_information!M71,"")</f>
+        <f>IF(Sample_information!M67&lt;&gt;0,Sample_information!M67,"")</f>
         <v/>
       </c>
       <c r="L66" s="23"/>
       <c r="M66" s="41" t="str">
-        <f>IF(Sample_information!A70&lt;&gt;0,IFERROR(IF(M65&lt;&gt;0,("C"&amp;TEXT(RIGHT(M65,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A66&lt;&gt;0,IFERROR(IF(M65&lt;&gt;0,("C"&amp;TEXT(RIGHT(M65,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N66" s="41"/>
       <c r="O66" s="41"/>
       <c r="P66" s="41" t="str">
-        <f>IF(Sample_information!H71&lt;&gt;0,Sample_information!H71,"")</f>
+        <f>IF(Sample_information!H67&lt;&gt;0,Sample_information!H67,"")</f>
         <v/>
       </c>
       <c r="Q66" s="41" t="str">
-        <f>IF(Sample_information!I71&lt;&gt;0,Sample_information!I71,"")</f>
+        <f>IF(Sample_information!I67&lt;&gt;0,Sample_information!I67,"")</f>
         <v/>
       </c>
     </row>
@@ -5639,22 +5585,22 @@
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23" t="str">
-        <f>IF(Sample_information!M72&lt;&gt;0,Sample_information!M72,"")</f>
+        <f>IF(Sample_information!M68&lt;&gt;0,Sample_information!M68,"")</f>
         <v/>
       </c>
       <c r="L67" s="23"/>
       <c r="M67" s="41" t="str">
-        <f>IF(Sample_information!A71&lt;&gt;0,IFERROR(IF(M66&lt;&gt;0,("C"&amp;TEXT(RIGHT(M66,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A67&lt;&gt;0,IFERROR(IF(M66&lt;&gt;0,("C"&amp;TEXT(RIGHT(M66,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N67" s="41"/>
       <c r="O67" s="41"/>
       <c r="P67" s="41" t="str">
-        <f>IF(Sample_information!H72&lt;&gt;0,Sample_information!H72,"")</f>
+        <f>IF(Sample_information!H68&lt;&gt;0,Sample_information!H68,"")</f>
         <v/>
       </c>
       <c r="Q67" s="41" t="str">
-        <f>IF(Sample_information!I72&lt;&gt;0,Sample_information!I72,"")</f>
+        <f>IF(Sample_information!I68&lt;&gt;0,Sample_information!I68,"")</f>
         <v/>
       </c>
     </row>
@@ -5678,22 +5624,22 @@
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23" t="str">
-        <f>IF(Sample_information!M73&lt;&gt;0,Sample_information!M73,"")</f>
+        <f>IF(Sample_information!M69&lt;&gt;0,Sample_information!M69,"")</f>
         <v/>
       </c>
       <c r="L68" s="23"/>
       <c r="M68" s="41" t="str">
-        <f>IF(Sample_information!A72&lt;&gt;0,IFERROR(IF(M67&lt;&gt;0,("C"&amp;TEXT(RIGHT(M67,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A68&lt;&gt;0,IFERROR(IF(M67&lt;&gt;0,("C"&amp;TEXT(RIGHT(M67,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N68" s="41"/>
       <c r="O68" s="41"/>
       <c r="P68" s="41" t="str">
-        <f>IF(Sample_information!H73&lt;&gt;0,Sample_information!H73,"")</f>
+        <f>IF(Sample_information!H69&lt;&gt;0,Sample_information!H69,"")</f>
         <v/>
       </c>
       <c r="Q68" s="41" t="str">
-        <f>IF(Sample_information!I73&lt;&gt;0,Sample_information!I73,"")</f>
+        <f>IF(Sample_information!I69&lt;&gt;0,Sample_information!I69,"")</f>
         <v/>
       </c>
     </row>
@@ -5717,22 +5663,22 @@
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23" t="str">
-        <f>IF(Sample_information!M74&lt;&gt;0,Sample_information!M74,"")</f>
+        <f>IF(Sample_information!M70&lt;&gt;0,Sample_information!M70,"")</f>
         <v/>
       </c>
       <c r="L69" s="23"/>
       <c r="M69" s="41" t="str">
-        <f>IF(Sample_information!A73&lt;&gt;0,IFERROR(IF(M68&lt;&gt;0,("C"&amp;TEXT(RIGHT(M68,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A69&lt;&gt;0,IFERROR(IF(M68&lt;&gt;0,("C"&amp;TEXT(RIGHT(M68,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N69" s="41"/>
       <c r="O69" s="41"/>
       <c r="P69" s="41" t="str">
-        <f>IF(Sample_information!H74&lt;&gt;0,Sample_information!H74,"")</f>
+        <f>IF(Sample_information!H70&lt;&gt;0,Sample_information!H70,"")</f>
         <v/>
       </c>
       <c r="Q69" s="41" t="str">
-        <f>IF(Sample_information!I74&lt;&gt;0,Sample_information!I74,"")</f>
+        <f>IF(Sample_information!I70&lt;&gt;0,Sample_information!I70,"")</f>
         <v/>
       </c>
     </row>
@@ -5756,22 +5702,22 @@
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23" t="str">
-        <f>IF(Sample_information!M75&lt;&gt;0,Sample_information!M75,"")</f>
+        <f>IF(Sample_information!M71&lt;&gt;0,Sample_information!M71,"")</f>
         <v/>
       </c>
       <c r="L70" s="23"/>
       <c r="M70" s="41" t="str">
-        <f>IF(Sample_information!A74&lt;&gt;0,IFERROR(IF(M69&lt;&gt;0,("C"&amp;TEXT(RIGHT(M69,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A70&lt;&gt;0,IFERROR(IF(M69&lt;&gt;0,("C"&amp;TEXT(RIGHT(M69,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N70" s="41"/>
       <c r="O70" s="41"/>
       <c r="P70" s="41" t="str">
-        <f>IF(Sample_information!H75&lt;&gt;0,Sample_information!H75,"")</f>
+        <f>IF(Sample_information!H71&lt;&gt;0,Sample_information!H71,"")</f>
         <v/>
       </c>
       <c r="Q70" s="41" t="str">
-        <f>IF(Sample_information!I75&lt;&gt;0,Sample_information!I75,"")</f>
+        <f>IF(Sample_information!I71&lt;&gt;0,Sample_information!I71,"")</f>
         <v/>
       </c>
     </row>
@@ -5795,22 +5741,22 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23" t="str">
-        <f>IF(Sample_information!M76&lt;&gt;0,Sample_information!M76,"")</f>
+        <f>IF(Sample_information!M72&lt;&gt;0,Sample_information!M72,"")</f>
         <v/>
       </c>
       <c r="L71" s="23"/>
       <c r="M71" s="41" t="str">
-        <f>IF(Sample_information!A75&lt;&gt;0,IFERROR(IF(M70&lt;&gt;0,("C"&amp;TEXT(RIGHT(M70,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A71&lt;&gt;0,IFERROR(IF(M70&lt;&gt;0,("C"&amp;TEXT(RIGHT(M70,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N71" s="41"/>
       <c r="O71" s="41"/>
       <c r="P71" s="41" t="str">
-        <f>IF(Sample_information!H76&lt;&gt;0,Sample_information!H76,"")</f>
+        <f>IF(Sample_information!H72&lt;&gt;0,Sample_information!H72,"")</f>
         <v/>
       </c>
       <c r="Q71" s="41" t="str">
-        <f>IF(Sample_information!I76&lt;&gt;0,Sample_information!I76,"")</f>
+        <f>IF(Sample_information!I72&lt;&gt;0,Sample_information!I72,"")</f>
         <v/>
       </c>
     </row>
@@ -5834,22 +5780,22 @@
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23" t="str">
-        <f>IF(Sample_information!M77&lt;&gt;0,Sample_information!M77,"")</f>
+        <f>IF(Sample_information!M73&lt;&gt;0,Sample_information!M73,"")</f>
         <v/>
       </c>
       <c r="L72" s="23"/>
       <c r="M72" s="41" t="str">
-        <f>IF(Sample_information!A76&lt;&gt;0,IFERROR(IF(M71&lt;&gt;0,("C"&amp;TEXT(RIGHT(M71,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A72&lt;&gt;0,IFERROR(IF(M71&lt;&gt;0,("C"&amp;TEXT(RIGHT(M71,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N72" s="41"/>
       <c r="O72" s="41"/>
       <c r="P72" s="41" t="str">
-        <f>IF(Sample_information!H77&lt;&gt;0,Sample_information!H77,"")</f>
+        <f>IF(Sample_information!H73&lt;&gt;0,Sample_information!H73,"")</f>
         <v/>
       </c>
       <c r="Q72" s="41" t="str">
-        <f>IF(Sample_information!I77&lt;&gt;0,Sample_information!I77,"")</f>
+        <f>IF(Sample_information!I73&lt;&gt;0,Sample_information!I73,"")</f>
         <v/>
       </c>
     </row>
@@ -5873,22 +5819,22 @@
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23" t="str">
-        <f>IF(Sample_information!M78&lt;&gt;0,Sample_information!M78,"")</f>
+        <f>IF(Sample_information!M74&lt;&gt;0,Sample_information!M74,"")</f>
         <v/>
       </c>
       <c r="L73" s="23"/>
       <c r="M73" s="41" t="str">
-        <f>IF(Sample_information!A77&lt;&gt;0,IFERROR(IF(M72&lt;&gt;0,("C"&amp;TEXT(RIGHT(M72,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A73&lt;&gt;0,IFERROR(IF(M72&lt;&gt;0,("C"&amp;TEXT(RIGHT(M72,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N73" s="41"/>
       <c r="O73" s="41"/>
       <c r="P73" s="41" t="str">
-        <f>IF(Sample_information!H78&lt;&gt;0,Sample_information!H78,"")</f>
+        <f>IF(Sample_information!H74&lt;&gt;0,Sample_information!H74,"")</f>
         <v/>
       </c>
       <c r="Q73" s="41" t="str">
-        <f>IF(Sample_information!I78&lt;&gt;0,Sample_information!I78,"")</f>
+        <f>IF(Sample_information!I74&lt;&gt;0,Sample_information!I74,"")</f>
         <v/>
       </c>
     </row>
@@ -5912,22 +5858,22 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23" t="str">
-        <f>IF(Sample_information!M79&lt;&gt;0,Sample_information!M79,"")</f>
+        <f>IF(Sample_information!M75&lt;&gt;0,Sample_information!M75,"")</f>
         <v/>
       </c>
       <c r="L74" s="23"/>
       <c r="M74" s="41" t="str">
-        <f>IF(Sample_information!A78&lt;&gt;0,IFERROR(IF(M73&lt;&gt;0,("C"&amp;TEXT(RIGHT(M73,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A74&lt;&gt;0,IFERROR(IF(M73&lt;&gt;0,("C"&amp;TEXT(RIGHT(M73,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N74" s="41"/>
       <c r="O74" s="41"/>
       <c r="P74" s="41" t="str">
-        <f>IF(Sample_information!H79&lt;&gt;0,Sample_information!H79,"")</f>
+        <f>IF(Sample_information!H75&lt;&gt;0,Sample_information!H75,"")</f>
         <v/>
       </c>
       <c r="Q74" s="41" t="str">
-        <f>IF(Sample_information!I79&lt;&gt;0,Sample_information!I79,"")</f>
+        <f>IF(Sample_information!I75&lt;&gt;0,Sample_information!I75,"")</f>
         <v/>
       </c>
     </row>
@@ -5951,22 +5897,22 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23" t="str">
-        <f>IF(Sample_information!M80&lt;&gt;0,Sample_information!M80,"")</f>
+        <f>IF(Sample_information!M76&lt;&gt;0,Sample_information!M76,"")</f>
         <v/>
       </c>
       <c r="L75" s="23"/>
       <c r="M75" s="41" t="str">
-        <f>IF(Sample_information!A79&lt;&gt;0,IFERROR(IF(M74&lt;&gt;0,("C"&amp;TEXT(RIGHT(M74,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A75&lt;&gt;0,IFERROR(IF(M74&lt;&gt;0,("C"&amp;TEXT(RIGHT(M74,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N75" s="41"/>
       <c r="O75" s="41"/>
       <c r="P75" s="41" t="str">
-        <f>IF(Sample_information!H80&lt;&gt;0,Sample_information!H80,"")</f>
+        <f>IF(Sample_information!H76&lt;&gt;0,Sample_information!H76,"")</f>
         <v/>
       </c>
       <c r="Q75" s="41" t="str">
-        <f>IF(Sample_information!I80&lt;&gt;0,Sample_information!I80,"")</f>
+        <f>IF(Sample_information!I76&lt;&gt;0,Sample_information!I76,"")</f>
         <v/>
       </c>
     </row>
@@ -5990,22 +5936,22 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23" t="str">
-        <f>IF(Sample_information!M81&lt;&gt;0,Sample_information!M81,"")</f>
+        <f>IF(Sample_information!M77&lt;&gt;0,Sample_information!M77,"")</f>
         <v/>
       </c>
       <c r="L76" s="23"/>
       <c r="M76" s="41" t="str">
-        <f>IF(Sample_information!A80&lt;&gt;0,IFERROR(IF(M75&lt;&gt;0,("C"&amp;TEXT(RIGHT(M75,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A76&lt;&gt;0,IFERROR(IF(M75&lt;&gt;0,("C"&amp;TEXT(RIGHT(M75,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N76" s="41"/>
       <c r="O76" s="41"/>
       <c r="P76" s="41" t="str">
-        <f>IF(Sample_information!H81&lt;&gt;0,Sample_information!H81,"")</f>
+        <f>IF(Sample_information!H77&lt;&gt;0,Sample_information!H77,"")</f>
         <v/>
       </c>
       <c r="Q76" s="41" t="str">
-        <f>IF(Sample_information!I81&lt;&gt;0,Sample_information!I81,"")</f>
+        <f>IF(Sample_information!I77&lt;&gt;0,Sample_information!I77,"")</f>
         <v/>
       </c>
     </row>
@@ -6029,22 +5975,22 @@
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23" t="str">
-        <f>IF(Sample_information!M82&lt;&gt;0,Sample_information!M82,"")</f>
+        <f>IF(Sample_information!M78&lt;&gt;0,Sample_information!M78,"")</f>
         <v/>
       </c>
       <c r="L77" s="23"/>
       <c r="M77" s="41" t="str">
-        <f>IF(Sample_information!A81&lt;&gt;0,IFERROR(IF(M76&lt;&gt;0,("C"&amp;TEXT(RIGHT(M76,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A77&lt;&gt;0,IFERROR(IF(M76&lt;&gt;0,("C"&amp;TEXT(RIGHT(M76,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N77" s="41"/>
       <c r="O77" s="41"/>
       <c r="P77" s="41" t="str">
-        <f>IF(Sample_information!H82&lt;&gt;0,Sample_information!H82,"")</f>
+        <f>IF(Sample_information!H78&lt;&gt;0,Sample_information!H78,"")</f>
         <v/>
       </c>
       <c r="Q77" s="41" t="str">
-        <f>IF(Sample_information!I82&lt;&gt;0,Sample_information!I82,"")</f>
+        <f>IF(Sample_information!I78&lt;&gt;0,Sample_information!I78,"")</f>
         <v/>
       </c>
     </row>
@@ -6068,22 +6014,22 @@
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23" t="str">
-        <f>IF(Sample_information!M83&lt;&gt;0,Sample_information!M83,"")</f>
+        <f>IF(Sample_information!M79&lt;&gt;0,Sample_information!M79,"")</f>
         <v/>
       </c>
       <c r="L78" s="23"/>
       <c r="M78" s="41" t="str">
-        <f>IF(Sample_information!A82&lt;&gt;0,IFERROR(IF(M77&lt;&gt;0,("C"&amp;TEXT(RIGHT(M77,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A78&lt;&gt;0,IFERROR(IF(M77&lt;&gt;0,("C"&amp;TEXT(RIGHT(M77,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N78" s="41"/>
       <c r="O78" s="41"/>
       <c r="P78" s="41" t="str">
-        <f>IF(Sample_information!H83&lt;&gt;0,Sample_information!H83,"")</f>
+        <f>IF(Sample_information!H79&lt;&gt;0,Sample_information!H79,"")</f>
         <v/>
       </c>
       <c r="Q78" s="41" t="str">
-        <f>IF(Sample_information!I83&lt;&gt;0,Sample_information!I83,"")</f>
+        <f>IF(Sample_information!I79&lt;&gt;0,Sample_information!I79,"")</f>
         <v/>
       </c>
     </row>
@@ -6107,22 +6053,22 @@
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23" t="str">
-        <f>IF(Sample_information!M84&lt;&gt;0,Sample_information!M84,"")</f>
+        <f>IF(Sample_information!M80&lt;&gt;0,Sample_information!M80,"")</f>
         <v/>
       </c>
       <c r="L79" s="23"/>
       <c r="M79" s="41" t="str">
-        <f>IF(Sample_information!A83&lt;&gt;0,IFERROR(IF(M78&lt;&gt;0,("C"&amp;TEXT(RIGHT(M78,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A79&lt;&gt;0,IFERROR(IF(M78&lt;&gt;0,("C"&amp;TEXT(RIGHT(M78,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N79" s="41"/>
       <c r="O79" s="41"/>
       <c r="P79" s="41" t="str">
-        <f>IF(Sample_information!H84&lt;&gt;0,Sample_information!H84,"")</f>
+        <f>IF(Sample_information!H80&lt;&gt;0,Sample_information!H80,"")</f>
         <v/>
       </c>
       <c r="Q79" s="41" t="str">
-        <f>IF(Sample_information!I84&lt;&gt;0,Sample_information!I84,"")</f>
+        <f>IF(Sample_information!I80&lt;&gt;0,Sample_information!I80,"")</f>
         <v/>
       </c>
     </row>
@@ -6146,22 +6092,22 @@
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23" t="str">
-        <f>IF(Sample_information!M85&lt;&gt;0,Sample_information!M85,"")</f>
+        <f>IF(Sample_information!M81&lt;&gt;0,Sample_information!M81,"")</f>
         <v/>
       </c>
       <c r="L80" s="23"/>
       <c r="M80" s="41" t="str">
-        <f>IF(Sample_information!A84&lt;&gt;0,IFERROR(IF(M79&lt;&gt;0,("C"&amp;TEXT(RIGHT(M79,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A80&lt;&gt;0,IFERROR(IF(M79&lt;&gt;0,("C"&amp;TEXT(RIGHT(M79,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N80" s="41"/>
       <c r="O80" s="41"/>
       <c r="P80" s="41" t="str">
-        <f>IF(Sample_information!H85&lt;&gt;0,Sample_information!H85,"")</f>
+        <f>IF(Sample_information!H81&lt;&gt;0,Sample_information!H81,"")</f>
         <v/>
       </c>
       <c r="Q80" s="41" t="str">
-        <f>IF(Sample_information!I85&lt;&gt;0,Sample_information!I85,"")</f>
+        <f>IF(Sample_information!I81&lt;&gt;0,Sample_information!I81,"")</f>
         <v/>
       </c>
     </row>
@@ -6185,22 +6131,22 @@
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
       <c r="J81" s="23" t="str">
-        <f>IF(Sample_information!M86&lt;&gt;0,Sample_information!M86,"")</f>
+        <f>IF(Sample_information!M82&lt;&gt;0,Sample_information!M82,"")</f>
         <v/>
       </c>
       <c r="L81" s="23"/>
       <c r="M81" s="41" t="str">
-        <f>IF(Sample_information!A85&lt;&gt;0,IFERROR(IF(M80&lt;&gt;0,("C"&amp;TEXT(RIGHT(M80,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A81&lt;&gt;0,IFERROR(IF(M80&lt;&gt;0,("C"&amp;TEXT(RIGHT(M80,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N81" s="41"/>
       <c r="O81" s="41"/>
       <c r="P81" s="41" t="str">
-        <f>IF(Sample_information!H86&lt;&gt;0,Sample_information!H86,"")</f>
+        <f>IF(Sample_information!H82&lt;&gt;0,Sample_information!H82,"")</f>
         <v/>
       </c>
       <c r="Q81" s="41" t="str">
-        <f>IF(Sample_information!I86&lt;&gt;0,Sample_information!I86,"")</f>
+        <f>IF(Sample_information!I82&lt;&gt;0,Sample_information!I82,"")</f>
         <v/>
       </c>
     </row>
@@ -6224,22 +6170,22 @@
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23" t="str">
-        <f>IF(Sample_information!M87&lt;&gt;0,Sample_information!M87,"")</f>
+        <f>IF(Sample_information!M83&lt;&gt;0,Sample_information!M83,"")</f>
         <v/>
       </c>
       <c r="L82" s="23"/>
       <c r="M82" s="41" t="str">
-        <f>IF(Sample_information!A86&lt;&gt;0,IFERROR(IF(M81&lt;&gt;0,("C"&amp;TEXT(RIGHT(M81,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A82&lt;&gt;0,IFERROR(IF(M81&lt;&gt;0,("C"&amp;TEXT(RIGHT(M81,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N82" s="41"/>
       <c r="O82" s="41"/>
       <c r="P82" s="41" t="str">
-        <f>IF(Sample_information!H87&lt;&gt;0,Sample_information!H87,"")</f>
+        <f>IF(Sample_information!H83&lt;&gt;0,Sample_information!H83,"")</f>
         <v/>
       </c>
       <c r="Q82" s="41" t="str">
-        <f>IF(Sample_information!I87&lt;&gt;0,Sample_information!I87,"")</f>
+        <f>IF(Sample_information!I83&lt;&gt;0,Sample_information!I83,"")</f>
         <v/>
       </c>
     </row>
@@ -6263,22 +6209,22 @@
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23" t="str">
-        <f>IF(Sample_information!M88&lt;&gt;0,Sample_information!M88,"")</f>
+        <f>IF(Sample_information!M84&lt;&gt;0,Sample_information!M84,"")</f>
         <v/>
       </c>
       <c r="L83" s="23"/>
       <c r="M83" s="41" t="str">
-        <f>IF(Sample_information!A87&lt;&gt;0,IFERROR(IF(M82&lt;&gt;0,("C"&amp;TEXT(RIGHT(M82,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A83&lt;&gt;0,IFERROR(IF(M82&lt;&gt;0,("C"&amp;TEXT(RIGHT(M82,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N83" s="41"/>
       <c r="O83" s="41"/>
       <c r="P83" s="41" t="str">
-        <f>IF(Sample_information!H88&lt;&gt;0,Sample_information!H88,"")</f>
+        <f>IF(Sample_information!H84&lt;&gt;0,Sample_information!H84,"")</f>
         <v/>
       </c>
       <c r="Q83" s="41" t="str">
-        <f>IF(Sample_information!I88&lt;&gt;0,Sample_information!I88,"")</f>
+        <f>IF(Sample_information!I84&lt;&gt;0,Sample_information!I84,"")</f>
         <v/>
       </c>
     </row>
@@ -6302,22 +6248,22 @@
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23" t="str">
-        <f>IF(Sample_information!M89&lt;&gt;0,Sample_information!M89,"")</f>
+        <f>IF(Sample_information!M85&lt;&gt;0,Sample_information!M85,"")</f>
         <v/>
       </c>
       <c r="L84" s="23"/>
       <c r="M84" s="41" t="str">
-        <f>IF(Sample_information!A88&lt;&gt;0,IFERROR(IF(M83&lt;&gt;0,("C"&amp;TEXT(RIGHT(M83,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A84&lt;&gt;0,IFERROR(IF(M83&lt;&gt;0,("C"&amp;TEXT(RIGHT(M83,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N84" s="41"/>
       <c r="O84" s="41"/>
       <c r="P84" s="41" t="str">
-        <f>IF(Sample_information!H89&lt;&gt;0,Sample_information!H89,"")</f>
+        <f>IF(Sample_information!H85&lt;&gt;0,Sample_information!H85,"")</f>
         <v/>
       </c>
       <c r="Q84" s="41" t="str">
-        <f>IF(Sample_information!I89&lt;&gt;0,Sample_information!I89,"")</f>
+        <f>IF(Sample_information!I85&lt;&gt;0,Sample_information!I85,"")</f>
         <v/>
       </c>
     </row>
@@ -6341,22 +6287,22 @@
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23" t="str">
-        <f>IF(Sample_information!M90&lt;&gt;0,Sample_information!M90,"")</f>
+        <f>IF(Sample_information!M86&lt;&gt;0,Sample_information!M86,"")</f>
         <v/>
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="41" t="str">
-        <f>IF(Sample_information!A89&lt;&gt;0,IFERROR(IF(M84&lt;&gt;0,("C"&amp;TEXT(RIGHT(M84,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A85&lt;&gt;0,IFERROR(IF(M84&lt;&gt;0,("C"&amp;TEXT(RIGHT(M84,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N85" s="41"/>
       <c r="O85" s="41"/>
       <c r="P85" s="41" t="str">
-        <f>IF(Sample_information!H90&lt;&gt;0,Sample_information!H90,"")</f>
+        <f>IF(Sample_information!H86&lt;&gt;0,Sample_information!H86,"")</f>
         <v/>
       </c>
       <c r="Q85" s="41" t="str">
-        <f>IF(Sample_information!I90&lt;&gt;0,Sample_information!I90,"")</f>
+        <f>IF(Sample_information!I86&lt;&gt;0,Sample_information!I86,"")</f>
         <v/>
       </c>
     </row>
@@ -6380,22 +6326,22 @@
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
       <c r="J86" s="23" t="str">
-        <f>IF(Sample_information!M91&lt;&gt;0,Sample_information!M91,"")</f>
+        <f>IF(Sample_information!M87&lt;&gt;0,Sample_information!M87,"")</f>
         <v/>
       </c>
       <c r="L86" s="23"/>
       <c r="M86" s="41" t="str">
-        <f>IF(Sample_information!A90&lt;&gt;0,IFERROR(IF(M85&lt;&gt;0,("C"&amp;TEXT(RIGHT(M85,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A86&lt;&gt;0,IFERROR(IF(M85&lt;&gt;0,("C"&amp;TEXT(RIGHT(M85,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N86" s="41"/>
       <c r="O86" s="41"/>
       <c r="P86" s="41" t="str">
-        <f>IF(Sample_information!H91&lt;&gt;0,Sample_information!H91,"")</f>
+        <f>IF(Sample_information!H87&lt;&gt;0,Sample_information!H87,"")</f>
         <v/>
       </c>
       <c r="Q86" s="41" t="str">
-        <f>IF(Sample_information!I91&lt;&gt;0,Sample_information!I91,"")</f>
+        <f>IF(Sample_information!I87&lt;&gt;0,Sample_information!I87,"")</f>
         <v/>
       </c>
     </row>
@@ -6419,22 +6365,22 @@
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
       <c r="J87" s="23" t="str">
-        <f>IF(Sample_information!M92&lt;&gt;0,Sample_information!M92,"")</f>
+        <f>IF(Sample_information!M88&lt;&gt;0,Sample_information!M88,"")</f>
         <v/>
       </c>
       <c r="L87" s="23"/>
       <c r="M87" s="41" t="str">
-        <f>IF(Sample_information!A91&lt;&gt;0,IFERROR(IF(M86&lt;&gt;0,("C"&amp;TEXT(RIGHT(M86,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A87&lt;&gt;0,IFERROR(IF(M86&lt;&gt;0,("C"&amp;TEXT(RIGHT(M86,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N87" s="41"/>
       <c r="O87" s="41"/>
       <c r="P87" s="41" t="str">
-        <f>IF(Sample_information!H92&lt;&gt;0,Sample_information!H92,"")</f>
+        <f>IF(Sample_information!H88&lt;&gt;0,Sample_information!H88,"")</f>
         <v/>
       </c>
       <c r="Q87" s="41" t="str">
-        <f>IF(Sample_information!I92&lt;&gt;0,Sample_information!I92,"")</f>
+        <f>IF(Sample_information!I88&lt;&gt;0,Sample_information!I88,"")</f>
         <v/>
       </c>
     </row>
@@ -6458,22 +6404,22 @@
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
       <c r="J88" s="23" t="str">
-        <f>IF(Sample_information!M93&lt;&gt;0,Sample_information!M93,"")</f>
+        <f>IF(Sample_information!M89&lt;&gt;0,Sample_information!M89,"")</f>
         <v/>
       </c>
       <c r="L88" s="23"/>
       <c r="M88" s="41" t="str">
-        <f>IF(Sample_information!A92&lt;&gt;0,IFERROR(IF(M87&lt;&gt;0,("C"&amp;TEXT(RIGHT(M87,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A88&lt;&gt;0,IFERROR(IF(M87&lt;&gt;0,("C"&amp;TEXT(RIGHT(M87,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N88" s="41"/>
       <c r="O88" s="41"/>
       <c r="P88" s="41" t="str">
-        <f>IF(Sample_information!H93&lt;&gt;0,Sample_information!H93,"")</f>
+        <f>IF(Sample_information!H89&lt;&gt;0,Sample_information!H89,"")</f>
         <v/>
       </c>
       <c r="Q88" s="41" t="str">
-        <f>IF(Sample_information!I93&lt;&gt;0,Sample_information!I93,"")</f>
+        <f>IF(Sample_information!I89&lt;&gt;0,Sample_information!I89,"")</f>
         <v/>
       </c>
     </row>
@@ -6497,22 +6443,22 @@
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
       <c r="J89" s="23" t="str">
-        <f>IF(Sample_information!M94&lt;&gt;0,Sample_information!M94,"")</f>
+        <f>IF(Sample_information!M90&lt;&gt;0,Sample_information!M90,"")</f>
         <v/>
       </c>
       <c r="L89" s="23"/>
       <c r="M89" s="41" t="str">
-        <f>IF(Sample_information!A93&lt;&gt;0,IFERROR(IF(M88&lt;&gt;0,("C"&amp;TEXT(RIGHT(M88,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A89&lt;&gt;0,IFERROR(IF(M88&lt;&gt;0,("C"&amp;TEXT(RIGHT(M88,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N89" s="41"/>
       <c r="O89" s="41"/>
       <c r="P89" s="41" t="str">
-        <f>IF(Sample_information!H94&lt;&gt;0,Sample_information!H94,"")</f>
+        <f>IF(Sample_information!H90&lt;&gt;0,Sample_information!H90,"")</f>
         <v/>
       </c>
       <c r="Q89" s="41" t="str">
-        <f>IF(Sample_information!I94&lt;&gt;0,Sample_information!I94,"")</f>
+        <f>IF(Sample_information!I90&lt;&gt;0,Sample_information!I90,"")</f>
         <v/>
       </c>
     </row>
@@ -6536,22 +6482,22 @@
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
       <c r="J90" s="23" t="str">
-        <f>IF(Sample_information!M95&lt;&gt;0,Sample_information!M95,"")</f>
+        <f>IF(Sample_information!M91&lt;&gt;0,Sample_information!M91,"")</f>
         <v/>
       </c>
       <c r="L90" s="23"/>
       <c r="M90" s="41" t="str">
-        <f>IF(Sample_information!A94&lt;&gt;0,IFERROR(IF(M89&lt;&gt;0,("C"&amp;TEXT(RIGHT(M89,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A90&lt;&gt;0,IFERROR(IF(M89&lt;&gt;0,("C"&amp;TEXT(RIGHT(M89,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N90" s="41"/>
       <c r="O90" s="41"/>
       <c r="P90" s="41" t="str">
-        <f>IF(Sample_information!H95&lt;&gt;0,Sample_information!H95,"")</f>
+        <f>IF(Sample_information!H91&lt;&gt;0,Sample_information!H91,"")</f>
         <v/>
       </c>
       <c r="Q90" s="41" t="str">
-        <f>IF(Sample_information!I95&lt;&gt;0,Sample_information!I95,"")</f>
+        <f>IF(Sample_information!I91&lt;&gt;0,Sample_information!I91,"")</f>
         <v/>
       </c>
     </row>
@@ -6575,22 +6521,22 @@
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
       <c r="J91" s="23" t="str">
-        <f>IF(Sample_information!M96&lt;&gt;0,Sample_information!M96,"")</f>
+        <f>IF(Sample_information!M92&lt;&gt;0,Sample_information!M92,"")</f>
         <v/>
       </c>
       <c r="L91" s="23"/>
       <c r="M91" s="41" t="str">
-        <f>IF(Sample_information!A95&lt;&gt;0,IFERROR(IF(M90&lt;&gt;0,("C"&amp;TEXT(RIGHT(M90,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A91&lt;&gt;0,IFERROR(IF(M90&lt;&gt;0,("C"&amp;TEXT(RIGHT(M90,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N91" s="41"/>
       <c r="O91" s="41"/>
       <c r="P91" s="41" t="str">
-        <f>IF(Sample_information!H96&lt;&gt;0,Sample_information!H96,"")</f>
+        <f>IF(Sample_information!H92&lt;&gt;0,Sample_information!H92,"")</f>
         <v/>
       </c>
       <c r="Q91" s="41" t="str">
-        <f>IF(Sample_information!I96&lt;&gt;0,Sample_information!I96,"")</f>
+        <f>IF(Sample_information!I92&lt;&gt;0,Sample_information!I92,"")</f>
         <v/>
       </c>
     </row>
@@ -6614,22 +6560,22 @@
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
       <c r="J92" s="23" t="str">
-        <f>IF(Sample_information!M97&lt;&gt;0,Sample_information!M97,"")</f>
+        <f>IF(Sample_information!M93&lt;&gt;0,Sample_information!M93,"")</f>
         <v/>
       </c>
       <c r="L92" s="23"/>
       <c r="M92" s="41" t="str">
-        <f>IF(Sample_information!A96&lt;&gt;0,IFERROR(IF(M91&lt;&gt;0,("C"&amp;TEXT(RIGHT(M91,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A92&lt;&gt;0,IFERROR(IF(M91&lt;&gt;0,("C"&amp;TEXT(RIGHT(M91,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N92" s="41"/>
       <c r="O92" s="41"/>
       <c r="P92" s="41" t="str">
-        <f>IF(Sample_information!H97&lt;&gt;0,Sample_information!H97,"")</f>
+        <f>IF(Sample_information!H93&lt;&gt;0,Sample_information!H93,"")</f>
         <v/>
       </c>
       <c r="Q92" s="41" t="str">
-        <f>IF(Sample_information!I97&lt;&gt;0,Sample_information!I97,"")</f>
+        <f>IF(Sample_information!I93&lt;&gt;0,Sample_information!I93,"")</f>
         <v/>
       </c>
     </row>
@@ -6653,22 +6599,22 @@
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
       <c r="J93" s="23" t="str">
-        <f>IF(Sample_information!M98&lt;&gt;0,Sample_information!M98,"")</f>
+        <f>IF(Sample_information!M94&lt;&gt;0,Sample_information!M94,"")</f>
         <v/>
       </c>
       <c r="L93" s="23"/>
       <c r="M93" s="41" t="str">
-        <f>IF(Sample_information!A97&lt;&gt;0,IFERROR(IF(M92&lt;&gt;0,("C"&amp;TEXT(RIGHT(M92,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A93&lt;&gt;0,IFERROR(IF(M92&lt;&gt;0,("C"&amp;TEXT(RIGHT(M92,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N93" s="41"/>
       <c r="O93" s="41"/>
       <c r="P93" s="41" t="str">
-        <f>IF(Sample_information!H98&lt;&gt;0,Sample_information!H98,"")</f>
+        <f>IF(Sample_information!H94&lt;&gt;0,Sample_information!H94,"")</f>
         <v/>
       </c>
       <c r="Q93" s="41" t="str">
-        <f>IF(Sample_information!I98&lt;&gt;0,Sample_information!I98,"")</f>
+        <f>IF(Sample_information!I94&lt;&gt;0,Sample_information!I94,"")</f>
         <v/>
       </c>
     </row>
@@ -6692,22 +6638,22 @@
       <c r="H94" s="23"/>
       <c r="I94" s="23"/>
       <c r="J94" s="23" t="str">
-        <f>IF(Sample_information!M99&lt;&gt;0,Sample_information!M99,"")</f>
+        <f>IF(Sample_information!M95&lt;&gt;0,Sample_information!M95,"")</f>
         <v/>
       </c>
       <c r="L94" s="23"/>
       <c r="M94" s="41" t="str">
-        <f>IF(Sample_information!A98&lt;&gt;0,IFERROR(IF(M93&lt;&gt;0,("C"&amp;TEXT(RIGHT(M93,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A94&lt;&gt;0,IFERROR(IF(M93&lt;&gt;0,("C"&amp;TEXT(RIGHT(M93,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N94" s="41"/>
       <c r="O94" s="41"/>
       <c r="P94" s="41" t="str">
-        <f>IF(Sample_information!H99&lt;&gt;0,Sample_information!H99,"")</f>
+        <f>IF(Sample_information!H95&lt;&gt;0,Sample_information!H95,"")</f>
         <v/>
       </c>
       <c r="Q94" s="41" t="str">
-        <f>IF(Sample_information!I99&lt;&gt;0,Sample_information!I99,"")</f>
+        <f>IF(Sample_information!I95&lt;&gt;0,Sample_information!I95,"")</f>
         <v/>
       </c>
     </row>
@@ -6731,22 +6677,22 @@
       <c r="H95" s="23"/>
       <c r="I95" s="23"/>
       <c r="J95" s="23" t="str">
-        <f>IF(Sample_information!M100&lt;&gt;0,Sample_information!M100,"")</f>
+        <f>IF(Sample_information!M96&lt;&gt;0,Sample_information!M96,"")</f>
         <v/>
       </c>
       <c r="L95" s="23"/>
       <c r="M95" s="41" t="str">
-        <f>IF(Sample_information!A99&lt;&gt;0,IFERROR(IF(M94&lt;&gt;0,("C"&amp;TEXT(RIGHT(M94,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A95&lt;&gt;0,IFERROR(IF(M94&lt;&gt;0,("C"&amp;TEXT(RIGHT(M94,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N95" s="41"/>
       <c r="O95" s="41"/>
       <c r="P95" s="41" t="str">
-        <f>IF(Sample_information!H100&lt;&gt;0,Sample_information!H100,"")</f>
+        <f>IF(Sample_information!H96&lt;&gt;0,Sample_information!H96,"")</f>
         <v/>
       </c>
       <c r="Q95" s="41" t="str">
-        <f>IF(Sample_information!I100&lt;&gt;0,Sample_information!I100,"")</f>
+        <f>IF(Sample_information!I96&lt;&gt;0,Sample_information!I96,"")</f>
         <v/>
       </c>
     </row>
@@ -6770,22 +6716,22 @@
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
       <c r="J96" s="23" t="str">
-        <f>IF(Sample_information!M101&lt;&gt;0,Sample_information!M101,"")</f>
+        <f>IF(Sample_information!M97&lt;&gt;0,Sample_information!M97,"")</f>
         <v/>
       </c>
       <c r="L96" s="23"/>
       <c r="M96" s="41" t="str">
-        <f>IF(Sample_information!A100&lt;&gt;0,IFERROR(IF(M95&lt;&gt;0,("C"&amp;TEXT(RIGHT(M95,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A96&lt;&gt;0,IFERROR(IF(M95&lt;&gt;0,("C"&amp;TEXT(RIGHT(M95,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N96" s="41"/>
       <c r="O96" s="41"/>
       <c r="P96" s="41" t="str">
-        <f>IF(Sample_information!H101&lt;&gt;0,Sample_information!H101,"")</f>
+        <f>IF(Sample_information!H97&lt;&gt;0,Sample_information!H97,"")</f>
         <v/>
       </c>
       <c r="Q96" s="41" t="str">
-        <f>IF(Sample_information!I101&lt;&gt;0,Sample_information!I101,"")</f>
+        <f>IF(Sample_information!I97&lt;&gt;0,Sample_information!I97,"")</f>
         <v/>
       </c>
     </row>
@@ -6809,22 +6755,22 @@
       <c r="H97" s="23"/>
       <c r="I97" s="23"/>
       <c r="J97" s="23" t="str">
-        <f>IF(Sample_information!M102&lt;&gt;0,Sample_information!M102,"")</f>
+        <f>IF(Sample_information!M98&lt;&gt;0,Sample_information!M98,"")</f>
         <v/>
       </c>
       <c r="L97" s="23"/>
       <c r="M97" s="41" t="str">
-        <f>IF(Sample_information!A101&lt;&gt;0,IFERROR(IF(M96&lt;&gt;0,("C"&amp;TEXT(RIGHT(M96,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A97&lt;&gt;0,IFERROR(IF(M96&lt;&gt;0,("C"&amp;TEXT(RIGHT(M96,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N97" s="41"/>
       <c r="O97" s="41"/>
       <c r="P97" s="41" t="str">
-        <f>IF(Sample_information!H102&lt;&gt;0,Sample_information!H102,"")</f>
+        <f>IF(Sample_information!H98&lt;&gt;0,Sample_information!H98,"")</f>
         <v/>
       </c>
       <c r="Q97" s="41" t="str">
-        <f>IF(Sample_information!I102&lt;&gt;0,Sample_information!I102,"")</f>
+        <f>IF(Sample_information!I98&lt;&gt;0,Sample_information!I98,"")</f>
         <v/>
       </c>
     </row>
@@ -6848,22 +6794,22 @@
       <c r="H98" s="23"/>
       <c r="I98" s="23"/>
       <c r="J98" s="23" t="str">
-        <f>IF(Sample_information!M103&lt;&gt;0,Sample_information!M103,"")</f>
+        <f>IF(Sample_information!M99&lt;&gt;0,Sample_information!M99,"")</f>
         <v/>
       </c>
       <c r="L98" s="23"/>
       <c r="M98" s="41" t="str">
-        <f>IF(Sample_information!A102&lt;&gt;0,IFERROR(IF(M97&lt;&gt;0,("C"&amp;TEXT(RIGHT(M97,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A98&lt;&gt;0,IFERROR(IF(M97&lt;&gt;0,("C"&amp;TEXT(RIGHT(M97,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N98" s="41"/>
       <c r="O98" s="41"/>
       <c r="P98" s="41" t="str">
-        <f>IF(Sample_information!H103&lt;&gt;0,Sample_information!H103,"")</f>
+        <f>IF(Sample_information!H99&lt;&gt;0,Sample_information!H99,"")</f>
         <v/>
       </c>
       <c r="Q98" s="41" t="str">
-        <f>IF(Sample_information!I103&lt;&gt;0,Sample_information!I103,"")</f>
+        <f>IF(Sample_information!I99&lt;&gt;0,Sample_information!I99,"")</f>
         <v/>
       </c>
     </row>
@@ -6887,22 +6833,22 @@
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
       <c r="J99" s="23" t="str">
-        <f>IF(Sample_information!M104&lt;&gt;0,Sample_information!M104,"")</f>
+        <f>IF(Sample_information!M100&lt;&gt;0,Sample_information!M100,"")</f>
         <v/>
       </c>
       <c r="L99" s="23"/>
       <c r="M99" s="41" t="str">
-        <f>IF(Sample_information!A103&lt;&gt;0,IFERROR(IF(M98&lt;&gt;0,("C"&amp;TEXT(RIGHT(M98,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A99&lt;&gt;0,IFERROR(IF(M98&lt;&gt;0,("C"&amp;TEXT(RIGHT(M98,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N99" s="41"/>
       <c r="O99" s="41"/>
       <c r="P99" s="41" t="str">
-        <f>IF(Sample_information!H104&lt;&gt;0,Sample_information!H104,"")</f>
+        <f>IF(Sample_information!H100&lt;&gt;0,Sample_information!H100,"")</f>
         <v/>
       </c>
       <c r="Q99" s="41" t="str">
-        <f>IF(Sample_information!I104&lt;&gt;0,Sample_information!I104,"")</f>
+        <f>IF(Sample_information!I100&lt;&gt;0,Sample_information!I100,"")</f>
         <v/>
       </c>
     </row>
@@ -6926,22 +6872,22 @@
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23" t="str">
-        <f>IF(Sample_information!M105&lt;&gt;0,Sample_information!M105,"")</f>
+        <f>IF(Sample_information!M101&lt;&gt;0,Sample_information!M101,"")</f>
         <v/>
       </c>
       <c r="L100" s="23"/>
       <c r="M100" s="41" t="str">
-        <f>IF(Sample_information!A104&lt;&gt;0,IFERROR(IF(M99&lt;&gt;0,("C"&amp;TEXT(RIGHT(M99,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A100&lt;&gt;0,IFERROR(IF(M99&lt;&gt;0,("C"&amp;TEXT(RIGHT(M99,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N100" s="41"/>
       <c r="O100" s="41"/>
       <c r="P100" s="41" t="str">
-        <f>IF(Sample_information!H105&lt;&gt;0,Sample_information!H105,"")</f>
+        <f>IF(Sample_information!H101&lt;&gt;0,Sample_information!H101,"")</f>
         <v/>
       </c>
       <c r="Q100" s="41" t="str">
-        <f>IF(Sample_information!I105&lt;&gt;0,Sample_information!I105,"")</f>
+        <f>IF(Sample_information!I101&lt;&gt;0,Sample_information!I101,"")</f>
         <v/>
       </c>
     </row>
@@ -6957,22 +6903,22 @@
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
       <c r="J101" s="23" t="str">
-        <f>IF(Sample_information!M106&lt;&gt;0,Sample_information!M106,"")</f>
+        <f>IF(Sample_information!M102&lt;&gt;0,Sample_information!M102,"")</f>
         <v/>
       </c>
       <c r="L101" s="23"/>
       <c r="M101" s="41" t="str">
-        <f>IF(Sample_information!A105&lt;&gt;0,IFERROR(IF(M100&lt;&gt;0,("C"&amp;TEXT(RIGHT(M100,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A101&lt;&gt;0,IFERROR(IF(M100&lt;&gt;0,("C"&amp;TEXT(RIGHT(M100,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N101" s="41"/>
       <c r="O101" s="41"/>
       <c r="P101" s="41" t="str">
-        <f>IF(Sample_information!H106&lt;&gt;0,Sample_information!H106,"")</f>
+        <f>IF(Sample_information!H102&lt;&gt;0,Sample_information!H102,"")</f>
         <v/>
       </c>
       <c r="Q101" s="41" t="str">
-        <f>IF(Sample_information!I106&lt;&gt;0,Sample_information!I106,"")</f>
+        <f>IF(Sample_information!I102&lt;&gt;0,Sample_information!I102,"")</f>
         <v/>
       </c>
     </row>
@@ -6988,22 +6934,22 @@
       <c r="H102" s="23"/>
       <c r="I102" s="23"/>
       <c r="J102" s="23" t="str">
-        <f>IF(Sample_information!M107&lt;&gt;0,Sample_information!M107,"")</f>
+        <f>IF(Sample_information!M103&lt;&gt;0,Sample_information!M103,"")</f>
         <v/>
       </c>
       <c r="L102" s="23"/>
       <c r="M102" s="41" t="str">
-        <f>IF(Sample_information!A106&lt;&gt;0,IFERROR(IF(M101&lt;&gt;0,("C"&amp;TEXT(RIGHT(M101,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A102&lt;&gt;0,IFERROR(IF(M101&lt;&gt;0,("C"&amp;TEXT(RIGHT(M101,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N102" s="41"/>
       <c r="O102" s="41"/>
       <c r="P102" s="41" t="str">
-        <f>IF(Sample_information!H107&lt;&gt;0,Sample_information!H107,"")</f>
+        <f>IF(Sample_information!H103&lt;&gt;0,Sample_information!H103,"")</f>
         <v/>
       </c>
       <c r="Q102" s="41" t="str">
-        <f>IF(Sample_information!I107&lt;&gt;0,Sample_information!I107,"")</f>
+        <f>IF(Sample_information!I103&lt;&gt;0,Sample_information!I103,"")</f>
         <v/>
       </c>
     </row>
@@ -7019,22 +6965,22 @@
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
       <c r="J103" s="23" t="str">
-        <f>IF(Sample_information!M108&lt;&gt;0,Sample_information!M108,"")</f>
+        <f>IF(Sample_information!M104&lt;&gt;0,Sample_information!M104,"")</f>
         <v/>
       </c>
       <c r="L103" s="23"/>
       <c r="M103" s="41" t="str">
-        <f>IF(Sample_information!A107&lt;&gt;0,IFERROR(IF(M102&lt;&gt;0,("C"&amp;TEXT(RIGHT(M102,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A103&lt;&gt;0,IFERROR(IF(M102&lt;&gt;0,("C"&amp;TEXT(RIGHT(M102,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
       <c r="P103" s="41" t="str">
-        <f>IF(Sample_information!H108&lt;&gt;0,Sample_information!H108,"")</f>
+        <f>IF(Sample_information!H104&lt;&gt;0,Sample_information!H104,"")</f>
         <v/>
       </c>
       <c r="Q103" s="41" t="str">
-        <f>IF(Sample_information!I108&lt;&gt;0,Sample_information!I108,"")</f>
+        <f>IF(Sample_information!I104&lt;&gt;0,Sample_information!I104,"")</f>
         <v/>
       </c>
     </row>
@@ -7050,22 +6996,22 @@
       <c r="H104" s="23"/>
       <c r="I104" s="23"/>
       <c r="J104" s="23" t="str">
-        <f>IF(Sample_information!M109&lt;&gt;0,Sample_information!M109,"")</f>
+        <f>IF(Sample_information!M105&lt;&gt;0,Sample_information!M105,"")</f>
         <v/>
       </c>
       <c r="L104" s="23"/>
       <c r="M104" s="41" t="str">
-        <f>IF(Sample_information!A108&lt;&gt;0,IFERROR(IF(M103&lt;&gt;0,("C"&amp;TEXT(RIGHT(M103,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A104&lt;&gt;0,IFERROR(IF(M103&lt;&gt;0,("C"&amp;TEXT(RIGHT(M103,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N104" s="41"/>
       <c r="O104" s="41"/>
       <c r="P104" s="41" t="str">
-        <f>IF(Sample_information!H109&lt;&gt;0,Sample_information!H109,"")</f>
+        <f>IF(Sample_information!H105&lt;&gt;0,Sample_information!H105,"")</f>
         <v/>
       </c>
       <c r="Q104" s="41" t="str">
-        <f>IF(Sample_information!I109&lt;&gt;0,Sample_information!I109,"")</f>
+        <f>IF(Sample_information!I105&lt;&gt;0,Sample_information!I105,"")</f>
         <v/>
       </c>
     </row>
@@ -7081,22 +7027,22 @@
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
       <c r="J105" s="23" t="str">
-        <f>IF(Sample_information!M110&lt;&gt;0,Sample_information!M110,"")</f>
+        <f>IF(Sample_information!M106&lt;&gt;0,Sample_information!M106,"")</f>
         <v/>
       </c>
       <c r="L105" s="23"/>
       <c r="M105" s="41" t="str">
-        <f>IF(Sample_information!A109&lt;&gt;0,IFERROR(IF(M104&lt;&gt;0,("C"&amp;TEXT(RIGHT(M104,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A105&lt;&gt;0,IFERROR(IF(M104&lt;&gt;0,("C"&amp;TEXT(RIGHT(M104,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N105" s="41"/>
       <c r="O105" s="41"/>
       <c r="P105" s="41" t="str">
-        <f>IF(Sample_information!H110&lt;&gt;0,Sample_information!H110,"")</f>
+        <f>IF(Sample_information!H106&lt;&gt;0,Sample_information!H106,"")</f>
         <v/>
       </c>
       <c r="Q105" s="41" t="str">
-        <f>IF(Sample_information!I110&lt;&gt;0,Sample_information!I110,"")</f>
+        <f>IF(Sample_information!I106&lt;&gt;0,Sample_information!I106,"")</f>
         <v/>
       </c>
     </row>
@@ -7112,22 +7058,22 @@
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23" t="str">
-        <f>IF(Sample_information!M111&lt;&gt;0,Sample_information!M111,"")</f>
+        <f>IF(Sample_information!M107&lt;&gt;0,Sample_information!M107,"")</f>
         <v/>
       </c>
       <c r="L106" s="23"/>
       <c r="M106" s="41" t="str">
-        <f>IF(Sample_information!A110&lt;&gt;0,IFERROR(IF(M105&lt;&gt;0,("C"&amp;TEXT(RIGHT(M105,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A106&lt;&gt;0,IFERROR(IF(M105&lt;&gt;0,("C"&amp;TEXT(RIGHT(M105,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N106" s="41"/>
       <c r="O106" s="41"/>
       <c r="P106" s="41" t="str">
-        <f>IF(Sample_information!H111&lt;&gt;0,Sample_information!H111,"")</f>
+        <f>IF(Sample_information!H107&lt;&gt;0,Sample_information!H107,"")</f>
         <v/>
       </c>
       <c r="Q106" s="41" t="str">
-        <f>IF(Sample_information!I111&lt;&gt;0,Sample_information!I111,"")</f>
+        <f>IF(Sample_information!I107&lt;&gt;0,Sample_information!I107,"")</f>
         <v/>
       </c>
     </row>
@@ -7143,22 +7089,22 @@
       <c r="H107" s="23"/>
       <c r="I107" s="23"/>
       <c r="J107" s="23" t="str">
-        <f>IF(Sample_information!M112&lt;&gt;0,Sample_information!M112,"")</f>
+        <f>IF(Sample_information!M108&lt;&gt;0,Sample_information!M108,"")</f>
         <v/>
       </c>
       <c r="L107" s="23"/>
       <c r="M107" s="41" t="str">
-        <f>IF(Sample_information!A111&lt;&gt;0,IFERROR(IF(M106&lt;&gt;0,("C"&amp;TEXT(RIGHT(M106,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A107&lt;&gt;0,IFERROR(IF(M106&lt;&gt;0,("C"&amp;TEXT(RIGHT(M106,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N107" s="41"/>
       <c r="O107" s="41"/>
       <c r="P107" s="41" t="str">
-        <f>IF(Sample_information!H112&lt;&gt;0,Sample_information!H112,"")</f>
+        <f>IF(Sample_information!H108&lt;&gt;0,Sample_information!H108,"")</f>
         <v/>
       </c>
       <c r="Q107" s="41" t="str">
-        <f>IF(Sample_information!I112&lt;&gt;0,Sample_information!I112,"")</f>
+        <f>IF(Sample_information!I108&lt;&gt;0,Sample_information!I108,"")</f>
         <v/>
       </c>
     </row>
@@ -7174,22 +7120,22 @@
       <c r="H108" s="23"/>
       <c r="I108" s="23"/>
       <c r="J108" s="23" t="str">
-        <f>IF(Sample_information!M113&lt;&gt;0,Sample_information!M113,"")</f>
+        <f>IF(Sample_information!M109&lt;&gt;0,Sample_information!M109,"")</f>
         <v/>
       </c>
       <c r="L108" s="23"/>
       <c r="M108" s="41" t="str">
-        <f>IF(Sample_information!A112&lt;&gt;0,IFERROR(IF(M107&lt;&gt;0,("C"&amp;TEXT(RIGHT(M107,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A108&lt;&gt;0,IFERROR(IF(M107&lt;&gt;0,("C"&amp;TEXT(RIGHT(M107,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N108" s="41"/>
       <c r="O108" s="41"/>
       <c r="P108" s="41" t="str">
-        <f>IF(Sample_information!H113&lt;&gt;0,Sample_information!H113,"")</f>
+        <f>IF(Sample_information!H109&lt;&gt;0,Sample_information!H109,"")</f>
         <v/>
       </c>
       <c r="Q108" s="41" t="str">
-        <f>IF(Sample_information!I113&lt;&gt;0,Sample_information!I113,"")</f>
+        <f>IF(Sample_information!I109&lt;&gt;0,Sample_information!I109,"")</f>
         <v/>
       </c>
     </row>
@@ -7205,22 +7151,22 @@
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
       <c r="J109" s="23" t="str">
-        <f>IF(Sample_information!M114&lt;&gt;0,Sample_information!M114,"")</f>
+        <f>IF(Sample_information!M110&lt;&gt;0,Sample_information!M110,"")</f>
         <v/>
       </c>
       <c r="L109" s="23"/>
       <c r="M109" s="41" t="str">
-        <f>IF(Sample_information!A113&lt;&gt;0,IFERROR(IF(M108&lt;&gt;0,("C"&amp;TEXT(RIGHT(M108,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A109&lt;&gt;0,IFERROR(IF(M108&lt;&gt;0,("C"&amp;TEXT(RIGHT(M108,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N109" s="41"/>
       <c r="O109" s="41"/>
       <c r="P109" s="41" t="str">
-        <f>IF(Sample_information!H114&lt;&gt;0,Sample_information!H114,"")</f>
+        <f>IF(Sample_information!H110&lt;&gt;0,Sample_information!H110,"")</f>
         <v/>
       </c>
       <c r="Q109" s="41" t="str">
-        <f>IF(Sample_information!I114&lt;&gt;0,Sample_information!I114,"")</f>
+        <f>IF(Sample_information!I110&lt;&gt;0,Sample_information!I110,"")</f>
         <v/>
       </c>
     </row>
@@ -7236,22 +7182,22 @@
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23" t="str">
-        <f>IF(Sample_information!M115&lt;&gt;0,Sample_information!M115,"")</f>
+        <f>IF(Sample_information!M111&lt;&gt;0,Sample_information!M111,"")</f>
         <v/>
       </c>
       <c r="L110" s="23"/>
       <c r="M110" s="41" t="str">
-        <f>IF(Sample_information!A114&lt;&gt;0,IFERROR(IF(M109&lt;&gt;0,("C"&amp;TEXT(RIGHT(M109,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A110&lt;&gt;0,IFERROR(IF(M109&lt;&gt;0,("C"&amp;TEXT(RIGHT(M109,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N110" s="41"/>
       <c r="O110" s="41"/>
       <c r="P110" s="41" t="str">
-        <f>IF(Sample_information!H115&lt;&gt;0,Sample_information!H115,"")</f>
+        <f>IF(Sample_information!H111&lt;&gt;0,Sample_information!H111,"")</f>
         <v/>
       </c>
       <c r="Q110" s="41" t="str">
-        <f>IF(Sample_information!I115&lt;&gt;0,Sample_information!I115,"")</f>
+        <f>IF(Sample_information!I111&lt;&gt;0,Sample_information!I111,"")</f>
         <v/>
       </c>
     </row>
@@ -7267,22 +7213,22 @@
       <c r="H111" s="23"/>
       <c r="I111" s="23"/>
       <c r="J111" s="23" t="str">
-        <f>IF(Sample_information!M116&lt;&gt;0,Sample_information!M116,"")</f>
+        <f>IF(Sample_information!M112&lt;&gt;0,Sample_information!M112,"")</f>
         <v/>
       </c>
       <c r="L111" s="23"/>
       <c r="M111" s="41" t="str">
-        <f>IF(Sample_information!A115&lt;&gt;0,IFERROR(IF(M110&lt;&gt;0,("C"&amp;TEXT(RIGHT(M110,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A111&lt;&gt;0,IFERROR(IF(M110&lt;&gt;0,("C"&amp;TEXT(RIGHT(M110,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N111" s="41"/>
       <c r="O111" s="41"/>
       <c r="P111" s="41" t="str">
-        <f>IF(Sample_information!H116&lt;&gt;0,Sample_information!H116,"")</f>
+        <f>IF(Sample_information!H112&lt;&gt;0,Sample_information!H112,"")</f>
         <v/>
       </c>
       <c r="Q111" s="41" t="str">
-        <f>IF(Sample_information!I116&lt;&gt;0,Sample_information!I116,"")</f>
+        <f>IF(Sample_information!I112&lt;&gt;0,Sample_information!I112,"")</f>
         <v/>
       </c>
     </row>
@@ -7298,22 +7244,22 @@
       <c r="H112" s="23"/>
       <c r="I112" s="23"/>
       <c r="J112" s="23" t="str">
-        <f>IF(Sample_information!M117&lt;&gt;0,Sample_information!M117,"")</f>
+        <f>IF(Sample_information!M113&lt;&gt;0,Sample_information!M113,"")</f>
         <v/>
       </c>
       <c r="L112" s="23"/>
       <c r="M112" s="41" t="str">
-        <f>IF(Sample_information!A116&lt;&gt;0,IFERROR(IF(M111&lt;&gt;0,("C"&amp;TEXT(RIGHT(M111,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A112&lt;&gt;0,IFERROR(IF(M111&lt;&gt;0,("C"&amp;TEXT(RIGHT(M111,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N112" s="41"/>
       <c r="O112" s="41"/>
       <c r="P112" s="41" t="str">
-        <f>IF(Sample_information!H117&lt;&gt;0,Sample_information!H117,"")</f>
+        <f>IF(Sample_information!H113&lt;&gt;0,Sample_information!H113,"")</f>
         <v/>
       </c>
       <c r="Q112" s="41" t="str">
-        <f>IF(Sample_information!I117&lt;&gt;0,Sample_information!I117,"")</f>
+        <f>IF(Sample_information!I113&lt;&gt;0,Sample_information!I113,"")</f>
         <v/>
       </c>
     </row>
@@ -7329,22 +7275,22 @@
       <c r="H113" s="23"/>
       <c r="I113" s="23"/>
       <c r="J113" s="23" t="str">
-        <f>IF(Sample_information!M118&lt;&gt;0,Sample_information!M118,"")</f>
+        <f>IF(Sample_information!M114&lt;&gt;0,Sample_information!M114,"")</f>
         <v/>
       </c>
       <c r="L113" s="23"/>
       <c r="M113" s="41" t="str">
-        <f>IF(Sample_information!A117&lt;&gt;0,IFERROR(IF(M112&lt;&gt;0,("C"&amp;TEXT(RIGHT(M112,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A113&lt;&gt;0,IFERROR(IF(M112&lt;&gt;0,("C"&amp;TEXT(RIGHT(M112,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N113" s="41"/>
       <c r="O113" s="41"/>
       <c r="P113" s="41" t="str">
-        <f>IF(Sample_information!H118&lt;&gt;0,Sample_information!H118,"")</f>
+        <f>IF(Sample_information!H114&lt;&gt;0,Sample_information!H114,"")</f>
         <v/>
       </c>
       <c r="Q113" s="41" t="str">
-        <f>IF(Sample_information!I118&lt;&gt;0,Sample_information!I118,"")</f>
+        <f>IF(Sample_information!I114&lt;&gt;0,Sample_information!I114,"")</f>
         <v/>
       </c>
     </row>
@@ -7360,22 +7306,22 @@
       <c r="H114" s="23"/>
       <c r="I114" s="23"/>
       <c r="J114" s="23" t="str">
-        <f>IF(Sample_information!M119&lt;&gt;0,Sample_information!M119,"")</f>
+        <f>IF(Sample_information!M115&lt;&gt;0,Sample_information!M115,"")</f>
         <v/>
       </c>
       <c r="L114" s="23"/>
       <c r="M114" s="41" t="str">
-        <f>IF(Sample_information!A118&lt;&gt;0,IFERROR(IF(M113&lt;&gt;0,("C"&amp;TEXT(RIGHT(M113,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A114&lt;&gt;0,IFERROR(IF(M113&lt;&gt;0,("C"&amp;TEXT(RIGHT(M113,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N114" s="41"/>
       <c r="O114" s="41"/>
       <c r="P114" s="41" t="str">
-        <f>IF(Sample_information!H119&lt;&gt;0,Sample_information!H119,"")</f>
+        <f>IF(Sample_information!H115&lt;&gt;0,Sample_information!H115,"")</f>
         <v/>
       </c>
       <c r="Q114" s="41" t="str">
-        <f>IF(Sample_information!I119&lt;&gt;0,Sample_information!I119,"")</f>
+        <f>IF(Sample_information!I115&lt;&gt;0,Sample_information!I115,"")</f>
         <v/>
       </c>
     </row>
@@ -7391,22 +7337,22 @@
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
       <c r="J115" s="23" t="str">
-        <f>IF(Sample_information!M120&lt;&gt;0,Sample_information!M120,"")</f>
+        <f>IF(Sample_information!M116&lt;&gt;0,Sample_information!M116,"")</f>
         <v/>
       </c>
       <c r="L115" s="23"/>
       <c r="M115" s="41" t="str">
-        <f>IF(Sample_information!A119&lt;&gt;0,IFERROR(IF(M114&lt;&gt;0,("C"&amp;TEXT(RIGHT(M114,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A115&lt;&gt;0,IFERROR(IF(M114&lt;&gt;0,("C"&amp;TEXT(RIGHT(M114,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N115" s="41"/>
       <c r="O115" s="41"/>
       <c r="P115" s="41" t="str">
-        <f>IF(Sample_information!H120&lt;&gt;0,Sample_information!H120,"")</f>
+        <f>IF(Sample_information!H116&lt;&gt;0,Sample_information!H116,"")</f>
         <v/>
       </c>
       <c r="Q115" s="41" t="str">
-        <f>IF(Sample_information!I120&lt;&gt;0,Sample_information!I120,"")</f>
+        <f>IF(Sample_information!I116&lt;&gt;0,Sample_information!I116,"")</f>
         <v/>
       </c>
     </row>
@@ -7422,22 +7368,22 @@
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
       <c r="J116" s="23" t="str">
-        <f>IF(Sample_information!M121&lt;&gt;0,Sample_information!M121,"")</f>
+        <f>IF(Sample_information!M117&lt;&gt;0,Sample_information!M117,"")</f>
         <v/>
       </c>
       <c r="L116" s="23"/>
       <c r="M116" s="41" t="str">
-        <f>IF(Sample_information!A120&lt;&gt;0,IFERROR(IF(M115&lt;&gt;0,("C"&amp;TEXT(RIGHT(M115,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A116&lt;&gt;0,IFERROR(IF(M115&lt;&gt;0,("C"&amp;TEXT(RIGHT(M115,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N116" s="41"/>
       <c r="O116" s="41"/>
       <c r="P116" s="41" t="str">
-        <f>IF(Sample_information!H121&lt;&gt;0,Sample_information!H121,"")</f>
+        <f>IF(Sample_information!H117&lt;&gt;0,Sample_information!H117,"")</f>
         <v/>
       </c>
       <c r="Q116" s="41" t="str">
-        <f>IF(Sample_information!I121&lt;&gt;0,Sample_information!I121,"")</f>
+        <f>IF(Sample_information!I117&lt;&gt;0,Sample_information!I117,"")</f>
         <v/>
       </c>
     </row>
@@ -7453,22 +7399,22 @@
       <c r="H117" s="23"/>
       <c r="I117" s="23"/>
       <c r="J117" s="23" t="str">
-        <f>IF(Sample_information!M122&lt;&gt;0,Sample_information!M122,"")</f>
+        <f>IF(Sample_information!M118&lt;&gt;0,Sample_information!M118,"")</f>
         <v/>
       </c>
       <c r="L117" s="23"/>
       <c r="M117" s="41" t="str">
-        <f>IF(Sample_information!A121&lt;&gt;0,IFERROR(IF(M116&lt;&gt;0,("C"&amp;TEXT(RIGHT(M116,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A117&lt;&gt;0,IFERROR(IF(M116&lt;&gt;0,("C"&amp;TEXT(RIGHT(M116,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N117" s="41"/>
       <c r="O117" s="41"/>
       <c r="P117" s="41" t="str">
-        <f>IF(Sample_information!H122&lt;&gt;0,Sample_information!H122,"")</f>
+        <f>IF(Sample_information!H118&lt;&gt;0,Sample_information!H118,"")</f>
         <v/>
       </c>
       <c r="Q117" s="41" t="str">
-        <f>IF(Sample_information!I122&lt;&gt;0,Sample_information!I122,"")</f>
+        <f>IF(Sample_information!I118&lt;&gt;0,Sample_information!I118,"")</f>
         <v/>
       </c>
     </row>
@@ -7484,22 +7430,22 @@
       <c r="H118" s="23"/>
       <c r="I118" s="23"/>
       <c r="J118" s="23" t="str">
-        <f>IF(Sample_information!M123&lt;&gt;0,Sample_information!M123,"")</f>
+        <f>IF(Sample_information!M119&lt;&gt;0,Sample_information!M119,"")</f>
         <v/>
       </c>
       <c r="L118" s="23"/>
       <c r="M118" s="41" t="str">
-        <f>IF(Sample_information!A122&lt;&gt;0,IFERROR(IF(M117&lt;&gt;0,("C"&amp;TEXT(RIGHT(M117,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A118&lt;&gt;0,IFERROR(IF(M117&lt;&gt;0,("C"&amp;TEXT(RIGHT(M117,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N118" s="41"/>
       <c r="O118" s="41"/>
       <c r="P118" s="41" t="str">
-        <f>IF(Sample_information!H123&lt;&gt;0,Sample_information!H123,"")</f>
+        <f>IF(Sample_information!H119&lt;&gt;0,Sample_information!H119,"")</f>
         <v/>
       </c>
       <c r="Q118" s="41" t="str">
-        <f>IF(Sample_information!I123&lt;&gt;0,Sample_information!I123,"")</f>
+        <f>IF(Sample_information!I119&lt;&gt;0,Sample_information!I119,"")</f>
         <v/>
       </c>
     </row>
@@ -7515,22 +7461,22 @@
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
       <c r="J119" s="23" t="str">
-        <f>IF(Sample_information!M124&lt;&gt;0,Sample_information!M124,"")</f>
+        <f>IF(Sample_information!M120&lt;&gt;0,Sample_information!M120,"")</f>
         <v/>
       </c>
       <c r="L119" s="23"/>
       <c r="M119" s="41" t="str">
-        <f>IF(Sample_information!A123&lt;&gt;0,IFERROR(IF(M118&lt;&gt;0,("C"&amp;TEXT(RIGHT(M118,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A119&lt;&gt;0,IFERROR(IF(M118&lt;&gt;0,("C"&amp;TEXT(RIGHT(M118,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N119" s="41"/>
       <c r="O119" s="41"/>
       <c r="P119" s="41" t="str">
-        <f>IF(Sample_information!H124&lt;&gt;0,Sample_information!H124,"")</f>
+        <f>IF(Sample_information!H120&lt;&gt;0,Sample_information!H120,"")</f>
         <v/>
       </c>
       <c r="Q119" s="41" t="str">
-        <f>IF(Sample_information!I124&lt;&gt;0,Sample_information!I124,"")</f>
+        <f>IF(Sample_information!I120&lt;&gt;0,Sample_information!I120,"")</f>
         <v/>
       </c>
     </row>
@@ -7546,22 +7492,22 @@
       <c r="H120" s="23"/>
       <c r="I120" s="23"/>
       <c r="J120" s="23" t="str">
-        <f>IF(Sample_information!M125&lt;&gt;0,Sample_information!M125,"")</f>
+        <f>IF(Sample_information!M121&lt;&gt;0,Sample_information!M121,"")</f>
         <v/>
       </c>
       <c r="L120" s="23"/>
       <c r="M120" s="41" t="str">
-        <f>IF(Sample_information!A124&lt;&gt;0,IFERROR(IF(M119&lt;&gt;0,("C"&amp;TEXT(RIGHT(M119,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A120&lt;&gt;0,IFERROR(IF(M119&lt;&gt;0,("C"&amp;TEXT(RIGHT(M119,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N120" s="41"/>
       <c r="O120" s="41"/>
       <c r="P120" s="41" t="str">
-        <f>IF(Sample_information!H125&lt;&gt;0,Sample_information!H125,"")</f>
+        <f>IF(Sample_information!H121&lt;&gt;0,Sample_information!H121,"")</f>
         <v/>
       </c>
       <c r="Q120" s="41" t="str">
-        <f>IF(Sample_information!I125&lt;&gt;0,Sample_information!I125,"")</f>
+        <f>IF(Sample_information!I121&lt;&gt;0,Sample_information!I121,"")</f>
         <v/>
       </c>
     </row>
@@ -7577,22 +7523,22 @@
       <c r="H121" s="23"/>
       <c r="I121" s="23"/>
       <c r="J121" s="23" t="str">
-        <f>IF(Sample_information!M126&lt;&gt;0,Sample_information!M126,"")</f>
+        <f>IF(Sample_information!M122&lt;&gt;0,Sample_information!M122,"")</f>
         <v/>
       </c>
       <c r="L121" s="23"/>
       <c r="M121" s="41" t="str">
-        <f>IF(Sample_information!A125&lt;&gt;0,IFERROR(IF(M120&lt;&gt;0,("C"&amp;TEXT(RIGHT(M120,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A121&lt;&gt;0,IFERROR(IF(M120&lt;&gt;0,("C"&amp;TEXT(RIGHT(M120,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N121" s="41"/>
       <c r="O121" s="41"/>
       <c r="P121" s="41" t="str">
-        <f>IF(Sample_information!H126&lt;&gt;0,Sample_information!H126,"")</f>
+        <f>IF(Sample_information!H122&lt;&gt;0,Sample_information!H122,"")</f>
         <v/>
       </c>
       <c r="Q121" s="41" t="str">
-        <f>IF(Sample_information!I126&lt;&gt;0,Sample_information!I126,"")</f>
+        <f>IF(Sample_information!I122&lt;&gt;0,Sample_information!I122,"")</f>
         <v/>
       </c>
     </row>
@@ -7608,22 +7554,22 @@
       <c r="H122" s="23"/>
       <c r="I122" s="23"/>
       <c r="J122" s="23" t="str">
-        <f>IF(Sample_information!M127&lt;&gt;0,Sample_information!M127,"")</f>
+        <f>IF(Sample_information!M123&lt;&gt;0,Sample_information!M123,"")</f>
         <v/>
       </c>
       <c r="L122" s="23"/>
       <c r="M122" s="41" t="str">
-        <f>IF(Sample_information!A126&lt;&gt;0,IFERROR(IF(M121&lt;&gt;0,("C"&amp;TEXT(RIGHT(M121,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A122&lt;&gt;0,IFERROR(IF(M121&lt;&gt;0,("C"&amp;TEXT(RIGHT(M121,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N122" s="41"/>
       <c r="O122" s="41"/>
       <c r="P122" s="41" t="str">
-        <f>IF(Sample_information!H127&lt;&gt;0,Sample_information!H127,"")</f>
+        <f>IF(Sample_information!H123&lt;&gt;0,Sample_information!H123,"")</f>
         <v/>
       </c>
       <c r="Q122" s="41" t="str">
-        <f>IF(Sample_information!I127&lt;&gt;0,Sample_information!I127,"")</f>
+        <f>IF(Sample_information!I123&lt;&gt;0,Sample_information!I123,"")</f>
         <v/>
       </c>
     </row>
@@ -7639,22 +7585,22 @@
       <c r="H123" s="23"/>
       <c r="I123" s="23"/>
       <c r="J123" s="23" t="str">
-        <f>IF(Sample_information!M128&lt;&gt;0,Sample_information!M128,"")</f>
+        <f>IF(Sample_information!M124&lt;&gt;0,Sample_information!M124,"")</f>
         <v/>
       </c>
       <c r="L123" s="23"/>
       <c r="M123" s="41" t="str">
-        <f>IF(Sample_information!A127&lt;&gt;0,IFERROR(IF(M122&lt;&gt;0,("C"&amp;TEXT(RIGHT(M122,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A123&lt;&gt;0,IFERROR(IF(M122&lt;&gt;0,("C"&amp;TEXT(RIGHT(M122,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N123" s="41"/>
       <c r="O123" s="41"/>
       <c r="P123" s="41" t="str">
-        <f>IF(Sample_information!H128&lt;&gt;0,Sample_information!H128,"")</f>
+        <f>IF(Sample_information!H124&lt;&gt;0,Sample_information!H124,"")</f>
         <v/>
       </c>
       <c r="Q123" s="41" t="str">
-        <f>IF(Sample_information!I128&lt;&gt;0,Sample_information!I128,"")</f>
+        <f>IF(Sample_information!I124&lt;&gt;0,Sample_information!I124,"")</f>
         <v/>
       </c>
     </row>
@@ -7670,22 +7616,22 @@
       <c r="H124" s="23"/>
       <c r="I124" s="23"/>
       <c r="J124" s="23" t="str">
-        <f>IF(Sample_information!M129&lt;&gt;0,Sample_information!M129,"")</f>
+        <f>IF(Sample_information!M125&lt;&gt;0,Sample_information!M125,"")</f>
         <v/>
       </c>
       <c r="L124" s="23"/>
       <c r="M124" s="41" t="str">
-        <f>IF(Sample_information!A128&lt;&gt;0,IFERROR(IF(M123&lt;&gt;0,("C"&amp;TEXT(RIGHT(M123,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A124&lt;&gt;0,IFERROR(IF(M123&lt;&gt;0,("C"&amp;TEXT(RIGHT(M123,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N124" s="41"/>
       <c r="O124" s="41"/>
       <c r="P124" s="41" t="str">
-        <f>IF(Sample_information!H129&lt;&gt;0,Sample_information!H129,"")</f>
+        <f>IF(Sample_information!H125&lt;&gt;0,Sample_information!H125,"")</f>
         <v/>
       </c>
       <c r="Q124" s="41" t="str">
-        <f>IF(Sample_information!I129&lt;&gt;0,Sample_information!I129,"")</f>
+        <f>IF(Sample_information!I125&lt;&gt;0,Sample_information!I125,"")</f>
         <v/>
       </c>
     </row>
@@ -7701,22 +7647,22 @@
       <c r="H125" s="23"/>
       <c r="I125" s="23"/>
       <c r="J125" s="23" t="str">
-        <f>IF(Sample_information!M130&lt;&gt;0,Sample_information!M130,"")</f>
+        <f>IF(Sample_information!M126&lt;&gt;0,Sample_information!M126,"")</f>
         <v/>
       </c>
       <c r="L125" s="23"/>
       <c r="M125" s="41" t="str">
-        <f>IF(Sample_information!A129&lt;&gt;0,IFERROR(IF(M124&lt;&gt;0,("C"&amp;TEXT(RIGHT(M124,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A125&lt;&gt;0,IFERROR(IF(M124&lt;&gt;0,("C"&amp;TEXT(RIGHT(M124,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N125" s="41"/>
       <c r="O125" s="41"/>
       <c r="P125" s="41" t="str">
-        <f>IF(Sample_information!H130&lt;&gt;0,Sample_information!H130,"")</f>
+        <f>IF(Sample_information!H126&lt;&gt;0,Sample_information!H126,"")</f>
         <v/>
       </c>
       <c r="Q125" s="41" t="str">
-        <f>IF(Sample_information!I130&lt;&gt;0,Sample_information!I130,"")</f>
+        <f>IF(Sample_information!I126&lt;&gt;0,Sample_information!I126,"")</f>
         <v/>
       </c>
     </row>
@@ -7732,22 +7678,22 @@
       <c r="H126" s="23"/>
       <c r="I126" s="23"/>
       <c r="J126" s="23" t="str">
-        <f>IF(Sample_information!M131&lt;&gt;0,Sample_information!M131,"")</f>
+        <f>IF(Sample_information!M127&lt;&gt;0,Sample_information!M127,"")</f>
         <v/>
       </c>
       <c r="L126" s="23"/>
       <c r="M126" s="41" t="str">
-        <f>IF(Sample_information!A130&lt;&gt;0,IFERROR(IF(M125&lt;&gt;0,("C"&amp;TEXT(RIGHT(M125,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A126&lt;&gt;0,IFERROR(IF(M125&lt;&gt;0,("C"&amp;TEXT(RIGHT(M125,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N126" s="41"/>
       <c r="O126" s="41"/>
       <c r="P126" s="41" t="str">
-        <f>IF(Sample_information!H131&lt;&gt;0,Sample_information!H131,"")</f>
+        <f>IF(Sample_information!H127&lt;&gt;0,Sample_information!H127,"")</f>
         <v/>
       </c>
       <c r="Q126" s="41" t="str">
-        <f>IF(Sample_information!I131&lt;&gt;0,Sample_information!I131,"")</f>
+        <f>IF(Sample_information!I127&lt;&gt;0,Sample_information!I127,"")</f>
         <v/>
       </c>
     </row>
@@ -7763,22 +7709,22 @@
       <c r="H127" s="23"/>
       <c r="I127" s="23"/>
       <c r="J127" s="23" t="str">
-        <f>IF(Sample_information!M132&lt;&gt;0,Sample_information!M132,"")</f>
+        <f>IF(Sample_information!M128&lt;&gt;0,Sample_information!M128,"")</f>
         <v/>
       </c>
       <c r="L127" s="23"/>
       <c r="M127" s="41" t="str">
-        <f>IF(Sample_information!A131&lt;&gt;0,IFERROR(IF(M126&lt;&gt;0,("C"&amp;TEXT(RIGHT(M126,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A127&lt;&gt;0,IFERROR(IF(M126&lt;&gt;0,("C"&amp;TEXT(RIGHT(M126,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N127" s="41"/>
       <c r="O127" s="41"/>
       <c r="P127" s="41" t="str">
-        <f>IF(Sample_information!H132&lt;&gt;0,Sample_information!H132,"")</f>
+        <f>IF(Sample_information!H128&lt;&gt;0,Sample_information!H128,"")</f>
         <v/>
       </c>
       <c r="Q127" s="41" t="str">
-        <f>IF(Sample_information!I132&lt;&gt;0,Sample_information!I132,"")</f>
+        <f>IF(Sample_information!I128&lt;&gt;0,Sample_information!I128,"")</f>
         <v/>
       </c>
     </row>
@@ -7794,22 +7740,22 @@
       <c r="H128" s="23"/>
       <c r="I128" s="23"/>
       <c r="J128" s="23" t="str">
-        <f>IF(Sample_information!M133&lt;&gt;0,Sample_information!M133,"")</f>
+        <f>IF(Sample_information!M129&lt;&gt;0,Sample_information!M129,"")</f>
         <v/>
       </c>
       <c r="L128" s="23"/>
       <c r="M128" s="41" t="str">
-        <f>IF(Sample_information!A132&lt;&gt;0,IFERROR(IF(M127&lt;&gt;0,("C"&amp;TEXT(RIGHT(M127,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A128&lt;&gt;0,IFERROR(IF(M127&lt;&gt;0,("C"&amp;TEXT(RIGHT(M127,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N128" s="41"/>
       <c r="O128" s="41"/>
       <c r="P128" s="41" t="str">
-        <f>IF(Sample_information!H133&lt;&gt;0,Sample_information!H133,"")</f>
+        <f>IF(Sample_information!H129&lt;&gt;0,Sample_information!H129,"")</f>
         <v/>
       </c>
       <c r="Q128" s="41" t="str">
-        <f>IF(Sample_information!I133&lt;&gt;0,Sample_information!I133,"")</f>
+        <f>IF(Sample_information!I129&lt;&gt;0,Sample_information!I129,"")</f>
         <v/>
       </c>
     </row>
@@ -7825,22 +7771,22 @@
       <c r="H129" s="23"/>
       <c r="I129" s="23"/>
       <c r="J129" s="23" t="str">
-        <f>IF(Sample_information!M134&lt;&gt;0,Sample_information!M134,"")</f>
+        <f>IF(Sample_information!M130&lt;&gt;0,Sample_information!M130,"")</f>
         <v/>
       </c>
       <c r="L129" s="23"/>
       <c r="M129" s="41" t="str">
-        <f>IF(Sample_information!A133&lt;&gt;0,IFERROR(IF(M128&lt;&gt;0,("C"&amp;TEXT(RIGHT(M128,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A129&lt;&gt;0,IFERROR(IF(M128&lt;&gt;0,("C"&amp;TEXT(RIGHT(M128,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N129" s="41"/>
       <c r="O129" s="41"/>
       <c r="P129" s="41" t="str">
-        <f>IF(Sample_information!H134&lt;&gt;0,Sample_information!H134,"")</f>
+        <f>IF(Sample_information!H130&lt;&gt;0,Sample_information!H130,"")</f>
         <v/>
       </c>
       <c r="Q129" s="41" t="str">
-        <f>IF(Sample_information!I134&lt;&gt;0,Sample_information!I134,"")</f>
+        <f>IF(Sample_information!I130&lt;&gt;0,Sample_information!I130,"")</f>
         <v/>
       </c>
     </row>
@@ -7856,22 +7802,22 @@
       <c r="H130" s="23"/>
       <c r="I130" s="23"/>
       <c r="J130" s="23" t="str">
-        <f>IF(Sample_information!M135&lt;&gt;0,Sample_information!M135,"")</f>
+        <f>IF(Sample_information!M131&lt;&gt;0,Sample_information!M131,"")</f>
         <v/>
       </c>
       <c r="L130" s="23"/>
       <c r="M130" s="41" t="str">
-        <f>IF(Sample_information!A134&lt;&gt;0,IFERROR(IF(M129&lt;&gt;0,("C"&amp;TEXT(RIGHT(M129,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A130&lt;&gt;0,IFERROR(IF(M129&lt;&gt;0,("C"&amp;TEXT(RIGHT(M129,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N130" s="41"/>
       <c r="O130" s="41"/>
       <c r="P130" s="41" t="str">
-        <f>IF(Sample_information!H135&lt;&gt;0,Sample_information!H135,"")</f>
+        <f>IF(Sample_information!H131&lt;&gt;0,Sample_information!H131,"")</f>
         <v/>
       </c>
       <c r="Q130" s="41" t="str">
-        <f>IF(Sample_information!I135&lt;&gt;0,Sample_information!I135,"")</f>
+        <f>IF(Sample_information!I131&lt;&gt;0,Sample_information!I131,"")</f>
         <v/>
       </c>
     </row>
@@ -7887,22 +7833,22 @@
       <c r="H131" s="23"/>
       <c r="I131" s="23"/>
       <c r="J131" s="23" t="str">
-        <f>IF(Sample_information!M136&lt;&gt;0,Sample_information!M136,"")</f>
+        <f>IF(Sample_information!M132&lt;&gt;0,Sample_information!M132,"")</f>
         <v/>
       </c>
       <c r="L131" s="23"/>
       <c r="M131" s="41" t="str">
-        <f>IF(Sample_information!A135&lt;&gt;0,IFERROR(IF(M130&lt;&gt;0,("C"&amp;TEXT(RIGHT(M130,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A131&lt;&gt;0,IFERROR(IF(M130&lt;&gt;0,("C"&amp;TEXT(RIGHT(M130,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N131" s="41"/>
       <c r="O131" s="41"/>
       <c r="P131" s="41" t="str">
-        <f>IF(Sample_information!H136&lt;&gt;0,Sample_information!H136,"")</f>
+        <f>IF(Sample_information!H132&lt;&gt;0,Sample_information!H132,"")</f>
         <v/>
       </c>
       <c r="Q131" s="41" t="str">
-        <f>IF(Sample_information!I136&lt;&gt;0,Sample_information!I136,"")</f>
+        <f>IF(Sample_information!I132&lt;&gt;0,Sample_information!I132,"")</f>
         <v/>
       </c>
     </row>
@@ -7918,22 +7864,22 @@
       <c r="H132" s="23"/>
       <c r="I132" s="23"/>
       <c r="J132" s="23" t="str">
-        <f>IF(Sample_information!M137&lt;&gt;0,Sample_information!M137,"")</f>
+        <f>IF(Sample_information!M133&lt;&gt;0,Sample_information!M133,"")</f>
         <v/>
       </c>
       <c r="L132" s="23"/>
       <c r="M132" s="41" t="str">
-        <f>IF(Sample_information!A136&lt;&gt;0,IFERROR(IF(M131&lt;&gt;0,("C"&amp;TEXT(RIGHT(M131,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A132&lt;&gt;0,IFERROR(IF(M131&lt;&gt;0,("C"&amp;TEXT(RIGHT(M131,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N132" s="41"/>
       <c r="O132" s="41"/>
       <c r="P132" s="41" t="str">
-        <f>IF(Sample_information!H137&lt;&gt;0,Sample_information!H137,"")</f>
+        <f>IF(Sample_information!H133&lt;&gt;0,Sample_information!H133,"")</f>
         <v/>
       </c>
       <c r="Q132" s="41" t="str">
-        <f>IF(Sample_information!I137&lt;&gt;0,Sample_information!I137,"")</f>
+        <f>IF(Sample_information!I133&lt;&gt;0,Sample_information!I133,"")</f>
         <v/>
       </c>
     </row>
@@ -7949,22 +7895,22 @@
       <c r="H133" s="23"/>
       <c r="I133" s="23"/>
       <c r="J133" s="23" t="str">
-        <f>IF(Sample_information!M138&lt;&gt;0,Sample_information!M138,"")</f>
+        <f>IF(Sample_information!M134&lt;&gt;0,Sample_information!M134,"")</f>
         <v/>
       </c>
       <c r="L133" s="23"/>
       <c r="M133" s="41" t="str">
-        <f>IF(Sample_information!A137&lt;&gt;0,IFERROR(IF(M132&lt;&gt;0,("C"&amp;TEXT(RIGHT(M132,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A133&lt;&gt;0,IFERROR(IF(M132&lt;&gt;0,("C"&amp;TEXT(RIGHT(M132,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N133" s="41"/>
       <c r="O133" s="41"/>
       <c r="P133" s="41" t="str">
-        <f>IF(Sample_information!H138&lt;&gt;0,Sample_information!H138,"")</f>
+        <f>IF(Sample_information!H134&lt;&gt;0,Sample_information!H134,"")</f>
         <v/>
       </c>
       <c r="Q133" s="41" t="str">
-        <f>IF(Sample_information!I138&lt;&gt;0,Sample_information!I138,"")</f>
+        <f>IF(Sample_information!I134&lt;&gt;0,Sample_information!I134,"")</f>
         <v/>
       </c>
     </row>
@@ -7980,22 +7926,22 @@
       <c r="H134" s="23"/>
       <c r="I134" s="23"/>
       <c r="J134" s="23" t="str">
-        <f>IF(Sample_information!M139&lt;&gt;0,Sample_information!M139,"")</f>
+        <f>IF(Sample_information!M135&lt;&gt;0,Sample_information!M135,"")</f>
         <v/>
       </c>
       <c r="L134" s="23"/>
       <c r="M134" s="41" t="str">
-        <f>IF(Sample_information!A138&lt;&gt;0,IFERROR(IF(M133&lt;&gt;0,("C"&amp;TEXT(RIGHT(M133,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A134&lt;&gt;0,IFERROR(IF(M133&lt;&gt;0,("C"&amp;TEXT(RIGHT(M133,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N134" s="41"/>
       <c r="O134" s="41"/>
       <c r="P134" s="41" t="str">
-        <f>IF(Sample_information!H139&lt;&gt;0,Sample_information!H139,"")</f>
+        <f>IF(Sample_information!H135&lt;&gt;0,Sample_information!H135,"")</f>
         <v/>
       </c>
       <c r="Q134" s="41" t="str">
-        <f>IF(Sample_information!I139&lt;&gt;0,Sample_information!I139,"")</f>
+        <f>IF(Sample_information!I135&lt;&gt;0,Sample_information!I135,"")</f>
         <v/>
       </c>
     </row>
@@ -8011,22 +7957,22 @@
       <c r="H135" s="23"/>
       <c r="I135" s="23"/>
       <c r="J135" s="23" t="str">
-        <f>IF(Sample_information!M140&lt;&gt;0,Sample_information!M140,"")</f>
+        <f>IF(Sample_information!M136&lt;&gt;0,Sample_information!M136,"")</f>
         <v/>
       </c>
       <c r="L135" s="23"/>
       <c r="M135" s="41" t="str">
-        <f>IF(Sample_information!A139&lt;&gt;0,IFERROR(IF(M134&lt;&gt;0,("C"&amp;TEXT(RIGHT(M134,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A135&lt;&gt;0,IFERROR(IF(M134&lt;&gt;0,("C"&amp;TEXT(RIGHT(M134,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N135" s="41"/>
       <c r="O135" s="41"/>
       <c r="P135" s="41" t="str">
-        <f>IF(Sample_information!H140&lt;&gt;0,Sample_information!H140,"")</f>
+        <f>IF(Sample_information!H136&lt;&gt;0,Sample_information!H136,"")</f>
         <v/>
       </c>
       <c r="Q135" s="41" t="str">
-        <f>IF(Sample_information!I140&lt;&gt;0,Sample_information!I140,"")</f>
+        <f>IF(Sample_information!I136&lt;&gt;0,Sample_information!I136,"")</f>
         <v/>
       </c>
     </row>
@@ -8042,22 +7988,22 @@
       <c r="H136" s="23"/>
       <c r="I136" s="23"/>
       <c r="J136" s="23" t="str">
-        <f>IF(Sample_information!M141&lt;&gt;0,Sample_information!M141,"")</f>
+        <f>IF(Sample_information!M137&lt;&gt;0,Sample_information!M137,"")</f>
         <v/>
       </c>
       <c r="L136" s="23"/>
       <c r="M136" s="41" t="str">
-        <f>IF(Sample_information!A140&lt;&gt;0,IFERROR(IF(M135&lt;&gt;0,("C"&amp;TEXT(RIGHT(M135,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A136&lt;&gt;0,IFERROR(IF(M135&lt;&gt;0,("C"&amp;TEXT(RIGHT(M135,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N136" s="41"/>
       <c r="O136" s="41"/>
       <c r="P136" s="41" t="str">
-        <f>IF(Sample_information!H141&lt;&gt;0,Sample_information!H141,"")</f>
+        <f>IF(Sample_information!H137&lt;&gt;0,Sample_information!H137,"")</f>
         <v/>
       </c>
       <c r="Q136" s="41" t="str">
-        <f>IF(Sample_information!I141&lt;&gt;0,Sample_information!I141,"")</f>
+        <f>IF(Sample_information!I137&lt;&gt;0,Sample_information!I137,"")</f>
         <v/>
       </c>
     </row>
@@ -8073,22 +8019,22 @@
       <c r="H137" s="23"/>
       <c r="I137" s="23"/>
       <c r="J137" s="23" t="str">
-        <f>IF(Sample_information!M142&lt;&gt;0,Sample_information!M142,"")</f>
+        <f>IF(Sample_information!M138&lt;&gt;0,Sample_information!M138,"")</f>
         <v/>
       </c>
       <c r="L137" s="23"/>
       <c r="M137" s="41" t="str">
-        <f>IF(Sample_information!A141&lt;&gt;0,IFERROR(IF(M136&lt;&gt;0,("C"&amp;TEXT(RIGHT(M136,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A137&lt;&gt;0,IFERROR(IF(M136&lt;&gt;0,("C"&amp;TEXT(RIGHT(M136,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N137" s="41"/>
       <c r="O137" s="41"/>
       <c r="P137" s="41" t="str">
-        <f>IF(Sample_information!H142&lt;&gt;0,Sample_information!H142,"")</f>
+        <f>IF(Sample_information!H138&lt;&gt;0,Sample_information!H138,"")</f>
         <v/>
       </c>
       <c r="Q137" s="41" t="str">
-        <f>IF(Sample_information!I142&lt;&gt;0,Sample_information!I142,"")</f>
+        <f>IF(Sample_information!I138&lt;&gt;0,Sample_information!I138,"")</f>
         <v/>
       </c>
     </row>
@@ -8104,22 +8050,22 @@
       <c r="H138" s="23"/>
       <c r="I138" s="23"/>
       <c r="J138" s="23" t="str">
-        <f>IF(Sample_information!M143&lt;&gt;0,Sample_information!M143,"")</f>
+        <f>IF(Sample_information!M139&lt;&gt;0,Sample_information!M139,"")</f>
         <v/>
       </c>
       <c r="L138" s="23"/>
       <c r="M138" s="41" t="str">
-        <f>IF(Sample_information!A142&lt;&gt;0,IFERROR(IF(M137&lt;&gt;0,("C"&amp;TEXT(RIGHT(M137,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A138&lt;&gt;0,IFERROR(IF(M137&lt;&gt;0,("C"&amp;TEXT(RIGHT(M137,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N138" s="41"/>
       <c r="O138" s="41"/>
       <c r="P138" s="41" t="str">
-        <f>IF(Sample_information!H143&lt;&gt;0,Sample_information!H143,"")</f>
+        <f>IF(Sample_information!H139&lt;&gt;0,Sample_information!H139,"")</f>
         <v/>
       </c>
       <c r="Q138" s="41" t="str">
-        <f>IF(Sample_information!I143&lt;&gt;0,Sample_information!I143,"")</f>
+        <f>IF(Sample_information!I139&lt;&gt;0,Sample_information!I139,"")</f>
         <v/>
       </c>
     </row>
@@ -8135,22 +8081,22 @@
       <c r="H139" s="23"/>
       <c r="I139" s="23"/>
       <c r="J139" s="23" t="str">
-        <f>IF(Sample_information!M144&lt;&gt;0,Sample_information!M144,"")</f>
+        <f>IF(Sample_information!M140&lt;&gt;0,Sample_information!M140,"")</f>
         <v/>
       </c>
       <c r="L139" s="23"/>
       <c r="M139" s="41" t="str">
-        <f>IF(Sample_information!A143&lt;&gt;0,IFERROR(IF(M138&lt;&gt;0,("C"&amp;TEXT(RIGHT(M138,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A139&lt;&gt;0,IFERROR(IF(M138&lt;&gt;0,("C"&amp;TEXT(RIGHT(M138,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N139" s="41"/>
       <c r="O139" s="41"/>
       <c r="P139" s="41" t="str">
-        <f>IF(Sample_information!H144&lt;&gt;0,Sample_information!H144,"")</f>
+        <f>IF(Sample_information!H140&lt;&gt;0,Sample_information!H140,"")</f>
         <v/>
       </c>
       <c r="Q139" s="41" t="str">
-        <f>IF(Sample_information!I144&lt;&gt;0,Sample_information!I144,"")</f>
+        <f>IF(Sample_information!I140&lt;&gt;0,Sample_information!I140,"")</f>
         <v/>
       </c>
     </row>
@@ -8166,22 +8112,22 @@
       <c r="H140" s="23"/>
       <c r="I140" s="23"/>
       <c r="J140" s="23" t="str">
-        <f>IF(Sample_information!M145&lt;&gt;0,Sample_information!M145,"")</f>
+        <f>IF(Sample_information!M141&lt;&gt;0,Sample_information!M141,"")</f>
         <v/>
       </c>
       <c r="L140" s="23"/>
       <c r="M140" s="41" t="str">
-        <f>IF(Sample_information!A144&lt;&gt;0,IFERROR(IF(M139&lt;&gt;0,("C"&amp;TEXT(RIGHT(M139,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A140&lt;&gt;0,IFERROR(IF(M139&lt;&gt;0,("C"&amp;TEXT(RIGHT(M139,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N140" s="41"/>
       <c r="O140" s="41"/>
       <c r="P140" s="41" t="str">
-        <f>IF(Sample_information!H145&lt;&gt;0,Sample_information!H145,"")</f>
+        <f>IF(Sample_information!H141&lt;&gt;0,Sample_information!H141,"")</f>
         <v/>
       </c>
       <c r="Q140" s="41" t="str">
-        <f>IF(Sample_information!I145&lt;&gt;0,Sample_information!I145,"")</f>
+        <f>IF(Sample_information!I141&lt;&gt;0,Sample_information!I141,"")</f>
         <v/>
       </c>
     </row>
@@ -8197,22 +8143,22 @@
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
       <c r="J141" s="23" t="str">
-        <f>IF(Sample_information!M146&lt;&gt;0,Sample_information!M146,"")</f>
+        <f>IF(Sample_information!M142&lt;&gt;0,Sample_information!M142,"")</f>
         <v/>
       </c>
       <c r="L141" s="23"/>
       <c r="M141" s="41" t="str">
-        <f>IF(Sample_information!A145&lt;&gt;0,IFERROR(IF(M140&lt;&gt;0,("C"&amp;TEXT(RIGHT(M140,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A141&lt;&gt;0,IFERROR(IF(M140&lt;&gt;0,("C"&amp;TEXT(RIGHT(M140,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N141" s="41"/>
       <c r="O141" s="41"/>
       <c r="P141" s="41" t="str">
-        <f>IF(Sample_information!H146&lt;&gt;0,Sample_information!H146,"")</f>
+        <f>IF(Sample_information!H142&lt;&gt;0,Sample_information!H142,"")</f>
         <v/>
       </c>
       <c r="Q141" s="41" t="str">
-        <f>IF(Sample_information!I146&lt;&gt;0,Sample_information!I146,"")</f>
+        <f>IF(Sample_information!I142&lt;&gt;0,Sample_information!I142,"")</f>
         <v/>
       </c>
     </row>
@@ -8228,22 +8174,22 @@
       <c r="H142" s="23"/>
       <c r="I142" s="23"/>
       <c r="J142" s="23" t="str">
-        <f>IF(Sample_information!M147&lt;&gt;0,Sample_information!M147,"")</f>
+        <f>IF(Sample_information!M143&lt;&gt;0,Sample_information!M143,"")</f>
         <v/>
       </c>
       <c r="L142" s="23"/>
       <c r="M142" s="41" t="str">
-        <f>IF(Sample_information!A146&lt;&gt;0,IFERROR(IF(M141&lt;&gt;0,("C"&amp;TEXT(RIGHT(M141,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A142&lt;&gt;0,IFERROR(IF(M141&lt;&gt;0,("C"&amp;TEXT(RIGHT(M141,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N142" s="41"/>
       <c r="O142" s="41"/>
       <c r="P142" s="41" t="str">
-        <f>IF(Sample_information!H147&lt;&gt;0,Sample_information!H147,"")</f>
+        <f>IF(Sample_information!H143&lt;&gt;0,Sample_information!H143,"")</f>
         <v/>
       </c>
       <c r="Q142" s="41" t="str">
-        <f>IF(Sample_information!I147&lt;&gt;0,Sample_information!I147,"")</f>
+        <f>IF(Sample_information!I143&lt;&gt;0,Sample_information!I143,"")</f>
         <v/>
       </c>
     </row>
@@ -8259,22 +8205,22 @@
       <c r="H143" s="23"/>
       <c r="I143" s="23"/>
       <c r="J143" s="23" t="str">
-        <f>IF(Sample_information!M148&lt;&gt;0,Sample_information!M148,"")</f>
+        <f>IF(Sample_information!M144&lt;&gt;0,Sample_information!M144,"")</f>
         <v/>
       </c>
       <c r="L143" s="23"/>
       <c r="M143" s="41" t="str">
-        <f>IF(Sample_information!A147&lt;&gt;0,IFERROR(IF(M142&lt;&gt;0,("C"&amp;TEXT(RIGHT(M142,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A143&lt;&gt;0,IFERROR(IF(M142&lt;&gt;0,("C"&amp;TEXT(RIGHT(M142,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N143" s="41"/>
       <c r="O143" s="41"/>
       <c r="P143" s="41" t="str">
-        <f>IF(Sample_information!H148&lt;&gt;0,Sample_information!H148,"")</f>
+        <f>IF(Sample_information!H144&lt;&gt;0,Sample_information!H144,"")</f>
         <v/>
       </c>
       <c r="Q143" s="41" t="str">
-        <f>IF(Sample_information!I148&lt;&gt;0,Sample_information!I148,"")</f>
+        <f>IF(Sample_information!I144&lt;&gt;0,Sample_information!I144,"")</f>
         <v/>
       </c>
     </row>
@@ -8290,22 +8236,22 @@
       <c r="H144" s="23"/>
       <c r="I144" s="23"/>
       <c r="J144" s="23" t="str">
-        <f>IF(Sample_information!M149&lt;&gt;0,Sample_information!M149,"")</f>
+        <f>IF(Sample_information!M145&lt;&gt;0,Sample_information!M145,"")</f>
         <v/>
       </c>
       <c r="L144" s="23"/>
       <c r="M144" s="41" t="str">
-        <f>IF(Sample_information!A148&lt;&gt;0,IFERROR(IF(M143&lt;&gt;0,("C"&amp;TEXT(RIGHT(M143,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A144&lt;&gt;0,IFERROR(IF(M143&lt;&gt;0,("C"&amp;TEXT(RIGHT(M143,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N144" s="41"/>
       <c r="O144" s="41"/>
       <c r="P144" s="41" t="str">
-        <f>IF(Sample_information!H149&lt;&gt;0,Sample_information!H149,"")</f>
+        <f>IF(Sample_information!H145&lt;&gt;0,Sample_information!H145,"")</f>
         <v/>
       </c>
       <c r="Q144" s="41" t="str">
-        <f>IF(Sample_information!I149&lt;&gt;0,Sample_information!I149,"")</f>
+        <f>IF(Sample_information!I145&lt;&gt;0,Sample_information!I145,"")</f>
         <v/>
       </c>
     </row>
@@ -8321,22 +8267,22 @@
       <c r="H145" s="23"/>
       <c r="I145" s="23"/>
       <c r="J145" s="23" t="str">
-        <f>IF(Sample_information!M150&lt;&gt;0,Sample_information!M150,"")</f>
+        <f>IF(Sample_information!M146&lt;&gt;0,Sample_information!M146,"")</f>
         <v/>
       </c>
       <c r="L145" s="23"/>
       <c r="M145" s="41" t="str">
-        <f>IF(Sample_information!A149&lt;&gt;0,IFERROR(IF(M144&lt;&gt;0,("C"&amp;TEXT(RIGHT(M144,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A145&lt;&gt;0,IFERROR(IF(M144&lt;&gt;0,("C"&amp;TEXT(RIGHT(M144,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N145" s="41"/>
       <c r="O145" s="41"/>
       <c r="P145" s="41" t="str">
-        <f>IF(Sample_information!H150&lt;&gt;0,Sample_information!H150,"")</f>
+        <f>IF(Sample_information!H146&lt;&gt;0,Sample_information!H146,"")</f>
         <v/>
       </c>
       <c r="Q145" s="41" t="str">
-        <f>IF(Sample_information!I150&lt;&gt;0,Sample_information!I150,"")</f>
+        <f>IF(Sample_information!I146&lt;&gt;0,Sample_information!I146,"")</f>
         <v/>
       </c>
     </row>
@@ -8352,22 +8298,22 @@
       <c r="H146" s="23"/>
       <c r="I146" s="23"/>
       <c r="J146" s="23" t="str">
-        <f>IF(Sample_information!M151&lt;&gt;0,Sample_information!M151,"")</f>
+        <f>IF(Sample_information!M147&lt;&gt;0,Sample_information!M147,"")</f>
         <v/>
       </c>
       <c r="L146" s="23"/>
       <c r="M146" s="41" t="str">
-        <f>IF(Sample_information!A150&lt;&gt;0,IFERROR(IF(M145&lt;&gt;0,("C"&amp;TEXT(RIGHT(M145,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A146&lt;&gt;0,IFERROR(IF(M145&lt;&gt;0,("C"&amp;TEXT(RIGHT(M145,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N146" s="41"/>
       <c r="O146" s="41"/>
       <c r="P146" s="41" t="str">
-        <f>IF(Sample_information!H151&lt;&gt;0,Sample_information!H151,"")</f>
+        <f>IF(Sample_information!H147&lt;&gt;0,Sample_information!H147,"")</f>
         <v/>
       </c>
       <c r="Q146" s="41" t="str">
-        <f>IF(Sample_information!I151&lt;&gt;0,Sample_information!I151,"")</f>
+        <f>IF(Sample_information!I147&lt;&gt;0,Sample_information!I147,"")</f>
         <v/>
       </c>
     </row>
@@ -8383,22 +8329,22 @@
       <c r="H147" s="23"/>
       <c r="I147" s="23"/>
       <c r="J147" s="23" t="str">
-        <f>IF(Sample_information!M152&lt;&gt;0,Sample_information!M152,"")</f>
+        <f>IF(Sample_information!M148&lt;&gt;0,Sample_information!M148,"")</f>
         <v/>
       </c>
       <c r="L147" s="23"/>
       <c r="M147" s="41" t="str">
-        <f>IF(Sample_information!A151&lt;&gt;0,IFERROR(IF(M146&lt;&gt;0,("C"&amp;TEXT(RIGHT(M146,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A147&lt;&gt;0,IFERROR(IF(M146&lt;&gt;0,("C"&amp;TEXT(RIGHT(M146,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N147" s="41"/>
       <c r="O147" s="41"/>
       <c r="P147" s="41" t="str">
-        <f>IF(Sample_information!H152&lt;&gt;0,Sample_information!H152,"")</f>
+        <f>IF(Sample_information!H148&lt;&gt;0,Sample_information!H148,"")</f>
         <v/>
       </c>
       <c r="Q147" s="41" t="str">
-        <f>IF(Sample_information!I152&lt;&gt;0,Sample_information!I152,"")</f>
+        <f>IF(Sample_information!I148&lt;&gt;0,Sample_information!I148,"")</f>
         <v/>
       </c>
     </row>
@@ -8414,22 +8360,22 @@
       <c r="H148" s="23"/>
       <c r="I148" s="23"/>
       <c r="J148" s="23" t="str">
-        <f>IF(Sample_information!M153&lt;&gt;0,Sample_information!M153,"")</f>
+        <f>IF(Sample_information!M149&lt;&gt;0,Sample_information!M149,"")</f>
         <v/>
       </c>
       <c r="L148" s="23"/>
       <c r="M148" s="41" t="str">
-        <f>IF(Sample_information!A152&lt;&gt;0,IFERROR(IF(M147&lt;&gt;0,("C"&amp;TEXT(RIGHT(M147,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A148&lt;&gt;0,IFERROR(IF(M147&lt;&gt;0,("C"&amp;TEXT(RIGHT(M147,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N148" s="41"/>
       <c r="O148" s="41"/>
       <c r="P148" s="41" t="str">
-        <f>IF(Sample_information!H153&lt;&gt;0,Sample_information!H153,"")</f>
+        <f>IF(Sample_information!H149&lt;&gt;0,Sample_information!H149,"")</f>
         <v/>
       </c>
       <c r="Q148" s="41" t="str">
-        <f>IF(Sample_information!I153&lt;&gt;0,Sample_information!I153,"")</f>
+        <f>IF(Sample_information!I149&lt;&gt;0,Sample_information!I149,"")</f>
         <v/>
       </c>
     </row>
@@ -8445,22 +8391,22 @@
       <c r="H149" s="23"/>
       <c r="I149" s="23"/>
       <c r="J149" s="23" t="str">
-        <f>IF(Sample_information!M154&lt;&gt;0,Sample_information!M154,"")</f>
+        <f>IF(Sample_information!M150&lt;&gt;0,Sample_information!M150,"")</f>
         <v/>
       </c>
       <c r="L149" s="23"/>
       <c r="M149" s="41" t="str">
-        <f>IF(Sample_information!A153&lt;&gt;0,IFERROR(IF(M148&lt;&gt;0,("C"&amp;TEXT(RIGHT(M148,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A149&lt;&gt;0,IFERROR(IF(M148&lt;&gt;0,("C"&amp;TEXT(RIGHT(M148,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N149" s="41"/>
       <c r="O149" s="41"/>
       <c r="P149" s="41" t="str">
-        <f>IF(Sample_information!H154&lt;&gt;0,Sample_information!H154,"")</f>
+        <f>IF(Sample_information!H150&lt;&gt;0,Sample_information!H150,"")</f>
         <v/>
       </c>
       <c r="Q149" s="41" t="str">
-        <f>IF(Sample_information!I154&lt;&gt;0,Sample_information!I154,"")</f>
+        <f>IF(Sample_information!I150&lt;&gt;0,Sample_information!I150,"")</f>
         <v/>
       </c>
     </row>
@@ -8476,22 +8422,22 @@
       <c r="H150" s="23"/>
       <c r="I150" s="23"/>
       <c r="J150" s="23" t="str">
-        <f>IF(Sample_information!M155&lt;&gt;0,Sample_information!M155,"")</f>
+        <f>IF(Sample_information!M151&lt;&gt;0,Sample_information!M151,"")</f>
         <v/>
       </c>
       <c r="L150" s="23"/>
       <c r="M150" s="41" t="str">
-        <f>IF(Sample_information!A154&lt;&gt;0,IFERROR(IF(M149&lt;&gt;0,("C"&amp;TEXT(RIGHT(M149,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A150&lt;&gt;0,IFERROR(IF(M149&lt;&gt;0,("C"&amp;TEXT(RIGHT(M149,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N150" s="41"/>
       <c r="O150" s="41"/>
       <c r="P150" s="41" t="str">
-        <f>IF(Sample_information!H155&lt;&gt;0,Sample_information!H155,"")</f>
+        <f>IF(Sample_information!H151&lt;&gt;0,Sample_information!H151,"")</f>
         <v/>
       </c>
       <c r="Q150" s="41" t="str">
-        <f>IF(Sample_information!I155&lt;&gt;0,Sample_information!I155,"")</f>
+        <f>IF(Sample_information!I151&lt;&gt;0,Sample_information!I151,"")</f>
         <v/>
       </c>
     </row>
@@ -8507,22 +8453,22 @@
       <c r="H151" s="23"/>
       <c r="I151" s="23"/>
       <c r="J151" s="23" t="str">
-        <f>IF(Sample_information!M156&lt;&gt;0,Sample_information!M156,"")</f>
+        <f>IF(Sample_information!M152&lt;&gt;0,Sample_information!M152,"")</f>
         <v/>
       </c>
       <c r="L151" s="23"/>
       <c r="M151" s="41" t="str">
-        <f>IF(Sample_information!A155&lt;&gt;0,IFERROR(IF(M150&lt;&gt;0,("C"&amp;TEXT(RIGHT(M150,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A151&lt;&gt;0,IFERROR(IF(M150&lt;&gt;0,("C"&amp;TEXT(RIGHT(M150,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N151" s="41"/>
       <c r="O151" s="41"/>
       <c r="P151" s="41" t="str">
-        <f>IF(Sample_information!H156&lt;&gt;0,Sample_information!H156,"")</f>
+        <f>IF(Sample_information!H152&lt;&gt;0,Sample_information!H152,"")</f>
         <v/>
       </c>
       <c r="Q151" s="41" t="str">
-        <f>IF(Sample_information!I156&lt;&gt;0,Sample_information!I156,"")</f>
+        <f>IF(Sample_information!I152&lt;&gt;0,Sample_information!I152,"")</f>
         <v/>
       </c>
     </row>
@@ -8538,22 +8484,22 @@
       <c r="H152" s="23"/>
       <c r="I152" s="23"/>
       <c r="J152" s="23" t="str">
-        <f>IF(Sample_information!M157&lt;&gt;0,Sample_information!M157,"")</f>
+        <f>IF(Sample_information!M153&lt;&gt;0,Sample_information!M153,"")</f>
         <v/>
       </c>
       <c r="L152" s="23"/>
       <c r="M152" s="41" t="str">
-        <f>IF(Sample_information!A156&lt;&gt;0,IFERROR(IF(M151&lt;&gt;0,("C"&amp;TEXT(RIGHT(M151,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A152&lt;&gt;0,IFERROR(IF(M151&lt;&gt;0,("C"&amp;TEXT(RIGHT(M151,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N152" s="41"/>
       <c r="O152" s="41"/>
       <c r="P152" s="41" t="str">
-        <f>IF(Sample_information!H157&lt;&gt;0,Sample_information!H157,"")</f>
+        <f>IF(Sample_information!H153&lt;&gt;0,Sample_information!H153,"")</f>
         <v/>
       </c>
       <c r="Q152" s="41" t="str">
-        <f>IF(Sample_information!I157&lt;&gt;0,Sample_information!I157,"")</f>
+        <f>IF(Sample_information!I153&lt;&gt;0,Sample_information!I153,"")</f>
         <v/>
       </c>
     </row>
@@ -8569,22 +8515,22 @@
       <c r="H153" s="23"/>
       <c r="I153" s="23"/>
       <c r="J153" s="23" t="str">
-        <f>IF(Sample_information!M158&lt;&gt;0,Sample_information!M158,"")</f>
+        <f>IF(Sample_information!M154&lt;&gt;0,Sample_information!M154,"")</f>
         <v/>
       </c>
       <c r="L153" s="23"/>
       <c r="M153" s="41" t="str">
-        <f>IF(Sample_information!A157&lt;&gt;0,IFERROR(IF(M152&lt;&gt;0,("C"&amp;TEXT(RIGHT(M152,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A153&lt;&gt;0,IFERROR(IF(M152&lt;&gt;0,("C"&amp;TEXT(RIGHT(M152,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N153" s="41"/>
       <c r="O153" s="41"/>
       <c r="P153" s="41" t="str">
-        <f>IF(Sample_information!H158&lt;&gt;0,Sample_information!H158,"")</f>
+        <f>IF(Sample_information!H154&lt;&gt;0,Sample_information!H154,"")</f>
         <v/>
       </c>
       <c r="Q153" s="41" t="str">
-        <f>IF(Sample_information!I158&lt;&gt;0,Sample_information!I158,"")</f>
+        <f>IF(Sample_information!I154&lt;&gt;0,Sample_information!I154,"")</f>
         <v/>
       </c>
     </row>
@@ -8600,22 +8546,22 @@
       <c r="H154" s="23"/>
       <c r="I154" s="23"/>
       <c r="J154" s="23" t="str">
-        <f>IF(Sample_information!M159&lt;&gt;0,Sample_information!M159,"")</f>
+        <f>IF(Sample_information!M155&lt;&gt;0,Sample_information!M155,"")</f>
         <v/>
       </c>
       <c r="L154" s="23"/>
       <c r="M154" s="41" t="str">
-        <f>IF(Sample_information!A158&lt;&gt;0,IFERROR(IF(M153&lt;&gt;0,("C"&amp;TEXT(RIGHT(M153,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A154&lt;&gt;0,IFERROR(IF(M153&lt;&gt;0,("C"&amp;TEXT(RIGHT(M153,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N154" s="41"/>
       <c r="O154" s="41"/>
       <c r="P154" s="41" t="str">
-        <f>IF(Sample_information!H159&lt;&gt;0,Sample_information!H159,"")</f>
+        <f>IF(Sample_information!H155&lt;&gt;0,Sample_information!H155,"")</f>
         <v/>
       </c>
       <c r="Q154" s="41" t="str">
-        <f>IF(Sample_information!I159&lt;&gt;0,Sample_information!I159,"")</f>
+        <f>IF(Sample_information!I155&lt;&gt;0,Sample_information!I155,"")</f>
         <v/>
       </c>
     </row>
@@ -8631,22 +8577,22 @@
       <c r="H155" s="23"/>
       <c r="I155" s="23"/>
       <c r="J155" s="23" t="str">
-        <f>IF(Sample_information!M160&lt;&gt;0,Sample_information!M160,"")</f>
+        <f>IF(Sample_information!M156&lt;&gt;0,Sample_information!M156,"")</f>
         <v/>
       </c>
       <c r="L155" s="23"/>
       <c r="M155" s="41" t="str">
-        <f>IF(Sample_information!A159&lt;&gt;0,IFERROR(IF(M154&lt;&gt;0,("C"&amp;TEXT(RIGHT(M154,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A155&lt;&gt;0,IFERROR(IF(M154&lt;&gt;0,("C"&amp;TEXT(RIGHT(M154,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N155" s="41"/>
       <c r="O155" s="41"/>
       <c r="P155" s="41" t="str">
-        <f>IF(Sample_information!H160&lt;&gt;0,Sample_information!H160,"")</f>
+        <f>IF(Sample_information!H156&lt;&gt;0,Sample_information!H156,"")</f>
         <v/>
       </c>
       <c r="Q155" s="41" t="str">
-        <f>IF(Sample_information!I160&lt;&gt;0,Sample_information!I160,"")</f>
+        <f>IF(Sample_information!I156&lt;&gt;0,Sample_information!I156,"")</f>
         <v/>
       </c>
     </row>
@@ -8662,22 +8608,22 @@
       <c r="H156" s="23"/>
       <c r="I156" s="23"/>
       <c r="J156" s="23" t="str">
-        <f>IF(Sample_information!M161&lt;&gt;0,Sample_information!M161,"")</f>
+        <f>IF(Sample_information!M157&lt;&gt;0,Sample_information!M157,"")</f>
         <v/>
       </c>
       <c r="L156" s="23"/>
       <c r="M156" s="41" t="str">
-        <f>IF(Sample_information!A160&lt;&gt;0,IFERROR(IF(M155&lt;&gt;0,("C"&amp;TEXT(RIGHT(M155,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A156&lt;&gt;0,IFERROR(IF(M155&lt;&gt;0,("C"&amp;TEXT(RIGHT(M155,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N156" s="41"/>
       <c r="O156" s="41"/>
       <c r="P156" s="41" t="str">
-        <f>IF(Sample_information!H161&lt;&gt;0,Sample_information!H161,"")</f>
+        <f>IF(Sample_information!H157&lt;&gt;0,Sample_information!H157,"")</f>
         <v/>
       </c>
       <c r="Q156" s="41" t="str">
-        <f>IF(Sample_information!I161&lt;&gt;0,Sample_information!I161,"")</f>
+        <f>IF(Sample_information!I157&lt;&gt;0,Sample_information!I157,"")</f>
         <v/>
       </c>
     </row>
@@ -8693,22 +8639,22 @@
       <c r="H157" s="23"/>
       <c r="I157" s="23"/>
       <c r="J157" s="23" t="str">
-        <f>IF(Sample_information!M162&lt;&gt;0,Sample_information!M162,"")</f>
+        <f>IF(Sample_information!M158&lt;&gt;0,Sample_information!M158,"")</f>
         <v/>
       </c>
       <c r="L157" s="23"/>
       <c r="M157" s="41" t="str">
-        <f>IF(Sample_information!A161&lt;&gt;0,IFERROR(IF(M156&lt;&gt;0,("C"&amp;TEXT(RIGHT(M156,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A157&lt;&gt;0,IFERROR(IF(M156&lt;&gt;0,("C"&amp;TEXT(RIGHT(M156,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N157" s="41"/>
       <c r="O157" s="41"/>
       <c r="P157" s="41" t="str">
-        <f>IF(Sample_information!H162&lt;&gt;0,Sample_information!H162,"")</f>
+        <f>IF(Sample_information!H158&lt;&gt;0,Sample_information!H158,"")</f>
         <v/>
       </c>
       <c r="Q157" s="41" t="str">
-        <f>IF(Sample_information!I162&lt;&gt;0,Sample_information!I162,"")</f>
+        <f>IF(Sample_information!I158&lt;&gt;0,Sample_information!I158,"")</f>
         <v/>
       </c>
     </row>
@@ -8724,22 +8670,22 @@
       <c r="H158" s="23"/>
       <c r="I158" s="23"/>
       <c r="J158" s="23" t="str">
-        <f>IF(Sample_information!M163&lt;&gt;0,Sample_information!M163,"")</f>
+        <f>IF(Sample_information!M159&lt;&gt;0,Sample_information!M159,"")</f>
         <v/>
       </c>
       <c r="L158" s="23"/>
       <c r="M158" s="41" t="str">
-        <f>IF(Sample_information!A162&lt;&gt;0,IFERROR(IF(M157&lt;&gt;0,("C"&amp;TEXT(RIGHT(M157,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A158&lt;&gt;0,IFERROR(IF(M157&lt;&gt;0,("C"&amp;TEXT(RIGHT(M157,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N158" s="41"/>
       <c r="O158" s="41"/>
       <c r="P158" s="41" t="str">
-        <f>IF(Sample_information!H163&lt;&gt;0,Sample_information!H163,"")</f>
+        <f>IF(Sample_information!H159&lt;&gt;0,Sample_information!H159,"")</f>
         <v/>
       </c>
       <c r="Q158" s="41" t="str">
-        <f>IF(Sample_information!I163&lt;&gt;0,Sample_information!I163,"")</f>
+        <f>IF(Sample_information!I159&lt;&gt;0,Sample_information!I159,"")</f>
         <v/>
       </c>
     </row>
@@ -8755,22 +8701,22 @@
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
       <c r="J159" s="23" t="str">
-        <f>IF(Sample_information!M164&lt;&gt;0,Sample_information!M164,"")</f>
+        <f>IF(Sample_information!M160&lt;&gt;0,Sample_information!M160,"")</f>
         <v/>
       </c>
       <c r="L159" s="23"/>
       <c r="M159" s="41" t="str">
-        <f>IF(Sample_information!A163&lt;&gt;0,IFERROR(IF(M158&lt;&gt;0,("C"&amp;TEXT(RIGHT(M158,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A159&lt;&gt;0,IFERROR(IF(M158&lt;&gt;0,("C"&amp;TEXT(RIGHT(M158,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N159" s="41"/>
       <c r="O159" s="41"/>
       <c r="P159" s="41" t="str">
-        <f>IF(Sample_information!H164&lt;&gt;0,Sample_information!H164,"")</f>
+        <f>IF(Sample_information!H160&lt;&gt;0,Sample_information!H160,"")</f>
         <v/>
       </c>
       <c r="Q159" s="41" t="str">
-        <f>IF(Sample_information!I164&lt;&gt;0,Sample_information!I164,"")</f>
+        <f>IF(Sample_information!I160&lt;&gt;0,Sample_information!I160,"")</f>
         <v/>
       </c>
     </row>
@@ -8786,22 +8732,22 @@
       <c r="H160" s="23"/>
       <c r="I160" s="23"/>
       <c r="J160" s="23" t="str">
-        <f>IF(Sample_information!M165&lt;&gt;0,Sample_information!M165,"")</f>
+        <f>IF(Sample_information!M161&lt;&gt;0,Sample_information!M161,"")</f>
         <v/>
       </c>
       <c r="L160" s="23"/>
       <c r="M160" s="41" t="str">
-        <f>IF(Sample_information!A164&lt;&gt;0,IFERROR(IF(M159&lt;&gt;0,("C"&amp;TEXT(RIGHT(M159,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A160&lt;&gt;0,IFERROR(IF(M159&lt;&gt;0,("C"&amp;TEXT(RIGHT(M159,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N160" s="41"/>
       <c r="O160" s="41"/>
       <c r="P160" s="41" t="str">
-        <f>IF(Sample_information!H165&lt;&gt;0,Sample_information!H165,"")</f>
+        <f>IF(Sample_information!H161&lt;&gt;0,Sample_information!H161,"")</f>
         <v/>
       </c>
       <c r="Q160" s="41" t="str">
-        <f>IF(Sample_information!I165&lt;&gt;0,Sample_information!I165,"")</f>
+        <f>IF(Sample_information!I161&lt;&gt;0,Sample_information!I161,"")</f>
         <v/>
       </c>
     </row>
@@ -8817,22 +8763,22 @@
       <c r="H161" s="23"/>
       <c r="I161" s="23"/>
       <c r="J161" s="23" t="str">
-        <f>IF(Sample_information!M166&lt;&gt;0,Sample_information!M166,"")</f>
+        <f>IF(Sample_information!M162&lt;&gt;0,Sample_information!M162,"")</f>
         <v/>
       </c>
       <c r="L161" s="23"/>
       <c r="M161" s="41" t="str">
-        <f>IF(Sample_information!A165&lt;&gt;0,IFERROR(IF(M160&lt;&gt;0,("C"&amp;TEXT(RIGHT(M160,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A161&lt;&gt;0,IFERROR(IF(M160&lt;&gt;0,("C"&amp;TEXT(RIGHT(M160,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N161" s="41"/>
       <c r="O161" s="41"/>
       <c r="P161" s="41" t="str">
-        <f>IF(Sample_information!H166&lt;&gt;0,Sample_information!H166,"")</f>
+        <f>IF(Sample_information!H162&lt;&gt;0,Sample_information!H162,"")</f>
         <v/>
       </c>
       <c r="Q161" s="41" t="str">
-        <f>IF(Sample_information!I166&lt;&gt;0,Sample_information!I166,"")</f>
+        <f>IF(Sample_information!I162&lt;&gt;0,Sample_information!I162,"")</f>
         <v/>
       </c>
     </row>
@@ -8848,22 +8794,22 @@
       <c r="H162" s="23"/>
       <c r="I162" s="23"/>
       <c r="J162" s="23" t="str">
-        <f>IF(Sample_information!M167&lt;&gt;0,Sample_information!M167,"")</f>
+        <f>IF(Sample_information!M163&lt;&gt;0,Sample_information!M163,"")</f>
         <v/>
       </c>
       <c r="L162" s="23"/>
       <c r="M162" s="41" t="str">
-        <f>IF(Sample_information!A166&lt;&gt;0,IFERROR(IF(M161&lt;&gt;0,("C"&amp;TEXT(RIGHT(M161,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A162&lt;&gt;0,IFERROR(IF(M161&lt;&gt;0,("C"&amp;TEXT(RIGHT(M161,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N162" s="41"/>
       <c r="O162" s="41"/>
       <c r="P162" s="41" t="str">
-        <f>IF(Sample_information!H167&lt;&gt;0,Sample_information!H167,"")</f>
+        <f>IF(Sample_information!H163&lt;&gt;0,Sample_information!H163,"")</f>
         <v/>
       </c>
       <c r="Q162" s="41" t="str">
-        <f>IF(Sample_information!I167&lt;&gt;0,Sample_information!I167,"")</f>
+        <f>IF(Sample_information!I163&lt;&gt;0,Sample_information!I163,"")</f>
         <v/>
       </c>
     </row>
@@ -8879,22 +8825,22 @@
       <c r="H163" s="23"/>
       <c r="I163" s="23"/>
       <c r="J163" s="23" t="str">
-        <f>IF(Sample_information!M168&lt;&gt;0,Sample_information!M168,"")</f>
+        <f>IF(Sample_information!M164&lt;&gt;0,Sample_information!M164,"")</f>
         <v/>
       </c>
       <c r="L163" s="23"/>
       <c r="M163" s="41" t="str">
-        <f>IF(Sample_information!A167&lt;&gt;0,IFERROR(IF(M162&lt;&gt;0,("C"&amp;TEXT(RIGHT(M162,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A163&lt;&gt;0,IFERROR(IF(M162&lt;&gt;0,("C"&amp;TEXT(RIGHT(M162,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N163" s="41"/>
       <c r="O163" s="41"/>
       <c r="P163" s="41" t="str">
-        <f>IF(Sample_information!H168&lt;&gt;0,Sample_information!H168,"")</f>
+        <f>IF(Sample_information!H164&lt;&gt;0,Sample_information!H164,"")</f>
         <v/>
       </c>
       <c r="Q163" s="41" t="str">
-        <f>IF(Sample_information!I168&lt;&gt;0,Sample_information!I168,"")</f>
+        <f>IF(Sample_information!I164&lt;&gt;0,Sample_information!I164,"")</f>
         <v/>
       </c>
     </row>
@@ -8910,22 +8856,22 @@
       <c r="H164" s="23"/>
       <c r="I164" s="23"/>
       <c r="J164" s="23" t="str">
-        <f>IF(Sample_information!M169&lt;&gt;0,Sample_information!M169,"")</f>
+        <f>IF(Sample_information!M165&lt;&gt;0,Sample_information!M165,"")</f>
         <v/>
       </c>
       <c r="L164" s="23"/>
       <c r="M164" s="41" t="str">
-        <f>IF(Sample_information!A168&lt;&gt;0,IFERROR(IF(M163&lt;&gt;0,("C"&amp;TEXT(RIGHT(M163,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A164&lt;&gt;0,IFERROR(IF(M163&lt;&gt;0,("C"&amp;TEXT(RIGHT(M163,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N164" s="41"/>
       <c r="O164" s="41"/>
       <c r="P164" s="41" t="str">
-        <f>IF(Sample_information!H169&lt;&gt;0,Sample_information!H169,"")</f>
+        <f>IF(Sample_information!H165&lt;&gt;0,Sample_information!H165,"")</f>
         <v/>
       </c>
       <c r="Q164" s="41" t="str">
-        <f>IF(Sample_information!I169&lt;&gt;0,Sample_information!I169,"")</f>
+        <f>IF(Sample_information!I165&lt;&gt;0,Sample_information!I165,"")</f>
         <v/>
       </c>
     </row>
@@ -8941,22 +8887,22 @@
       <c r="H165" s="23"/>
       <c r="I165" s="23"/>
       <c r="J165" s="23" t="str">
-        <f>IF(Sample_information!M170&lt;&gt;0,Sample_information!M170,"")</f>
+        <f>IF(Sample_information!M166&lt;&gt;0,Sample_information!M166,"")</f>
         <v/>
       </c>
       <c r="L165" s="23"/>
       <c r="M165" s="41" t="str">
-        <f>IF(Sample_information!A169&lt;&gt;0,IFERROR(IF(M164&lt;&gt;0,("C"&amp;TEXT(RIGHT(M164,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A165&lt;&gt;0,IFERROR(IF(M164&lt;&gt;0,("C"&amp;TEXT(RIGHT(M164,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N165" s="41"/>
       <c r="O165" s="41"/>
       <c r="P165" s="41" t="str">
-        <f>IF(Sample_information!H170&lt;&gt;0,Sample_information!H170,"")</f>
+        <f>IF(Sample_information!H166&lt;&gt;0,Sample_information!H166,"")</f>
         <v/>
       </c>
       <c r="Q165" s="41" t="str">
-        <f>IF(Sample_information!I170&lt;&gt;0,Sample_information!I170,"")</f>
+        <f>IF(Sample_information!I166&lt;&gt;0,Sample_information!I166,"")</f>
         <v/>
       </c>
     </row>
@@ -8972,22 +8918,22 @@
       <c r="H166" s="23"/>
       <c r="I166" s="23"/>
       <c r="J166" s="23" t="str">
-        <f>IF(Sample_information!M171&lt;&gt;0,Sample_information!M171,"")</f>
+        <f>IF(Sample_information!M167&lt;&gt;0,Sample_information!M167,"")</f>
         <v/>
       </c>
       <c r="L166" s="23"/>
       <c r="M166" s="41" t="str">
-        <f>IF(Sample_information!A170&lt;&gt;0,IFERROR(IF(M165&lt;&gt;0,("C"&amp;TEXT(RIGHT(M165,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A166&lt;&gt;0,IFERROR(IF(M165&lt;&gt;0,("C"&amp;TEXT(RIGHT(M165,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N166" s="41"/>
       <c r="O166" s="41"/>
       <c r="P166" s="41" t="str">
-        <f>IF(Sample_information!H171&lt;&gt;0,Sample_information!H171,"")</f>
+        <f>IF(Sample_information!H167&lt;&gt;0,Sample_information!H167,"")</f>
         <v/>
       </c>
       <c r="Q166" s="41" t="str">
-        <f>IF(Sample_information!I171&lt;&gt;0,Sample_information!I171,"")</f>
+        <f>IF(Sample_information!I167&lt;&gt;0,Sample_information!I167,"")</f>
         <v/>
       </c>
     </row>
@@ -9003,22 +8949,22 @@
       <c r="H167" s="23"/>
       <c r="I167" s="23"/>
       <c r="J167" s="23" t="str">
-        <f>IF(Sample_information!M172&lt;&gt;0,Sample_information!M172,"")</f>
+        <f>IF(Sample_information!M168&lt;&gt;0,Sample_information!M168,"")</f>
         <v/>
       </c>
       <c r="L167" s="23"/>
       <c r="M167" s="41" t="str">
-        <f>IF(Sample_information!A171&lt;&gt;0,IFERROR(IF(M166&lt;&gt;0,("C"&amp;TEXT(RIGHT(M166,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A167&lt;&gt;0,IFERROR(IF(M166&lt;&gt;0,("C"&amp;TEXT(RIGHT(M166,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N167" s="41"/>
       <c r="O167" s="41"/>
       <c r="P167" s="41" t="str">
-        <f>IF(Sample_information!H172&lt;&gt;0,Sample_information!H172,"")</f>
+        <f>IF(Sample_information!H168&lt;&gt;0,Sample_information!H168,"")</f>
         <v/>
       </c>
       <c r="Q167" s="41" t="str">
-        <f>IF(Sample_information!I172&lt;&gt;0,Sample_information!I172,"")</f>
+        <f>IF(Sample_information!I168&lt;&gt;0,Sample_information!I168,"")</f>
         <v/>
       </c>
     </row>
@@ -9034,22 +8980,22 @@
       <c r="H168" s="23"/>
       <c r="I168" s="23"/>
       <c r="J168" s="23" t="str">
-        <f>IF(Sample_information!M173&lt;&gt;0,Sample_information!M173,"")</f>
+        <f>IF(Sample_information!M169&lt;&gt;0,Sample_information!M169,"")</f>
         <v/>
       </c>
       <c r="L168" s="23"/>
       <c r="M168" s="41" t="str">
-        <f>IF(Sample_information!A172&lt;&gt;0,IFERROR(IF(M167&lt;&gt;0,("C"&amp;TEXT(RIGHT(M167,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A168&lt;&gt;0,IFERROR(IF(M167&lt;&gt;0,("C"&amp;TEXT(RIGHT(M167,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N168" s="41"/>
       <c r="O168" s="41"/>
       <c r="P168" s="41" t="str">
-        <f>IF(Sample_information!H173&lt;&gt;0,Sample_information!H173,"")</f>
+        <f>IF(Sample_information!H169&lt;&gt;0,Sample_information!H169,"")</f>
         <v/>
       </c>
       <c r="Q168" s="41" t="str">
-        <f>IF(Sample_information!I173&lt;&gt;0,Sample_information!I173,"")</f>
+        <f>IF(Sample_information!I169&lt;&gt;0,Sample_information!I169,"")</f>
         <v/>
       </c>
     </row>
@@ -9065,22 +9011,22 @@
       <c r="H169" s="23"/>
       <c r="I169" s="23"/>
       <c r="J169" s="23" t="str">
-        <f>IF(Sample_information!M174&lt;&gt;0,Sample_information!M174,"")</f>
+        <f>IF(Sample_information!M170&lt;&gt;0,Sample_information!M170,"")</f>
         <v/>
       </c>
       <c r="L169" s="23"/>
       <c r="M169" s="41" t="str">
-        <f>IF(Sample_information!A173&lt;&gt;0,IFERROR(IF(M168&lt;&gt;0,("C"&amp;TEXT(RIGHT(M168,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A169&lt;&gt;0,IFERROR(IF(M168&lt;&gt;0,("C"&amp;TEXT(RIGHT(M168,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N169" s="41"/>
       <c r="O169" s="41"/>
       <c r="P169" s="41" t="str">
-        <f>IF(Sample_information!H174&lt;&gt;0,Sample_information!H174,"")</f>
+        <f>IF(Sample_information!H170&lt;&gt;0,Sample_information!H170,"")</f>
         <v/>
       </c>
       <c r="Q169" s="41" t="str">
-        <f>IF(Sample_information!I174&lt;&gt;0,Sample_information!I174,"")</f>
+        <f>IF(Sample_information!I170&lt;&gt;0,Sample_information!I170,"")</f>
         <v/>
       </c>
     </row>
@@ -9096,22 +9042,22 @@
       <c r="H170" s="23"/>
       <c r="I170" s="23"/>
       <c r="J170" s="23" t="str">
-        <f>IF(Sample_information!M175&lt;&gt;0,Sample_information!M175,"")</f>
+        <f>IF(Sample_information!M171&lt;&gt;0,Sample_information!M171,"")</f>
         <v/>
       </c>
       <c r="L170" s="23"/>
       <c r="M170" s="41" t="str">
-        <f>IF(Sample_information!A174&lt;&gt;0,IFERROR(IF(M169&lt;&gt;0,("C"&amp;TEXT(RIGHT(M169,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A170&lt;&gt;0,IFERROR(IF(M169&lt;&gt;0,("C"&amp;TEXT(RIGHT(M169,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N170" s="41"/>
       <c r="O170" s="41"/>
       <c r="P170" s="41" t="str">
-        <f>IF(Sample_information!H175&lt;&gt;0,Sample_information!H175,"")</f>
+        <f>IF(Sample_information!H171&lt;&gt;0,Sample_information!H171,"")</f>
         <v/>
       </c>
       <c r="Q170" s="41" t="str">
-        <f>IF(Sample_information!I175&lt;&gt;0,Sample_information!I175,"")</f>
+        <f>IF(Sample_information!I171&lt;&gt;0,Sample_information!I171,"")</f>
         <v/>
       </c>
     </row>
@@ -9127,22 +9073,22 @@
       <c r="H171" s="23"/>
       <c r="I171" s="23"/>
       <c r="J171" s="23" t="str">
-        <f>IF(Sample_information!M176&lt;&gt;0,Sample_information!M176,"")</f>
+        <f>IF(Sample_information!M172&lt;&gt;0,Sample_information!M172,"")</f>
         <v/>
       </c>
       <c r="L171" s="23"/>
       <c r="M171" s="41" t="str">
-        <f>IF(Sample_information!A175&lt;&gt;0,IFERROR(IF(M170&lt;&gt;0,("C"&amp;TEXT(RIGHT(M170,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A171&lt;&gt;0,IFERROR(IF(M170&lt;&gt;0,("C"&amp;TEXT(RIGHT(M170,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N171" s="41"/>
       <c r="O171" s="41"/>
       <c r="P171" s="41" t="str">
-        <f>IF(Sample_information!H176&lt;&gt;0,Sample_information!H176,"")</f>
+        <f>IF(Sample_information!H172&lt;&gt;0,Sample_information!H172,"")</f>
         <v/>
       </c>
       <c r="Q171" s="41" t="str">
-        <f>IF(Sample_information!I176&lt;&gt;0,Sample_information!I176,"")</f>
+        <f>IF(Sample_information!I172&lt;&gt;0,Sample_information!I172,"")</f>
         <v/>
       </c>
     </row>
@@ -9158,22 +9104,22 @@
       <c r="H172" s="23"/>
       <c r="I172" s="23"/>
       <c r="J172" s="23" t="str">
-        <f>IF(Sample_information!M177&lt;&gt;0,Sample_information!M177,"")</f>
+        <f>IF(Sample_information!M173&lt;&gt;0,Sample_information!M173,"")</f>
         <v/>
       </c>
       <c r="L172" s="23"/>
       <c r="M172" s="41" t="str">
-        <f>IF(Sample_information!A176&lt;&gt;0,IFERROR(IF(M171&lt;&gt;0,("C"&amp;TEXT(RIGHT(M171,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A172&lt;&gt;0,IFERROR(IF(M171&lt;&gt;0,("C"&amp;TEXT(RIGHT(M171,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N172" s="41"/>
       <c r="O172" s="41"/>
       <c r="P172" s="41" t="str">
-        <f>IF(Sample_information!H177&lt;&gt;0,Sample_information!H177,"")</f>
+        <f>IF(Sample_information!H173&lt;&gt;0,Sample_information!H173,"")</f>
         <v/>
       </c>
       <c r="Q172" s="41" t="str">
-        <f>IF(Sample_information!I177&lt;&gt;0,Sample_information!I177,"")</f>
+        <f>IF(Sample_information!I173&lt;&gt;0,Sample_information!I173,"")</f>
         <v/>
       </c>
     </row>
@@ -9189,22 +9135,22 @@
       <c r="H173" s="23"/>
       <c r="I173" s="23"/>
       <c r="J173" s="23" t="str">
-        <f>IF(Sample_information!M178&lt;&gt;0,Sample_information!M178,"")</f>
+        <f>IF(Sample_information!M174&lt;&gt;0,Sample_information!M174,"")</f>
         <v/>
       </c>
       <c r="L173" s="23"/>
       <c r="M173" s="41" t="str">
-        <f>IF(Sample_information!A177&lt;&gt;0,IFERROR(IF(M172&lt;&gt;0,("C"&amp;TEXT(RIGHT(M172,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A173&lt;&gt;0,IFERROR(IF(M172&lt;&gt;0,("C"&amp;TEXT(RIGHT(M172,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N173" s="41"/>
       <c r="O173" s="41"/>
       <c r="P173" s="41" t="str">
-        <f>IF(Sample_information!H178&lt;&gt;0,Sample_information!H178,"")</f>
+        <f>IF(Sample_information!H174&lt;&gt;0,Sample_information!H174,"")</f>
         <v/>
       </c>
       <c r="Q173" s="41" t="str">
-        <f>IF(Sample_information!I178&lt;&gt;0,Sample_information!I178,"")</f>
+        <f>IF(Sample_information!I174&lt;&gt;0,Sample_information!I174,"")</f>
         <v/>
       </c>
     </row>
@@ -9220,22 +9166,22 @@
       <c r="H174" s="23"/>
       <c r="I174" s="23"/>
       <c r="J174" s="23" t="str">
-        <f>IF(Sample_information!M179&lt;&gt;0,Sample_information!M179,"")</f>
+        <f>IF(Sample_information!M175&lt;&gt;0,Sample_information!M175,"")</f>
         <v/>
       </c>
       <c r="L174" s="23"/>
       <c r="M174" s="41" t="str">
-        <f>IF(Sample_information!A178&lt;&gt;0,IFERROR(IF(M173&lt;&gt;0,("C"&amp;TEXT(RIGHT(M173,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A174&lt;&gt;0,IFERROR(IF(M173&lt;&gt;0,("C"&amp;TEXT(RIGHT(M173,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N174" s="41"/>
       <c r="O174" s="41"/>
       <c r="P174" s="41" t="str">
-        <f>IF(Sample_information!H179&lt;&gt;0,Sample_information!H179,"")</f>
+        <f>IF(Sample_information!H175&lt;&gt;0,Sample_information!H175,"")</f>
         <v/>
       </c>
       <c r="Q174" s="41" t="str">
-        <f>IF(Sample_information!I179&lt;&gt;0,Sample_information!I179,"")</f>
+        <f>IF(Sample_information!I175&lt;&gt;0,Sample_information!I175,"")</f>
         <v/>
       </c>
     </row>
@@ -9251,22 +9197,22 @@
       <c r="H175" s="23"/>
       <c r="I175" s="23"/>
       <c r="J175" s="23" t="str">
-        <f>IF(Sample_information!M180&lt;&gt;0,Sample_information!M180,"")</f>
+        <f>IF(Sample_information!M176&lt;&gt;0,Sample_information!M176,"")</f>
         <v/>
       </c>
       <c r="L175" s="23"/>
       <c r="M175" s="41" t="str">
-        <f>IF(Sample_information!A179&lt;&gt;0,IFERROR(IF(M174&lt;&gt;0,("C"&amp;TEXT(RIGHT(M174,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A175&lt;&gt;0,IFERROR(IF(M174&lt;&gt;0,("C"&amp;TEXT(RIGHT(M174,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N175" s="41"/>
       <c r="O175" s="41"/>
       <c r="P175" s="41" t="str">
-        <f>IF(Sample_information!H180&lt;&gt;0,Sample_information!H180,"")</f>
+        <f>IF(Sample_information!H176&lt;&gt;0,Sample_information!H176,"")</f>
         <v/>
       </c>
       <c r="Q175" s="41" t="str">
-        <f>IF(Sample_information!I180&lt;&gt;0,Sample_information!I180,"")</f>
+        <f>IF(Sample_information!I176&lt;&gt;0,Sample_information!I176,"")</f>
         <v/>
       </c>
     </row>
@@ -9282,22 +9228,22 @@
       <c r="H176" s="23"/>
       <c r="I176" s="23"/>
       <c r="J176" s="23" t="str">
-        <f>IF(Sample_information!M181&lt;&gt;0,Sample_information!M181,"")</f>
+        <f>IF(Sample_information!M177&lt;&gt;0,Sample_information!M177,"")</f>
         <v/>
       </c>
       <c r="L176" s="23"/>
       <c r="M176" s="41" t="str">
-        <f>IF(Sample_information!A180&lt;&gt;0,IFERROR(IF(M175&lt;&gt;0,("C"&amp;TEXT(RIGHT(M175,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A176&lt;&gt;0,IFERROR(IF(M175&lt;&gt;0,("C"&amp;TEXT(RIGHT(M175,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N176" s="41"/>
       <c r="O176" s="41"/>
       <c r="P176" s="41" t="str">
-        <f>IF(Sample_information!H181&lt;&gt;0,Sample_information!H181,"")</f>
+        <f>IF(Sample_information!H177&lt;&gt;0,Sample_information!H177,"")</f>
         <v/>
       </c>
       <c r="Q176" s="41" t="str">
-        <f>IF(Sample_information!I181&lt;&gt;0,Sample_information!I181,"")</f>
+        <f>IF(Sample_information!I177&lt;&gt;0,Sample_information!I177,"")</f>
         <v/>
       </c>
     </row>
@@ -9313,22 +9259,22 @@
       <c r="H177" s="23"/>
       <c r="I177" s="23"/>
       <c r="J177" s="23" t="str">
-        <f>IF(Sample_information!M182&lt;&gt;0,Sample_information!M182,"")</f>
+        <f>IF(Sample_information!M178&lt;&gt;0,Sample_information!M178,"")</f>
         <v/>
       </c>
       <c r="L177" s="23"/>
       <c r="M177" s="41" t="str">
-        <f>IF(Sample_information!A181&lt;&gt;0,IFERROR(IF(M176&lt;&gt;0,("C"&amp;TEXT(RIGHT(M176,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A177&lt;&gt;0,IFERROR(IF(M176&lt;&gt;0,("C"&amp;TEXT(RIGHT(M176,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N177" s="41"/>
       <c r="O177" s="41"/>
       <c r="P177" s="41" t="str">
-        <f>IF(Sample_information!H182&lt;&gt;0,Sample_information!H182,"")</f>
+        <f>IF(Sample_information!H178&lt;&gt;0,Sample_information!H178,"")</f>
         <v/>
       </c>
       <c r="Q177" s="41" t="str">
-        <f>IF(Sample_information!I182&lt;&gt;0,Sample_information!I182,"")</f>
+        <f>IF(Sample_information!I178&lt;&gt;0,Sample_information!I178,"")</f>
         <v/>
       </c>
     </row>
@@ -9344,22 +9290,22 @@
       <c r="H178" s="23"/>
       <c r="I178" s="23"/>
       <c r="J178" s="23" t="str">
-        <f>IF(Sample_information!M183&lt;&gt;0,Sample_information!M183,"")</f>
+        <f>IF(Sample_information!M179&lt;&gt;0,Sample_information!M179,"")</f>
         <v/>
       </c>
       <c r="L178" s="23"/>
       <c r="M178" s="41" t="str">
-        <f>IF(Sample_information!A182&lt;&gt;0,IFERROR(IF(M177&lt;&gt;0,("C"&amp;TEXT(RIGHT(M177,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A178&lt;&gt;0,IFERROR(IF(M177&lt;&gt;0,("C"&amp;TEXT(RIGHT(M177,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N178" s="41"/>
       <c r="O178" s="41"/>
       <c r="P178" s="41" t="str">
-        <f>IF(Sample_information!H183&lt;&gt;0,Sample_information!H183,"")</f>
+        <f>IF(Sample_information!H179&lt;&gt;0,Sample_information!H179,"")</f>
         <v/>
       </c>
       <c r="Q178" s="41" t="str">
-        <f>IF(Sample_information!I183&lt;&gt;0,Sample_information!I183,"")</f>
+        <f>IF(Sample_information!I179&lt;&gt;0,Sample_information!I179,"")</f>
         <v/>
       </c>
     </row>
@@ -9375,22 +9321,22 @@
       <c r="H179" s="23"/>
       <c r="I179" s="23"/>
       <c r="J179" s="23" t="str">
-        <f>IF(Sample_information!M184&lt;&gt;0,Sample_information!M184,"")</f>
+        <f>IF(Sample_information!M180&lt;&gt;0,Sample_information!M180,"")</f>
         <v/>
       </c>
       <c r="L179" s="23"/>
       <c r="M179" s="41" t="str">
-        <f>IF(Sample_information!A183&lt;&gt;0,IFERROR(IF(M178&lt;&gt;0,("C"&amp;TEXT(RIGHT(M178,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A179&lt;&gt;0,IFERROR(IF(M178&lt;&gt;0,("C"&amp;TEXT(RIGHT(M178,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N179" s="41"/>
       <c r="O179" s="41"/>
       <c r="P179" s="41" t="str">
-        <f>IF(Sample_information!H184&lt;&gt;0,Sample_information!H184,"")</f>
+        <f>IF(Sample_information!H180&lt;&gt;0,Sample_information!H180,"")</f>
         <v/>
       </c>
       <c r="Q179" s="41" t="str">
-        <f>IF(Sample_information!I184&lt;&gt;0,Sample_information!I184,"")</f>
+        <f>IF(Sample_information!I180&lt;&gt;0,Sample_information!I180,"")</f>
         <v/>
       </c>
     </row>
@@ -9406,22 +9352,22 @@
       <c r="H180" s="23"/>
       <c r="I180" s="23"/>
       <c r="J180" s="23" t="str">
-        <f>IF(Sample_information!M185&lt;&gt;0,Sample_information!M185,"")</f>
+        <f>IF(Sample_information!M181&lt;&gt;0,Sample_information!M181,"")</f>
         <v/>
       </c>
       <c r="L180" s="23"/>
       <c r="M180" s="41" t="str">
-        <f>IF(Sample_information!A184&lt;&gt;0,IFERROR(IF(M179&lt;&gt;0,("C"&amp;TEXT(RIGHT(M179,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A180&lt;&gt;0,IFERROR(IF(M179&lt;&gt;0,("C"&amp;TEXT(RIGHT(M179,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N180" s="41"/>
       <c r="O180" s="41"/>
       <c r="P180" s="41" t="str">
-        <f>IF(Sample_information!H185&lt;&gt;0,Sample_information!H185,"")</f>
+        <f>IF(Sample_information!H181&lt;&gt;0,Sample_information!H181,"")</f>
         <v/>
       </c>
       <c r="Q180" s="41" t="str">
-        <f>IF(Sample_information!I185&lt;&gt;0,Sample_information!I185,"")</f>
+        <f>IF(Sample_information!I181&lt;&gt;0,Sample_information!I181,"")</f>
         <v/>
       </c>
     </row>
@@ -9437,22 +9383,22 @@
       <c r="H181" s="23"/>
       <c r="I181" s="23"/>
       <c r="J181" s="23" t="str">
-        <f>IF(Sample_information!M186&lt;&gt;0,Sample_information!M186,"")</f>
+        <f>IF(Sample_information!M182&lt;&gt;0,Sample_information!M182,"")</f>
         <v/>
       </c>
       <c r="L181" s="23"/>
       <c r="M181" s="41" t="str">
-        <f>IF(Sample_information!A185&lt;&gt;0,IFERROR(IF(M180&lt;&gt;0,("C"&amp;TEXT(RIGHT(M180,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A181&lt;&gt;0,IFERROR(IF(M180&lt;&gt;0,("C"&amp;TEXT(RIGHT(M180,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N181" s="41"/>
       <c r="O181" s="41"/>
       <c r="P181" s="41" t="str">
-        <f>IF(Sample_information!H186&lt;&gt;0,Sample_information!H186,"")</f>
+        <f>IF(Sample_information!H182&lt;&gt;0,Sample_information!H182,"")</f>
         <v/>
       </c>
       <c r="Q181" s="41" t="str">
-        <f>IF(Sample_information!I186&lt;&gt;0,Sample_information!I186,"")</f>
+        <f>IF(Sample_information!I182&lt;&gt;0,Sample_information!I182,"")</f>
         <v/>
       </c>
     </row>
@@ -9468,22 +9414,22 @@
       <c r="H182" s="23"/>
       <c r="I182" s="23"/>
       <c r="J182" s="23" t="str">
-        <f>IF(Sample_information!M187&lt;&gt;0,Sample_information!M187,"")</f>
+        <f>IF(Sample_information!M183&lt;&gt;0,Sample_information!M183,"")</f>
         <v/>
       </c>
       <c r="L182" s="23"/>
       <c r="M182" s="41" t="str">
-        <f>IF(Sample_information!A186&lt;&gt;0,IFERROR(IF(M181&lt;&gt;0,("C"&amp;TEXT(RIGHT(M181,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A182&lt;&gt;0,IFERROR(IF(M181&lt;&gt;0,("C"&amp;TEXT(RIGHT(M181,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N182" s="41"/>
       <c r="O182" s="41"/>
       <c r="P182" s="41" t="str">
-        <f>IF(Sample_information!H187&lt;&gt;0,Sample_information!H187,"")</f>
+        <f>IF(Sample_information!H183&lt;&gt;0,Sample_information!H183,"")</f>
         <v/>
       </c>
       <c r="Q182" s="41" t="str">
-        <f>IF(Sample_information!I187&lt;&gt;0,Sample_information!I187,"")</f>
+        <f>IF(Sample_information!I183&lt;&gt;0,Sample_information!I183,"")</f>
         <v/>
       </c>
     </row>
@@ -9499,22 +9445,22 @@
       <c r="H183" s="23"/>
       <c r="I183" s="23"/>
       <c r="J183" s="23" t="str">
-        <f>IF(Sample_information!M188&lt;&gt;0,Sample_information!M188,"")</f>
+        <f>IF(Sample_information!M184&lt;&gt;0,Sample_information!M184,"")</f>
         <v/>
       </c>
       <c r="L183" s="23"/>
       <c r="M183" s="41" t="str">
-        <f>IF(Sample_information!A187&lt;&gt;0,IFERROR(IF(M182&lt;&gt;0,("C"&amp;TEXT(RIGHT(M182,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A183&lt;&gt;0,IFERROR(IF(M182&lt;&gt;0,("C"&amp;TEXT(RIGHT(M182,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N183" s="41"/>
       <c r="O183" s="41"/>
       <c r="P183" s="41" t="str">
-        <f>IF(Sample_information!H188&lt;&gt;0,Sample_information!H188,"")</f>
+        <f>IF(Sample_information!H184&lt;&gt;0,Sample_information!H184,"")</f>
         <v/>
       </c>
       <c r="Q183" s="41" t="str">
-        <f>IF(Sample_information!I188&lt;&gt;0,Sample_information!I188,"")</f>
+        <f>IF(Sample_information!I184&lt;&gt;0,Sample_information!I184,"")</f>
         <v/>
       </c>
     </row>
@@ -9530,22 +9476,22 @@
       <c r="H184" s="23"/>
       <c r="I184" s="23"/>
       <c r="J184" s="23" t="str">
-        <f>IF(Sample_information!M189&lt;&gt;0,Sample_information!M189,"")</f>
+        <f>IF(Sample_information!M185&lt;&gt;0,Sample_information!M185,"")</f>
         <v/>
       </c>
       <c r="L184" s="23"/>
       <c r="M184" s="41" t="str">
-        <f>IF(Sample_information!A188&lt;&gt;0,IFERROR(IF(M183&lt;&gt;0,("C"&amp;TEXT(RIGHT(M183,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A184&lt;&gt;0,IFERROR(IF(M183&lt;&gt;0,("C"&amp;TEXT(RIGHT(M183,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N184" s="41"/>
       <c r="O184" s="41"/>
       <c r="P184" s="41" t="str">
-        <f>IF(Sample_information!H189&lt;&gt;0,Sample_information!H189,"")</f>
+        <f>IF(Sample_information!H185&lt;&gt;0,Sample_information!H185,"")</f>
         <v/>
       </c>
       <c r="Q184" s="41" t="str">
-        <f>IF(Sample_information!I189&lt;&gt;0,Sample_information!I189,"")</f>
+        <f>IF(Sample_information!I185&lt;&gt;0,Sample_information!I185,"")</f>
         <v/>
       </c>
     </row>
@@ -9561,22 +9507,22 @@
       <c r="H185" s="23"/>
       <c r="I185" s="23"/>
       <c r="J185" s="23" t="str">
-        <f>IF(Sample_information!M190&lt;&gt;0,Sample_information!M190,"")</f>
+        <f>IF(Sample_information!M186&lt;&gt;0,Sample_information!M186,"")</f>
         <v/>
       </c>
       <c r="L185" s="23"/>
       <c r="M185" s="41" t="str">
-        <f>IF(Sample_information!A189&lt;&gt;0,IFERROR(IF(M184&lt;&gt;0,("C"&amp;TEXT(RIGHT(M184,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A185&lt;&gt;0,IFERROR(IF(M184&lt;&gt;0,("C"&amp;TEXT(RIGHT(M184,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N185" s="41"/>
       <c r="O185" s="41"/>
       <c r="P185" s="41" t="str">
-        <f>IF(Sample_information!H190&lt;&gt;0,Sample_information!H190,"")</f>
+        <f>IF(Sample_information!H186&lt;&gt;0,Sample_information!H186,"")</f>
         <v/>
       </c>
       <c r="Q185" s="41" t="str">
-        <f>IF(Sample_information!I190&lt;&gt;0,Sample_information!I190,"")</f>
+        <f>IF(Sample_information!I186&lt;&gt;0,Sample_information!I186,"")</f>
         <v/>
       </c>
     </row>
@@ -9592,22 +9538,22 @@
       <c r="H186" s="23"/>
       <c r="I186" s="23"/>
       <c r="J186" s="23" t="str">
-        <f>IF(Sample_information!M191&lt;&gt;0,Sample_information!M191,"")</f>
+        <f>IF(Sample_information!M187&lt;&gt;0,Sample_information!M187,"")</f>
         <v/>
       </c>
       <c r="L186" s="23"/>
       <c r="M186" s="41" t="str">
-        <f>IF(Sample_information!A190&lt;&gt;0,IFERROR(IF(M185&lt;&gt;0,("C"&amp;TEXT(RIGHT(M185,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A186&lt;&gt;0,IFERROR(IF(M185&lt;&gt;0,("C"&amp;TEXT(RIGHT(M185,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N186" s="41"/>
       <c r="O186" s="41"/>
       <c r="P186" s="41" t="str">
-        <f>IF(Sample_information!H191&lt;&gt;0,Sample_information!H191,"")</f>
+        <f>IF(Sample_information!H187&lt;&gt;0,Sample_information!H187,"")</f>
         <v/>
       </c>
       <c r="Q186" s="41" t="str">
-        <f>IF(Sample_information!I191&lt;&gt;0,Sample_information!I191,"")</f>
+        <f>IF(Sample_information!I187&lt;&gt;0,Sample_information!I187,"")</f>
         <v/>
       </c>
     </row>
@@ -9623,22 +9569,22 @@
       <c r="H187" s="23"/>
       <c r="I187" s="23"/>
       <c r="J187" s="23" t="str">
-        <f>IF(Sample_information!M192&lt;&gt;0,Sample_information!M192,"")</f>
+        <f>IF(Sample_information!M188&lt;&gt;0,Sample_information!M188,"")</f>
         <v/>
       </c>
       <c r="L187" s="23"/>
       <c r="M187" s="41" t="str">
-        <f>IF(Sample_information!A191&lt;&gt;0,IFERROR(IF(M186&lt;&gt;0,("C"&amp;TEXT(RIGHT(M186,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A187&lt;&gt;0,IFERROR(IF(M186&lt;&gt;0,("C"&amp;TEXT(RIGHT(M186,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N187" s="41"/>
       <c r="O187" s="41"/>
       <c r="P187" s="41" t="str">
-        <f>IF(Sample_information!H192&lt;&gt;0,Sample_information!H192,"")</f>
+        <f>IF(Sample_information!H188&lt;&gt;0,Sample_information!H188,"")</f>
         <v/>
       </c>
       <c r="Q187" s="41" t="str">
-        <f>IF(Sample_information!I192&lt;&gt;0,Sample_information!I192,"")</f>
+        <f>IF(Sample_information!I188&lt;&gt;0,Sample_information!I188,"")</f>
         <v/>
       </c>
     </row>
@@ -9654,22 +9600,22 @@
       <c r="H188" s="23"/>
       <c r="I188" s="23"/>
       <c r="J188" s="23" t="str">
-        <f>IF(Sample_information!M193&lt;&gt;0,Sample_information!M193,"")</f>
+        <f>IF(Sample_information!M189&lt;&gt;0,Sample_information!M189,"")</f>
         <v/>
       </c>
       <c r="L188" s="23"/>
       <c r="M188" s="41" t="str">
-        <f>IF(Sample_information!A192&lt;&gt;0,IFERROR(IF(M187&lt;&gt;0,("C"&amp;TEXT(RIGHT(M187,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A188&lt;&gt;0,IFERROR(IF(M187&lt;&gt;0,("C"&amp;TEXT(RIGHT(M187,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N188" s="41"/>
       <c r="O188" s="41"/>
       <c r="P188" s="41" t="str">
-        <f>IF(Sample_information!H193&lt;&gt;0,Sample_information!H193,"")</f>
+        <f>IF(Sample_information!H189&lt;&gt;0,Sample_information!H189,"")</f>
         <v/>
       </c>
       <c r="Q188" s="41" t="str">
-        <f>IF(Sample_information!I193&lt;&gt;0,Sample_information!I193,"")</f>
+        <f>IF(Sample_information!I189&lt;&gt;0,Sample_information!I189,"")</f>
         <v/>
       </c>
     </row>
@@ -9685,22 +9631,22 @@
       <c r="H189" s="23"/>
       <c r="I189" s="23"/>
       <c r="J189" s="23" t="str">
-        <f>IF(Sample_information!M194&lt;&gt;0,Sample_information!M194,"")</f>
+        <f>IF(Sample_information!M190&lt;&gt;0,Sample_information!M190,"")</f>
         <v/>
       </c>
       <c r="L189" s="23"/>
       <c r="M189" s="41" t="str">
-        <f>IF(Sample_information!A193&lt;&gt;0,IFERROR(IF(M188&lt;&gt;0,("C"&amp;TEXT(RIGHT(M188,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A189&lt;&gt;0,IFERROR(IF(M188&lt;&gt;0,("C"&amp;TEXT(RIGHT(M188,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N189" s="41"/>
       <c r="O189" s="41"/>
       <c r="P189" s="41" t="str">
-        <f>IF(Sample_information!H194&lt;&gt;0,Sample_information!H194,"")</f>
+        <f>IF(Sample_information!H190&lt;&gt;0,Sample_information!H190,"")</f>
         <v/>
       </c>
       <c r="Q189" s="41" t="str">
-        <f>IF(Sample_information!I194&lt;&gt;0,Sample_information!I194,"")</f>
+        <f>IF(Sample_information!I190&lt;&gt;0,Sample_information!I190,"")</f>
         <v/>
       </c>
     </row>
@@ -9716,22 +9662,22 @@
       <c r="H190" s="23"/>
       <c r="I190" s="23"/>
       <c r="J190" s="23" t="str">
-        <f>IF(Sample_information!M195&lt;&gt;0,Sample_information!M195,"")</f>
+        <f>IF(Sample_information!M191&lt;&gt;0,Sample_information!M191,"")</f>
         <v/>
       </c>
       <c r="L190" s="23"/>
       <c r="M190" s="41" t="str">
-        <f>IF(Sample_information!A194&lt;&gt;0,IFERROR(IF(M189&lt;&gt;0,("C"&amp;TEXT(RIGHT(M189,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A190&lt;&gt;0,IFERROR(IF(M189&lt;&gt;0,("C"&amp;TEXT(RIGHT(M189,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N190" s="41"/>
       <c r="O190" s="41"/>
       <c r="P190" s="41" t="str">
-        <f>IF(Sample_information!H195&lt;&gt;0,Sample_information!H195,"")</f>
+        <f>IF(Sample_information!H191&lt;&gt;0,Sample_information!H191,"")</f>
         <v/>
       </c>
       <c r="Q190" s="41" t="str">
-        <f>IF(Sample_information!I195&lt;&gt;0,Sample_information!I195,"")</f>
+        <f>IF(Sample_information!I191&lt;&gt;0,Sample_information!I191,"")</f>
         <v/>
       </c>
     </row>
@@ -9747,22 +9693,22 @@
       <c r="H191" s="23"/>
       <c r="I191" s="23"/>
       <c r="J191" s="23" t="str">
-        <f>IF(Sample_information!M196&lt;&gt;0,Sample_information!M196,"")</f>
+        <f>IF(Sample_information!M192&lt;&gt;0,Sample_information!M192,"")</f>
         <v/>
       </c>
       <c r="L191" s="23"/>
       <c r="M191" s="41" t="str">
-        <f>IF(Sample_information!A195&lt;&gt;0,IFERROR(IF(M190&lt;&gt;0,("C"&amp;TEXT(RIGHT(M190,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A191&lt;&gt;0,IFERROR(IF(M190&lt;&gt;0,("C"&amp;TEXT(RIGHT(M190,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N191" s="41"/>
       <c r="O191" s="41"/>
       <c r="P191" s="41" t="str">
-        <f>IF(Sample_information!H196&lt;&gt;0,Sample_information!H196,"")</f>
+        <f>IF(Sample_information!H192&lt;&gt;0,Sample_information!H192,"")</f>
         <v/>
       </c>
       <c r="Q191" s="41" t="str">
-        <f>IF(Sample_information!I196&lt;&gt;0,Sample_information!I196,"")</f>
+        <f>IF(Sample_information!I192&lt;&gt;0,Sample_information!I192,"")</f>
         <v/>
       </c>
     </row>
@@ -9778,22 +9724,22 @@
       <c r="H192" s="23"/>
       <c r="I192" s="23"/>
       <c r="J192" s="23" t="str">
-        <f>IF(Sample_information!M197&lt;&gt;0,Sample_information!M197,"")</f>
+        <f>IF(Sample_information!M193&lt;&gt;0,Sample_information!M193,"")</f>
         <v/>
       </c>
       <c r="L192" s="23"/>
       <c r="M192" s="41" t="str">
-        <f>IF(Sample_information!A196&lt;&gt;0,IFERROR(IF(M191&lt;&gt;0,("C"&amp;TEXT(RIGHT(M191,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A192&lt;&gt;0,IFERROR(IF(M191&lt;&gt;0,("C"&amp;TEXT(RIGHT(M191,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N192" s="41"/>
       <c r="O192" s="41"/>
       <c r="P192" s="41" t="str">
-        <f>IF(Sample_information!H197&lt;&gt;0,Sample_information!H197,"")</f>
+        <f>IF(Sample_information!H193&lt;&gt;0,Sample_information!H193,"")</f>
         <v/>
       </c>
       <c r="Q192" s="41" t="str">
-        <f>IF(Sample_information!I197&lt;&gt;0,Sample_information!I197,"")</f>
+        <f>IF(Sample_information!I193&lt;&gt;0,Sample_information!I193,"")</f>
         <v/>
       </c>
     </row>
@@ -9809,22 +9755,22 @@
       <c r="H193" s="23"/>
       <c r="I193" s="23"/>
       <c r="J193" s="23" t="str">
-        <f>IF(Sample_information!M198&lt;&gt;0,Sample_information!M198,"")</f>
+        <f>IF(Sample_information!M194&lt;&gt;0,Sample_information!M194,"")</f>
         <v/>
       </c>
       <c r="L193" s="23"/>
       <c r="M193" s="41" t="str">
-        <f>IF(Sample_information!A197&lt;&gt;0,IFERROR(IF(M192&lt;&gt;0,("C"&amp;TEXT(RIGHT(M192,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A193&lt;&gt;0,IFERROR(IF(M192&lt;&gt;0,("C"&amp;TEXT(RIGHT(M192,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N193" s="41"/>
       <c r="O193" s="41"/>
       <c r="P193" s="41" t="str">
-        <f>IF(Sample_information!H198&lt;&gt;0,Sample_information!H198,"")</f>
+        <f>IF(Sample_information!H194&lt;&gt;0,Sample_information!H194,"")</f>
         <v/>
       </c>
       <c r="Q193" s="41" t="str">
-        <f>IF(Sample_information!I198&lt;&gt;0,Sample_information!I198,"")</f>
+        <f>IF(Sample_information!I194&lt;&gt;0,Sample_information!I194,"")</f>
         <v/>
       </c>
     </row>
@@ -9840,22 +9786,22 @@
       <c r="H194" s="23"/>
       <c r="I194" s="23"/>
       <c r="J194" s="23" t="str">
-        <f>IF(Sample_information!M199&lt;&gt;0,Sample_information!M199,"")</f>
+        <f>IF(Sample_information!M195&lt;&gt;0,Sample_information!M195,"")</f>
         <v/>
       </c>
       <c r="L194" s="23"/>
       <c r="M194" s="41" t="str">
-        <f>IF(Sample_information!A198&lt;&gt;0,IFERROR(IF(M193&lt;&gt;0,("C"&amp;TEXT(RIGHT(M193,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A194&lt;&gt;0,IFERROR(IF(M193&lt;&gt;0,("C"&amp;TEXT(RIGHT(M193,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N194" s="41"/>
       <c r="O194" s="41"/>
       <c r="P194" s="41" t="str">
-        <f>IF(Sample_information!H199&lt;&gt;0,Sample_information!H199,"")</f>
+        <f>IF(Sample_information!H195&lt;&gt;0,Sample_information!H195,"")</f>
         <v/>
       </c>
       <c r="Q194" s="41" t="str">
-        <f>IF(Sample_information!I199&lt;&gt;0,Sample_information!I199,"")</f>
+        <f>IF(Sample_information!I195&lt;&gt;0,Sample_information!I195,"")</f>
         <v/>
       </c>
     </row>
@@ -9871,22 +9817,22 @@
       <c r="H195" s="23"/>
       <c r="I195" s="23"/>
       <c r="J195" s="23" t="str">
-        <f>IF(Sample_information!M200&lt;&gt;0,Sample_information!M200,"")</f>
+        <f>IF(Sample_information!M196&lt;&gt;0,Sample_information!M196,"")</f>
         <v/>
       </c>
       <c r="L195" s="23"/>
       <c r="M195" s="41" t="str">
-        <f>IF(Sample_information!A199&lt;&gt;0,IFERROR(IF(M194&lt;&gt;0,("C"&amp;TEXT(RIGHT(M194,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A195&lt;&gt;0,IFERROR(IF(M194&lt;&gt;0,("C"&amp;TEXT(RIGHT(M194,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N195" s="41"/>
       <c r="O195" s="41"/>
       <c r="P195" s="41" t="str">
-        <f>IF(Sample_information!H200&lt;&gt;0,Sample_information!H200,"")</f>
+        <f>IF(Sample_information!H196&lt;&gt;0,Sample_information!H196,"")</f>
         <v/>
       </c>
       <c r="Q195" s="41" t="str">
-        <f>IF(Sample_information!I200&lt;&gt;0,Sample_information!I200,"")</f>
+        <f>IF(Sample_information!I196&lt;&gt;0,Sample_information!I196,"")</f>
         <v/>
       </c>
     </row>
@@ -9902,22 +9848,22 @@
       <c r="H196" s="23"/>
       <c r="I196" s="23"/>
       <c r="J196" s="23" t="str">
-        <f>IF(Sample_information!M201&lt;&gt;0,Sample_information!M201,"")</f>
+        <f>IF(Sample_information!M197&lt;&gt;0,Sample_information!M197,"")</f>
         <v/>
       </c>
       <c r="L196" s="23"/>
       <c r="M196" s="41" t="str">
-        <f>IF(Sample_information!A200&lt;&gt;0,IFERROR(IF(M195&lt;&gt;0,("C"&amp;TEXT(RIGHT(M195,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A196&lt;&gt;0,IFERROR(IF(M195&lt;&gt;0,("C"&amp;TEXT(RIGHT(M195,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N196" s="41"/>
       <c r="O196" s="41"/>
       <c r="P196" s="41" t="str">
-        <f>IF(Sample_information!H201&lt;&gt;0,Sample_information!H201,"")</f>
+        <f>IF(Sample_information!H197&lt;&gt;0,Sample_information!H197,"")</f>
         <v/>
       </c>
       <c r="Q196" s="41" t="str">
-        <f>IF(Sample_information!I201&lt;&gt;0,Sample_information!I201,"")</f>
+        <f>IF(Sample_information!I197&lt;&gt;0,Sample_information!I197,"")</f>
         <v/>
       </c>
     </row>
@@ -9933,22 +9879,22 @@
       <c r="H197" s="23"/>
       <c r="I197" s="23"/>
       <c r="J197" s="23" t="str">
-        <f>IF(Sample_information!M202&lt;&gt;0,Sample_information!M202,"")</f>
+        <f>IF(Sample_information!M198&lt;&gt;0,Sample_information!M198,"")</f>
         <v/>
       </c>
       <c r="L197" s="23"/>
       <c r="M197" s="41" t="str">
-        <f>IF(Sample_information!A201&lt;&gt;0,IFERROR(IF(M196&lt;&gt;0,("C"&amp;TEXT(RIGHT(M196,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A197&lt;&gt;0,IFERROR(IF(M196&lt;&gt;0,("C"&amp;TEXT(RIGHT(M196,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N197" s="41"/>
       <c r="O197" s="41"/>
       <c r="P197" s="41" t="str">
-        <f>IF(Sample_information!H202&lt;&gt;0,Sample_information!H202,"")</f>
+        <f>IF(Sample_information!H198&lt;&gt;0,Sample_information!H198,"")</f>
         <v/>
       </c>
       <c r="Q197" s="41" t="str">
-        <f>IF(Sample_information!I202&lt;&gt;0,Sample_information!I202,"")</f>
+        <f>IF(Sample_information!I198&lt;&gt;0,Sample_information!I198,"")</f>
         <v/>
       </c>
     </row>
@@ -9964,22 +9910,22 @@
       <c r="H198" s="23"/>
       <c r="I198" s="23"/>
       <c r="J198" s="23" t="str">
-        <f>IF(Sample_information!M203&lt;&gt;0,Sample_information!M203,"")</f>
+        <f>IF(Sample_information!M199&lt;&gt;0,Sample_information!M199,"")</f>
         <v/>
       </c>
       <c r="L198" s="23"/>
       <c r="M198" s="41" t="str">
-        <f>IF(Sample_information!A202&lt;&gt;0,IFERROR(IF(M197&lt;&gt;0,("C"&amp;TEXT(RIGHT(M197,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A198&lt;&gt;0,IFERROR(IF(M197&lt;&gt;0,("C"&amp;TEXT(RIGHT(M197,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N198" s="41"/>
       <c r="O198" s="41"/>
       <c r="P198" s="41" t="str">
-        <f>IF(Sample_information!H203&lt;&gt;0,Sample_information!H203,"")</f>
+        <f>IF(Sample_information!H199&lt;&gt;0,Sample_information!H199,"")</f>
         <v/>
       </c>
       <c r="Q198" s="41" t="str">
-        <f>IF(Sample_information!I203&lt;&gt;0,Sample_information!I203,"")</f>
+        <f>IF(Sample_information!I199&lt;&gt;0,Sample_information!I199,"")</f>
         <v/>
       </c>
     </row>
@@ -9995,22 +9941,22 @@
       <c r="H199" s="23"/>
       <c r="I199" s="23"/>
       <c r="J199" s="23" t="str">
-        <f>IF(Sample_information!M204&lt;&gt;0,Sample_information!M204,"")</f>
+        <f>IF(Sample_information!M200&lt;&gt;0,Sample_information!M200,"")</f>
         <v/>
       </c>
       <c r="L199" s="23"/>
       <c r="M199" s="41" t="str">
-        <f>IF(Sample_information!A203&lt;&gt;0,IFERROR(IF(M198&lt;&gt;0,("C"&amp;TEXT(RIGHT(M198,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A199&lt;&gt;0,IFERROR(IF(M198&lt;&gt;0,("C"&amp;TEXT(RIGHT(M198,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N199" s="41"/>
       <c r="O199" s="41"/>
       <c r="P199" s="41" t="str">
-        <f>IF(Sample_information!H204&lt;&gt;0,Sample_information!H204,"")</f>
+        <f>IF(Sample_information!H200&lt;&gt;0,Sample_information!H200,"")</f>
         <v/>
       </c>
       <c r="Q199" s="41" t="str">
-        <f>IF(Sample_information!I204&lt;&gt;0,Sample_information!I204,"")</f>
+        <f>IF(Sample_information!I200&lt;&gt;0,Sample_information!I200,"")</f>
         <v/>
       </c>
     </row>
@@ -10026,22 +9972,22 @@
       <c r="H200" s="23"/>
       <c r="I200" s="23"/>
       <c r="J200" s="23" t="str">
-        <f>IF(Sample_information!M205&lt;&gt;0,Sample_information!M205,"")</f>
+        <f>IF(Sample_information!M201&lt;&gt;0,Sample_information!M201,"")</f>
         <v/>
       </c>
       <c r="L200" s="23"/>
       <c r="M200" s="41" t="str">
-        <f>IF(Sample_information!A204&lt;&gt;0,IFERROR(IF(M199&lt;&gt;0,("C"&amp;TEXT(RIGHT(M199,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A200&lt;&gt;0,IFERROR(IF(M199&lt;&gt;0,("C"&amp;TEXT(RIGHT(M199,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N200" s="41"/>
       <c r="O200" s="41"/>
       <c r="P200" s="41" t="str">
-        <f>IF(Sample_information!H205&lt;&gt;0,Sample_information!H205,"")</f>
+        <f>IF(Sample_information!H201&lt;&gt;0,Sample_information!H201,"")</f>
         <v/>
       </c>
       <c r="Q200" s="41" t="str">
-        <f>IF(Sample_information!I205&lt;&gt;0,Sample_information!I205,"")</f>
+        <f>IF(Sample_information!I201&lt;&gt;0,Sample_information!I201,"")</f>
         <v/>
       </c>
     </row>
@@ -10057,22 +10003,22 @@
       <c r="H201" s="23"/>
       <c r="I201" s="23"/>
       <c r="J201" s="23" t="str">
-        <f>IF(Sample_information!M206&lt;&gt;0,Sample_information!M206,"")</f>
+        <f>IF(Sample_information!M202&lt;&gt;0,Sample_information!M202,"")</f>
         <v/>
       </c>
       <c r="L201" s="23"/>
       <c r="M201" s="41" t="str">
-        <f>IF(Sample_information!A205&lt;&gt;0,IFERROR(IF(M200&lt;&gt;0,("C"&amp;TEXT(RIGHT(M200,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A201&lt;&gt;0,IFERROR(IF(M200&lt;&gt;0,("C"&amp;TEXT(RIGHT(M200,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N201" s="41"/>
       <c r="O201" s="41"/>
       <c r="P201" s="41" t="str">
-        <f>IF(Sample_information!H206&lt;&gt;0,Sample_information!H206,"")</f>
+        <f>IF(Sample_information!H202&lt;&gt;0,Sample_information!H202,"")</f>
         <v/>
       </c>
       <c r="Q201" s="41" t="str">
-        <f>IF(Sample_information!I206&lt;&gt;0,Sample_information!I206,"")</f>
+        <f>IF(Sample_information!I202&lt;&gt;0,Sample_information!I202,"")</f>
         <v/>
       </c>
     </row>
@@ -10088,22 +10034,22 @@
       <c r="H202" s="23"/>
       <c r="I202" s="23"/>
       <c r="J202" s="23" t="str">
-        <f>IF(Sample_information!M207&lt;&gt;0,Sample_information!M207,"")</f>
+        <f>IF(Sample_information!M203&lt;&gt;0,Sample_information!M203,"")</f>
         <v/>
       </c>
       <c r="L202" s="23"/>
       <c r="M202" s="41" t="str">
-        <f>IF(Sample_information!A206&lt;&gt;0,IFERROR(IF(M201&lt;&gt;0,("C"&amp;TEXT(RIGHT(M201,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A202&lt;&gt;0,IFERROR(IF(M201&lt;&gt;0,("C"&amp;TEXT(RIGHT(M201,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N202" s="41"/>
       <c r="O202" s="41"/>
       <c r="P202" s="41" t="str">
-        <f>IF(Sample_information!H207&lt;&gt;0,Sample_information!H207,"")</f>
+        <f>IF(Sample_information!H203&lt;&gt;0,Sample_information!H203,"")</f>
         <v/>
       </c>
       <c r="Q202" s="41" t="str">
-        <f>IF(Sample_information!I207&lt;&gt;0,Sample_information!I207,"")</f>
+        <f>IF(Sample_information!I203&lt;&gt;0,Sample_information!I203,"")</f>
         <v/>
       </c>
     </row>
@@ -10119,22 +10065,22 @@
       <c r="H203" s="23"/>
       <c r="I203" s="23"/>
       <c r="J203" s="23" t="str">
-        <f>IF(Sample_information!M208&lt;&gt;0,Sample_information!M208,"")</f>
+        <f>IF(Sample_information!M204&lt;&gt;0,Sample_information!M204,"")</f>
         <v/>
       </c>
       <c r="L203" s="23"/>
       <c r="M203" s="41" t="str">
-        <f>IF(Sample_information!A207&lt;&gt;0,IFERROR(IF(M202&lt;&gt;0,("C"&amp;TEXT(RIGHT(M202,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A203&lt;&gt;0,IFERROR(IF(M202&lt;&gt;0,("C"&amp;TEXT(RIGHT(M202,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N203" s="41"/>
       <c r="O203" s="41"/>
       <c r="P203" s="41" t="str">
-        <f>IF(Sample_information!H208&lt;&gt;0,Sample_information!H208,"")</f>
+        <f>IF(Sample_information!H204&lt;&gt;0,Sample_information!H204,"")</f>
         <v/>
       </c>
       <c r="Q203" s="41" t="str">
-        <f>IF(Sample_information!I208&lt;&gt;0,Sample_information!I208,"")</f>
+        <f>IF(Sample_information!I204&lt;&gt;0,Sample_information!I204,"")</f>
         <v/>
       </c>
     </row>
@@ -10150,22 +10096,22 @@
       <c r="H204" s="23"/>
       <c r="I204" s="23"/>
       <c r="J204" s="23" t="str">
-        <f>IF(Sample_information!M209&lt;&gt;0,Sample_information!M209,"")</f>
+        <f>IF(Sample_information!M205&lt;&gt;0,Sample_information!M205,"")</f>
         <v/>
       </c>
       <c r="L204" s="23"/>
       <c r="M204" s="41" t="str">
-        <f>IF(Sample_information!A208&lt;&gt;0,IFERROR(IF(M203&lt;&gt;0,("C"&amp;TEXT(RIGHT(M203,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A204&lt;&gt;0,IFERROR(IF(M203&lt;&gt;0,("C"&amp;TEXT(RIGHT(M203,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N204" s="41"/>
       <c r="O204" s="41"/>
       <c r="P204" s="41" t="str">
-        <f>IF(Sample_information!H209&lt;&gt;0,Sample_information!H209,"")</f>
+        <f>IF(Sample_information!H205&lt;&gt;0,Sample_information!H205,"")</f>
         <v/>
       </c>
       <c r="Q204" s="41" t="str">
-        <f>IF(Sample_information!I209&lt;&gt;0,Sample_information!I209,"")</f>
+        <f>IF(Sample_information!I205&lt;&gt;0,Sample_information!I205,"")</f>
         <v/>
       </c>
     </row>
@@ -10181,22 +10127,22 @@
       <c r="H205" s="23"/>
       <c r="I205" s="23"/>
       <c r="J205" s="23" t="str">
-        <f>IF(Sample_information!M210&lt;&gt;0,Sample_information!M210,"")</f>
+        <f>IF(Sample_information!M206&lt;&gt;0,Sample_information!M206,"")</f>
         <v/>
       </c>
       <c r="L205" s="23"/>
       <c r="M205" s="41" t="str">
-        <f>IF(Sample_information!A209&lt;&gt;0,IFERROR(IF(M204&lt;&gt;0,("C"&amp;TEXT(RIGHT(M204,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A205&lt;&gt;0,IFERROR(IF(M204&lt;&gt;0,("C"&amp;TEXT(RIGHT(M204,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N205" s="41"/>
       <c r="O205" s="41"/>
       <c r="P205" s="41" t="str">
-        <f>IF(Sample_information!H210&lt;&gt;0,Sample_information!H210,"")</f>
+        <f>IF(Sample_information!H206&lt;&gt;0,Sample_information!H206,"")</f>
         <v/>
       </c>
       <c r="Q205" s="41" t="str">
-        <f>IF(Sample_information!I210&lt;&gt;0,Sample_information!I210,"")</f>
+        <f>IF(Sample_information!I206&lt;&gt;0,Sample_information!I206,"")</f>
         <v/>
       </c>
     </row>
@@ -10212,22 +10158,22 @@
       <c r="H206" s="23"/>
       <c r="I206" s="23"/>
       <c r="J206" s="23" t="str">
-        <f>IF(Sample_information!M211&lt;&gt;0,Sample_information!M211,"")</f>
+        <f>IF(Sample_information!M207&lt;&gt;0,Sample_information!M207,"")</f>
         <v/>
       </c>
       <c r="L206" s="23"/>
       <c r="M206" s="41" t="str">
-        <f>IF(Sample_information!A210&lt;&gt;0,IFERROR(IF(M205&lt;&gt;0,("C"&amp;TEXT(RIGHT(M205,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A206&lt;&gt;0,IFERROR(IF(M205&lt;&gt;0,("C"&amp;TEXT(RIGHT(M205,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N206" s="41"/>
       <c r="O206" s="41"/>
       <c r="P206" s="41" t="str">
-        <f>IF(Sample_information!H211&lt;&gt;0,Sample_information!H211,"")</f>
+        <f>IF(Sample_information!H207&lt;&gt;0,Sample_information!H207,"")</f>
         <v/>
       </c>
       <c r="Q206" s="41" t="str">
-        <f>IF(Sample_information!I211&lt;&gt;0,Sample_information!I211,"")</f>
+        <f>IF(Sample_information!I207&lt;&gt;0,Sample_information!I207,"")</f>
         <v/>
       </c>
     </row>
@@ -10243,22 +10189,22 @@
       <c r="H207" s="23"/>
       <c r="I207" s="23"/>
       <c r="J207" s="23" t="str">
-        <f>IF(Sample_information!M212&lt;&gt;0,Sample_information!M212,"")</f>
+        <f>IF(Sample_information!M208&lt;&gt;0,Sample_information!M208,"")</f>
         <v/>
       </c>
       <c r="L207" s="23"/>
       <c r="M207" s="41" t="str">
-        <f>IF(Sample_information!A211&lt;&gt;0,IFERROR(IF(M206&lt;&gt;0,("C"&amp;TEXT(RIGHT(M206,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A207&lt;&gt;0,IFERROR(IF(M206&lt;&gt;0,("C"&amp;TEXT(RIGHT(M206,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N207" s="41"/>
       <c r="O207" s="41"/>
       <c r="P207" s="41" t="str">
-        <f>IF(Sample_information!H212&lt;&gt;0,Sample_information!H212,"")</f>
+        <f>IF(Sample_information!H208&lt;&gt;0,Sample_information!H208,"")</f>
         <v/>
       </c>
       <c r="Q207" s="41" t="str">
-        <f>IF(Sample_information!I212&lt;&gt;0,Sample_information!I212,"")</f>
+        <f>IF(Sample_information!I208&lt;&gt;0,Sample_information!I208,"")</f>
         <v/>
       </c>
     </row>
@@ -10274,22 +10220,22 @@
       <c r="H208" s="23"/>
       <c r="I208" s="23"/>
       <c r="J208" s="23" t="str">
-        <f>IF(Sample_information!M213&lt;&gt;0,Sample_information!M213,"")</f>
+        <f>IF(Sample_information!M209&lt;&gt;0,Sample_information!M209,"")</f>
         <v/>
       </c>
       <c r="L208" s="23"/>
       <c r="M208" s="41" t="str">
-        <f>IF(Sample_information!A212&lt;&gt;0,IFERROR(IF(M207&lt;&gt;0,("C"&amp;TEXT(RIGHT(M207,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A208&lt;&gt;0,IFERROR(IF(M207&lt;&gt;0,("C"&amp;TEXT(RIGHT(M207,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N208" s="41"/>
       <c r="O208" s="41"/>
       <c r="P208" s="41" t="str">
-        <f>IF(Sample_information!H213&lt;&gt;0,Sample_information!H213,"")</f>
+        <f>IF(Sample_information!H209&lt;&gt;0,Sample_information!H209,"")</f>
         <v/>
       </c>
       <c r="Q208" s="41" t="str">
-        <f>IF(Sample_information!I213&lt;&gt;0,Sample_information!I213,"")</f>
+        <f>IF(Sample_information!I209&lt;&gt;0,Sample_information!I209,"")</f>
         <v/>
       </c>
     </row>
@@ -10305,22 +10251,22 @@
       <c r="H209" s="23"/>
       <c r="I209" s="23"/>
       <c r="J209" s="23" t="str">
-        <f>IF(Sample_information!M214&lt;&gt;0,Sample_information!M214,"")</f>
+        <f>IF(Sample_information!M210&lt;&gt;0,Sample_information!M210,"")</f>
         <v/>
       </c>
       <c r="L209" s="23"/>
       <c r="M209" s="41" t="str">
-        <f>IF(Sample_information!A213&lt;&gt;0,IFERROR(IF(M208&lt;&gt;0,("C"&amp;TEXT(RIGHT(M208,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A209&lt;&gt;0,IFERROR(IF(M208&lt;&gt;0,("C"&amp;TEXT(RIGHT(M208,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N209" s="41"/>
       <c r="O209" s="41"/>
       <c r="P209" s="41" t="str">
-        <f>IF(Sample_information!H214&lt;&gt;0,Sample_information!H214,"")</f>
+        <f>IF(Sample_information!H210&lt;&gt;0,Sample_information!H210,"")</f>
         <v/>
       </c>
       <c r="Q209" s="41" t="str">
-        <f>IF(Sample_information!I214&lt;&gt;0,Sample_information!I214,"")</f>
+        <f>IF(Sample_information!I210&lt;&gt;0,Sample_information!I210,"")</f>
         <v/>
       </c>
     </row>
@@ -10336,22 +10282,22 @@
       <c r="H210" s="23"/>
       <c r="I210" s="23"/>
       <c r="J210" s="23" t="str">
-        <f>IF(Sample_information!M215&lt;&gt;0,Sample_information!M215,"")</f>
+        <f>IF(Sample_information!M211&lt;&gt;0,Sample_information!M211,"")</f>
         <v/>
       </c>
       <c r="L210" s="23"/>
       <c r="M210" s="41" t="str">
-        <f>IF(Sample_information!A214&lt;&gt;0,IFERROR(IF(M209&lt;&gt;0,("C"&amp;TEXT(RIGHT(M209,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A210&lt;&gt;0,IFERROR(IF(M209&lt;&gt;0,("C"&amp;TEXT(RIGHT(M209,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N210" s="41"/>
       <c r="O210" s="41"/>
       <c r="P210" s="41" t="str">
-        <f>IF(Sample_information!H215&lt;&gt;0,Sample_information!H215,"")</f>
+        <f>IF(Sample_information!H211&lt;&gt;0,Sample_information!H211,"")</f>
         <v/>
       </c>
       <c r="Q210" s="41" t="str">
-        <f>IF(Sample_information!I215&lt;&gt;0,Sample_information!I215,"")</f>
+        <f>IF(Sample_information!I211&lt;&gt;0,Sample_information!I211,"")</f>
         <v/>
       </c>
     </row>
@@ -10367,22 +10313,22 @@
       <c r="H211" s="23"/>
       <c r="I211" s="23"/>
       <c r="J211" s="23" t="str">
-        <f>IF(Sample_information!M216&lt;&gt;0,Sample_information!M216,"")</f>
+        <f>IF(Sample_information!M212&lt;&gt;0,Sample_information!M212,"")</f>
         <v/>
       </c>
       <c r="L211" s="23"/>
       <c r="M211" s="41" t="str">
-        <f>IF(Sample_information!A215&lt;&gt;0,IFERROR(IF(M210&lt;&gt;0,("C"&amp;TEXT(RIGHT(M210,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A211&lt;&gt;0,IFERROR(IF(M210&lt;&gt;0,("C"&amp;TEXT(RIGHT(M210,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N211" s="41"/>
       <c r="O211" s="41"/>
       <c r="P211" s="41" t="str">
-        <f>IF(Sample_information!H216&lt;&gt;0,Sample_information!H216,"")</f>
+        <f>IF(Sample_information!H212&lt;&gt;0,Sample_information!H212,"")</f>
         <v/>
       </c>
       <c r="Q211" s="41" t="str">
-        <f>IF(Sample_information!I216&lt;&gt;0,Sample_information!I216,"")</f>
+        <f>IF(Sample_information!I212&lt;&gt;0,Sample_information!I212,"")</f>
         <v/>
       </c>
     </row>
@@ -10398,22 +10344,22 @@
       <c r="H212" s="23"/>
       <c r="I212" s="23"/>
       <c r="J212" s="23" t="str">
-        <f>IF(Sample_information!M217&lt;&gt;0,Sample_information!M217,"")</f>
+        <f>IF(Sample_information!M213&lt;&gt;0,Sample_information!M213,"")</f>
         <v/>
       </c>
       <c r="L212" s="23"/>
       <c r="M212" s="41" t="str">
-        <f>IF(Sample_information!A216&lt;&gt;0,IFERROR(IF(M211&lt;&gt;0,("C"&amp;TEXT(RIGHT(M211,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A212&lt;&gt;0,IFERROR(IF(M211&lt;&gt;0,("C"&amp;TEXT(RIGHT(M211,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N212" s="41"/>
       <c r="O212" s="41"/>
       <c r="P212" s="41" t="str">
-        <f>IF(Sample_information!H217&lt;&gt;0,Sample_information!H217,"")</f>
+        <f>IF(Sample_information!H213&lt;&gt;0,Sample_information!H213,"")</f>
         <v/>
       </c>
       <c r="Q212" s="41" t="str">
-        <f>IF(Sample_information!I217&lt;&gt;0,Sample_information!I217,"")</f>
+        <f>IF(Sample_information!I213&lt;&gt;0,Sample_information!I213,"")</f>
         <v/>
       </c>
     </row>
@@ -10429,22 +10375,22 @@
       <c r="H213" s="23"/>
       <c r="I213" s="23"/>
       <c r="J213" s="23" t="str">
-        <f>IF(Sample_information!M218&lt;&gt;0,Sample_information!M218,"")</f>
+        <f>IF(Sample_information!M214&lt;&gt;0,Sample_information!M214,"")</f>
         <v/>
       </c>
       <c r="L213" s="23"/>
       <c r="M213" s="41" t="str">
-        <f>IF(Sample_information!A217&lt;&gt;0,IFERROR(IF(M212&lt;&gt;0,("C"&amp;TEXT(RIGHT(M212,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A213&lt;&gt;0,IFERROR(IF(M212&lt;&gt;0,("C"&amp;TEXT(RIGHT(M212,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N213" s="41"/>
       <c r="O213" s="41"/>
       <c r="P213" s="41" t="str">
-        <f>IF(Sample_information!H218&lt;&gt;0,Sample_information!H218,"")</f>
+        <f>IF(Sample_information!H214&lt;&gt;0,Sample_information!H214,"")</f>
         <v/>
       </c>
       <c r="Q213" s="41" t="str">
-        <f>IF(Sample_information!I218&lt;&gt;0,Sample_information!I218,"")</f>
+        <f>IF(Sample_information!I214&lt;&gt;0,Sample_information!I214,"")</f>
         <v/>
       </c>
     </row>
@@ -10461,17 +10407,17 @@
       <c r="I214" s="23"/>
       <c r="L214" s="23"/>
       <c r="M214" s="41" t="str">
-        <f>IF(Sample_information!A218&lt;&gt;0,IFERROR(IF(M213&lt;&gt;0,("C"&amp;TEXT(RIGHT(M213,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A214&lt;&gt;0,IFERROR(IF(M213&lt;&gt;0,("C"&amp;TEXT(RIGHT(M213,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N214" s="41"/>
       <c r="O214" s="41"/>
       <c r="P214" s="41" t="str">
-        <f>IF(Sample_information!H219&lt;&gt;0,Sample_information!H219,"")</f>
+        <f>IF(Sample_information!H215&lt;&gt;0,Sample_information!H215,"")</f>
         <v/>
       </c>
       <c r="Q214" s="41" t="str">
-        <f>IF(Sample_information!I219&lt;&gt;0,Sample_information!I219,"")</f>
+        <f>IF(Sample_information!I215&lt;&gt;0,Sample_information!I215,"")</f>
         <v/>
       </c>
     </row>
@@ -10484,13 +10430,13 @@
       <c r="I215" s="23"/>
       <c r="L215" s="23"/>
       <c r="M215" s="41" t="str">
-        <f>IF(Sample_information!A219&lt;&gt;0,IFERROR(IF(M214&lt;&gt;0,("C"&amp;TEXT(RIGHT(M214,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A215&lt;&gt;0,IFERROR(IF(M214&lt;&gt;0,("C"&amp;TEXT(RIGHT(M214,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N215" s="41"/>
       <c r="O215" s="41"/>
       <c r="P215" s="41" t="str">
-        <f>IF(Sample_information!H220&lt;&gt;0,Sample_information!H220,"")</f>
+        <f>IF(Sample_information!H216&lt;&gt;0,Sample_information!H216,"")</f>
         <v/>
       </c>
       <c r="Q215" s="41"/>
@@ -10504,13 +10450,13 @@
       <c r="I216" s="23"/>
       <c r="L216" s="23"/>
       <c r="M216" s="41" t="str">
-        <f>IF(Sample_information!A220&lt;&gt;0,IFERROR(IF(M215&lt;&gt;0,("C"&amp;TEXT(RIGHT(M215,4)+1,"0000")),""),""),"")</f>
+        <f>IF(Sample_information!A216&lt;&gt;0,IFERROR(IF(M215&lt;&gt;0,("C"&amp;TEXT(RIGHT(M215,4)+1,"0000")),""),""),"")</f>
         <v/>
       </c>
       <c r="N216" s="41"/>
       <c r="O216" s="41"/>
       <c r="P216" s="41" t="str">
-        <f>IF(Sample_information!H221&lt;&gt;0,Sample_information!H221,"")</f>
+        <f>IF(Sample_information!H217&lt;&gt;0,Sample_information!H217,"")</f>
         <v/>
       </c>
       <c r="Q216" s="41"/>
@@ -10525,7 +10471,7 @@
       <c r="L217" s="23"/>
       <c r="M217" s="23"/>
       <c r="P217" s="41" t="str">
-        <f>IF(Sample_information!H222&lt;&gt;0,Sample_information!H222,"")</f>
+        <f>IF(Sample_information!H218&lt;&gt;0,Sample_information!H218,"")</f>
         <v/>
       </c>
       <c r="Q217" s="41"/>
@@ -10618,7 +10564,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -10628,24 +10574,24 @@
     </row>
     <row r="2" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="C2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="E2" s="61" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -10657,7 +10603,7 @@
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
@@ -10669,7 +10615,7 @@
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -10681,7 +10627,7 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -10693,7 +10639,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -10705,7 +10651,7 @@
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -10717,7 +10663,7 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -10729,7 +10675,7 @@
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -10741,7 +10687,7 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -10753,7 +10699,7 @@
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -10848,34 +10794,34 @@
   <sheetData>
     <row r="1" spans="1:5" s="71" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="71" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="C6" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="D6" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="E6" s="61" t="s">
         <v>81</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -10887,7 +10833,7 @@
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -10899,7 +10845,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -10911,7 +10857,7 @@
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -10923,7 +10869,7 @@
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -10935,7 +10881,7 @@
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -10947,7 +10893,7 @@
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
@@ -10959,7 +10905,7 @@
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
@@ -10971,7 +10917,7 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -10983,7 +10929,7 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
@@ -10995,7 +10941,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -11007,7 +10953,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -11019,7 +10965,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -11084,29 +11030,29 @@
   <sheetData>
     <row r="1" spans="1:5" s="71" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="C2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="E2" s="61" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -11118,7 +11064,7 @@
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="63"/>
       <c r="C4" s="63"/>
